--- a/Jogos_da_Semana_FlashScore_2024-12-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-07.xlsx
@@ -1132,7 +1132,7 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1505,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
         <v>1.33</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>4.75</v>
@@ -1759,7 +1759,7 @@
         <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -1777,7 +1777,7 @@
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
         <v>2.1</v>
@@ -1857,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.29</v>
@@ -1902,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
@@ -1911,7 +1911,7 @@
         <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1935,10 +1935,10 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
         <v>8</v>
@@ -1947,7 +1947,7 @@
         <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR8" t="n">
         <v>51</v>
@@ -1959,16 +1959,16 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
@@ -2051,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J13" t="n">
         <v>2.05</v>
@@ -2830,7 +2830,7 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
@@ -2839,7 +2839,7 @@
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
@@ -2875,10 +2875,10 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
         <v>29</v>
@@ -2893,7 +2893,7 @@
         <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -2952,13 +2952,13 @@
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.53</v>
@@ -3131,10 +3131,10 @@
         <v>2.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -3689,10 +3689,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -4590,7 +4590,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -4599,10 +4599,10 @@
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="R23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -5313,10 +5313,10 @@
         <v>4.33</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
         <v>1.5</v>
@@ -6388,10 +6388,10 @@
         <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
         <v>2.5</v>
@@ -6415,10 +6415,10 @@
         <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S33" t="n">
         <v>1.3</v>
@@ -6439,7 +6439,7 @@
         <v>11</v>
       </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z33" t="n">
         <v>17</v>
@@ -7473,13 +7473,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H39" t="n">
         <v>4.05</v>
       </c>
       <c r="I39" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J39" t="n">
         <v>5.1</v>
@@ -7488,7 +7488,7 @@
         <v>2.27</v>
       </c>
       <c r="L39" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
@@ -7497,16 +7497,16 @@
         <v>11.5</v>
       </c>
       <c r="O39" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P39" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S39" t="n">
         <v>1.32</v>
@@ -7515,10 +7515,10 @@
         <v>3.1</v>
       </c>
       <c r="U39" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V39" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.82</v>
       </c>
       <c r="W39" t="n">
         <v>14.5</v>
@@ -7527,7 +7527,7 @@
         <v>30</v>
       </c>
       <c r="Y39" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z39" t="n">
         <v>90</v>
@@ -7536,16 +7536,16 @@
         <v>50</v>
       </c>
       <c r="AB39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC39" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD39" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE39" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF39" t="n">
         <v>80</v>
@@ -7554,10 +7554,10 @@
         <v>600</v>
       </c>
       <c r="AH39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI39" t="n">
         <v>7.2</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>7.3</v>
       </c>
       <c r="AJ39" t="n">
         <v>8.25</v>
@@ -7566,7 +7566,7 @@
         <v>10.75</v>
       </c>
       <c r="AL39" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM39" t="n">
         <v>26</v>
@@ -7578,7 +7578,7 @@
         <v>28</v>
       </c>
       <c r="AP39" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ39" t="n">
         <v>175</v>
@@ -7590,13 +7590,13 @@
         <v>450</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU39" t="n">
         <v>7.8</v>
       </c>
       <c r="AV39" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW39" t="n">
         <v>3.35</v>
@@ -7605,16 +7605,16 @@
         <v>7.2</v>
       </c>
       <c r="AY39" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ39" t="n">
         <v>22</v>
       </c>
       <c r="BA39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
@@ -8039,10 +8039,10 @@
         <v>7.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P42" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q42" t="n">
         <v>2.35</v>
@@ -8057,10 +8057,10 @@
         <v>2.75</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V42" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W42" t="n">
         <v>7</v>
@@ -8206,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K43" t="n">
         <v>2.3</v>
@@ -8227,10 +8227,10 @@
         <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S43" t="n">
         <v>1.33</v>
@@ -8379,19 +8379,19 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H44" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I44" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J44" t="n">
         <v>2.1</v>
       </c>
       <c r="K44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L44" t="n">
         <v>5</v>
@@ -8403,22 +8403,22 @@
         <v>17</v>
       </c>
       <c r="O44" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R44" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S44" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U44" t="n">
         <v>1.67</v>
@@ -8481,13 +8481,13 @@
         <v>3.75</v>
       </c>
       <c r="AO44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP44" t="n">
         <v>17</v>
       </c>
       <c r="AQ44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR44" t="n">
         <v>41</v>
@@ -8496,7 +8496,7 @@
         <v>101</v>
       </c>
       <c r="AT44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU44" t="n">
         <v>8</v>
@@ -8517,7 +8517,7 @@
         <v>81</v>
       </c>
       <c r="BA44" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB44" t="n">
         <v>151</v>
@@ -8743,16 +8743,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H46" t="n">
         <v>3.6</v>
       </c>
       <c r="I46" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
         <v>2.3</v>
@@ -8767,10 +8767,10 @@
         <v>15</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q46" t="n">
         <v>1.65</v>
@@ -8806,7 +8806,7 @@
         <v>21</v>
       </c>
       <c r="AB46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC46" t="n">
         <v>15</v>
@@ -8839,7 +8839,7 @@
         <v>17</v>
       </c>
       <c r="AM46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
         <v>5</v>
@@ -8851,7 +8851,7 @@
         <v>21</v>
       </c>
       <c r="AQ46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR46" t="n">
         <v>51</v>
@@ -8869,7 +8869,7 @@
         <v>41</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
         <v>12</v>
@@ -8926,7 +8926,7 @@
         <v>1.57</v>
       </c>
       <c r="H47" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I47" t="n">
         <v>5</v>
@@ -9031,7 +9031,7 @@
         <v>15</v>
       </c>
       <c r="AQ47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR47" t="n">
         <v>41</v>
@@ -9052,7 +9052,7 @@
         <v>7</v>
       </c>
       <c r="AX47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY47" t="n">
         <v>26</v>
@@ -9104,7 +9104,7 @@
         <v>1.67</v>
       </c>
       <c r="H48" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I48" t="n">
         <v>4.75</v>
@@ -9119,10 +9119,10 @@
         <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -9143,10 +9143,10 @@
         <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V48" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W48" t="n">
         <v>7.5</v>
@@ -9167,7 +9167,7 @@
         <v>26</v>
       </c>
       <c r="AC48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD48" t="n">
         <v>7.5</v>
@@ -9300,7 +9300,7 @@
         <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -9327,7 +9327,7 @@
         <v>1.73</v>
       </c>
       <c r="W49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X49" t="n">
         <v>11</v>
@@ -9348,7 +9348,7 @@
         <v>7.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE49" t="n">
         <v>17</v>
@@ -9399,7 +9399,7 @@
         <v>2.38</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV49" t="n">
         <v>67</v>
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J50" t="n">
         <v>7</v>
@@ -9475,10 +9475,10 @@
         <v>2.2</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O50" t="n">
         <v>1.4</v>
@@ -9505,13 +9505,13 @@
         <v>1.53</v>
       </c>
       <c r="W50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X50" t="n">
         <v>29</v>
       </c>
       <c r="Y50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z50" t="n">
         <v>67</v>
@@ -9532,13 +9532,13 @@
         <v>23</v>
       </c>
       <c r="AF50" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG50" t="n">
         <v>101</v>
       </c>
       <c r="AH50" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI50" t="n">
         <v>6</v>
@@ -9547,7 +9547,7 @@
         <v>9</v>
       </c>
       <c r="AK50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL50" t="n">
         <v>15</v>
@@ -9556,7 +9556,7 @@
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO50" t="n">
         <v>41</v>
@@ -9584,19 +9584,19 @@
         <v>3.25</v>
       </c>
       <c r="AX50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY50" t="n">
         <v>23</v>
       </c>
       <c r="AZ50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA50" t="n">
         <v>51</v>
       </c>
       <c r="BB50" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="inlineStr"/>
@@ -9636,10 +9636,10 @@
         <v>1.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J51" t="n">
         <v>2.1</v>
@@ -9841,10 +9841,10 @@
         <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R52" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S52" t="n">
         <v>1.44</v>
@@ -9993,28 +9993,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H53" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I53" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="J53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K53" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O53" t="n">
         <v>1.29</v>
@@ -10023,10 +10023,10 @@
         <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R53" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S53" t="n">
         <v>1.4</v>
@@ -10044,7 +10044,7 @@
         <v>17</v>
       </c>
       <c r="X53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y53" t="n">
         <v>21</v>
@@ -10062,7 +10062,7 @@
         <v>10</v>
       </c>
       <c r="AD53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE53" t="n">
         <v>21</v>
@@ -10080,10 +10080,10 @@
         <v>6.5</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK53" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL53" t="n">
         <v>13</v>
@@ -10092,7 +10092,7 @@
         <v>29</v>
       </c>
       <c r="AN53" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO53" t="n">
         <v>41</v>
@@ -10104,7 +10104,7 @@
         <v>151</v>
       </c>
       <c r="AR53" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS53" t="n">
         <v>351</v>
@@ -10131,7 +10131,7 @@
         <v>21</v>
       </c>
       <c r="BA53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB53" t="n">
         <v>151</v>
@@ -10184,13 +10184,13 @@
         <v>2.65</v>
       </c>
       <c r="J54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L54" t="n">
         <v>3.15</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L54" t="n">
-        <v>3.2</v>
       </c>
       <c r="M54" t="n">
         <v>1.09</v>
@@ -10223,13 +10223,13 @@
         <v>1.85</v>
       </c>
       <c r="W54" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X54" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y54" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z54" t="n">
         <v>32</v>
@@ -10238,7 +10238,7 @@
         <v>26</v>
       </c>
       <c r="AB54" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC54" t="n">
         <v>6.7</v>
@@ -10256,10 +10256,10 @@
         <v>800</v>
       </c>
       <c r="AH54" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ54" t="n">
         <v>10.75</v>
@@ -10268,7 +10268,7 @@
         <v>32</v>
       </c>
       <c r="AL54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM54" t="n">
         <v>40</v>
@@ -10307,16 +10307,16 @@
         <v>14</v>
       </c>
       <c r="AY54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ54" t="n">
         <v>60</v>
       </c>
       <c r="BA54" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB54" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>
@@ -11255,13 +11255,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J60" t="n">
         <v>3</v>
@@ -11270,40 +11270,40 @@
         <v>2.1</v>
       </c>
       <c r="L60" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P60" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R60" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U60" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V60" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X60" t="n">
         <v>11</v>
@@ -11318,16 +11318,16 @@
         <v>19</v>
       </c>
       <c r="AB60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD60" t="n">
         <v>6</v>
       </c>
       <c r="AE60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF60" t="n">
         <v>41</v>
@@ -11336,7 +11336,7 @@
         <v>201</v>
       </c>
       <c r="AH60" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI60" t="n">
         <v>17</v>
@@ -11366,13 +11366,13 @@
         <v>41</v>
       </c>
       <c r="AR60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS60" t="n">
         <v>151</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU60" t="n">
         <v>8</v>
@@ -11396,7 +11396,7 @@
         <v>81</v>
       </c>
       <c r="BB60" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC60" t="inlineStr"/>
       <c r="BD60" t="inlineStr"/>
@@ -11451,10 +11451,10 @@
         <v>8</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O61" t="n">
         <v>1.29</v>
@@ -11463,10 +11463,10 @@
         <v>3.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R61" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S61" t="n">
         <v>1.36</v>
@@ -11821,16 +11821,16 @@
         <v>10</v>
       </c>
       <c r="O63" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R63" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S63" t="n">
         <v>1.4</v>
@@ -11979,13 +11979,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H64" t="n">
         <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
         <v>2.88</v>
@@ -11994,7 +11994,7 @@
         <v>2.2</v>
       </c>
       <c r="L64" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.05</v>
@@ -12069,7 +12069,7 @@
         <v>11</v>
       </c>
       <c r="AK64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL64" t="n">
         <v>23</v>
@@ -12078,7 +12078,7 @@
         <v>29</v>
       </c>
       <c r="AN64" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO64" t="n">
         <v>12</v>
@@ -12191,10 +12191,10 @@
         <v>3.5</v>
       </c>
       <c r="Q65" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R65" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S65" t="n">
         <v>1.4</v>
@@ -12534,19 +12534,19 @@
         <v>2.88</v>
       </c>
       <c r="J67" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K67" t="n">
         <v>1.95</v>
       </c>
       <c r="L67" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M67" t="n">
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O67" t="n">
         <v>1.44</v>
@@ -12582,7 +12582,7 @@
         <v>10</v>
       </c>
       <c r="Z67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA67" t="n">
         <v>23</v>
@@ -12600,7 +12600,7 @@
         <v>17</v>
       </c>
       <c r="AF67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG67" t="n">
         <v>401</v>
@@ -12624,7 +12624,7 @@
         <v>41</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO67" t="n">
         <v>15</v>
@@ -12663,7 +12663,7 @@
         <v>51</v>
       </c>
       <c r="BA67" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB67" t="n">
         <v>251</v>
@@ -14193,10 +14193,10 @@
         <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R76" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S76" t="n">
         <v>1.4</v>
@@ -17075,28 +17075,28 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>3.5</v>
       </c>
       <c r="I92" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J92" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K92" t="n">
         <v>2.3</v>
       </c>
       <c r="L92" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O92" t="n">
         <v>1.2</v>
@@ -17141,7 +17141,7 @@
         <v>23</v>
       </c>
       <c r="AC92" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD92" t="n">
         <v>7</v>
@@ -17156,13 +17156,13 @@
         <v>126</v>
       </c>
       <c r="AH92" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI92" t="n">
         <v>15</v>
       </c>
       <c r="AJ92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK92" t="n">
         <v>29</v>
@@ -17174,13 +17174,13 @@
         <v>26</v>
       </c>
       <c r="AN92" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO92" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP92" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ92" t="n">
         <v>41</v>
@@ -17210,7 +17210,7 @@
         <v>21</v>
       </c>
       <c r="AZ92" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA92" t="n">
         <v>51</v>
@@ -17638,7 +17638,7 @@
         <v>1.08</v>
       </c>
       <c r="N95" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O95" t="n">
         <v>1.36</v>
@@ -17795,22 +17795,22 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="H96" t="n">
         <v>3.5</v>
       </c>
       <c r="I96" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J96" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
@@ -17843,19 +17843,19 @@
         <v>2</v>
       </c>
       <c r="W96" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y96" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z96" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA96" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB96" t="n">
         <v>29</v>
@@ -17876,7 +17876,7 @@
         <v>201</v>
       </c>
       <c r="AH96" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI96" t="n">
         <v>13</v>
@@ -17885,7 +17885,7 @@
         <v>10</v>
       </c>
       <c r="AK96" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL96" t="n">
         <v>21</v>
@@ -17894,10 +17894,10 @@
         <v>29</v>
       </c>
       <c r="AN96" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO96" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP96" t="n">
         <v>23</v>
@@ -17994,7 +17994,7 @@
         <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O97" t="n">
         <v>1.22</v>
@@ -18151,28 +18151,28 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H98" t="n">
         <v>3.4</v>
       </c>
       <c r="I98" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J98" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K98" t="n">
         <v>2.3</v>
       </c>
       <c r="L98" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M98" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O98" t="n">
         <v>1.18</v>
@@ -18199,7 +18199,7 @@
         <v>2.25</v>
       </c>
       <c r="W98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X98" t="n">
         <v>11</v>
@@ -18208,7 +18208,7 @@
         <v>9</v>
       </c>
       <c r="Z98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA98" t="n">
         <v>15</v>
@@ -18217,7 +18217,7 @@
         <v>21</v>
       </c>
       <c r="AC98" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD98" t="n">
         <v>7</v>
@@ -18253,16 +18253,16 @@
         <v>4.33</v>
       </c>
       <c r="AO98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP98" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ98" t="n">
         <v>34</v>
       </c>
       <c r="AR98" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS98" t="n">
         <v>101</v>
@@ -18280,7 +18280,7 @@
         <v>5.5</v>
       </c>
       <c r="AX98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY98" t="n">
         <v>23</v>
@@ -18292,7 +18292,7 @@
         <v>67</v>
       </c>
       <c r="BB98" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC98" t="inlineStr"/>
       <c r="BD98" t="inlineStr"/>
@@ -18328,54 +18328,150 @@
           <t>East Bengal</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
-      <c r="AH99" t="inlineStr"/>
-      <c r="AI99" t="inlineStr"/>
-      <c r="AJ99" t="inlineStr"/>
-      <c r="AK99" t="inlineStr"/>
-      <c r="AL99" t="inlineStr"/>
-      <c r="AM99" t="inlineStr"/>
-      <c r="AN99" t="inlineStr"/>
-      <c r="AO99" t="inlineStr"/>
-      <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
-      <c r="AR99" t="inlineStr"/>
-      <c r="AS99" t="inlineStr"/>
-      <c r="AT99" t="inlineStr"/>
-      <c r="AU99" t="inlineStr"/>
-      <c r="AV99" t="inlineStr"/>
-      <c r="AW99" t="inlineStr"/>
-      <c r="AX99" t="inlineStr"/>
-      <c r="AY99" t="inlineStr"/>
-      <c r="AZ99" t="inlineStr"/>
-      <c r="BA99" t="inlineStr"/>
-      <c r="BB99" t="inlineStr"/>
+      <c r="G99" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L99" t="n">
+        <v>4</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N99" t="n">
+        <v>15</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W99" t="n">
+        <v>9</v>
+      </c>
+      <c r="X99" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>151</v>
+      </c>
       <c r="BC99" t="inlineStr"/>
       <c r="BD99" t="inlineStr"/>
     </row>
@@ -19123,115 +19219,149 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="I104" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J104" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="K104" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="L104" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N104" t="n">
+        <v>11</v>
+      </c>
       <c r="O104" t="n">
         <v>1.29</v>
       </c>
       <c r="P104" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q104" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R104" t="n">
         <v>1.9</v>
       </c>
-      <c r="R104" t="n">
-        <v>1.84</v>
-      </c>
       <c r="S104" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="T104" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U104" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="V104" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W104" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="X104" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y104" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z104" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AA104" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AB104" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC104" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AD104" t="n">
-        <v>5.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE104" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ104" t="n">
         <v>12</v>
       </c>
-      <c r="AF104" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG104" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH104" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI104" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ104" t="n">
-        <v>8.6</v>
-      </c>
       <c r="AK104" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AL104" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AM104" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN104" t="inlineStr"/>
-      <c r="AO104" t="inlineStr"/>
-      <c r="AP104" t="inlineStr"/>
-      <c r="AQ104" t="inlineStr"/>
-      <c r="AR104" t="inlineStr"/>
-      <c r="AS104" t="inlineStr"/>
-      <c r="AT104" t="inlineStr"/>
-      <c r="AU104" t="inlineStr"/>
-      <c r="AV104" t="inlineStr"/>
-      <c r="AW104" t="inlineStr"/>
-      <c r="AX104" t="inlineStr"/>
-      <c r="AY104" t="inlineStr"/>
-      <c r="AZ104" t="inlineStr"/>
-      <c r="BA104" t="inlineStr"/>
-      <c r="BB104" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>151</v>
+      </c>
       <c r="BC104" t="inlineStr"/>
       <c r="BD104" t="inlineStr"/>
     </row>
@@ -19267,100 +19397,100 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>8.75</v>
+        <v>7.5</v>
       </c>
       <c r="H105" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="I105" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="J105" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K105" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="L105" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="M105" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N105" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="O105" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P105" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q105" t="n">
         <v>1.6</v>
       </c>
       <c r="R105" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="S105" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="T105" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="U105" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V105" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W105" t="n">
+        <v>21</v>
+      </c>
+      <c r="X105" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y105" t="n">
         <v>23</v>
       </c>
-      <c r="X105" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>27</v>
-      </c>
       <c r="Z105" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AA105" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AB105" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AC105" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AD105" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE105" t="n">
         <v>21</v>
       </c>
       <c r="AF105" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AG105" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
       <c r="AH105" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI105" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AJ105" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK105" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK105" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AL105" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AM105" t="n">
         <v>26</v>
@@ -19369,44 +19499,46 @@
         <v>9.5</v>
       </c>
       <c r="AO105" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AP105" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AQ105" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AR105" t="n">
-        <v>400</v>
-      </c>
-      <c r="AS105" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>301</v>
+      </c>
       <c r="AT105" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AU105" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV105" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW105" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="AX105" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AY105" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AZ105" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="BA105" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BB105" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BC105" t="inlineStr"/>
       <c r="BD105" t="inlineStr"/>
@@ -19989,16 +20121,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>3.3</v>
       </c>
       <c r="I109" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J109" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K109" t="n">
         <v>2.05</v>
@@ -20040,7 +20172,7 @@
         <v>6.5</v>
       </c>
       <c r="X109" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y109" t="n">
         <v>9</v>
@@ -20067,10 +20199,10 @@
         <v>51</v>
       </c>
       <c r="AG109" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH109" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI109" t="n">
         <v>19</v>
@@ -20088,7 +20220,7 @@
         <v>41</v>
       </c>
       <c r="AN109" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO109" t="n">
         <v>11</v>
@@ -20118,7 +20250,7 @@
         <v>5.5</v>
       </c>
       <c r="AX109" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY109" t="n">
         <v>34</v>
@@ -20130,7 +20262,7 @@
         <v>101</v>
       </c>
       <c r="BB109" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC109" t="n">
         <v>81</v>
@@ -20534,148 +20666,148 @@
         <v>1.55</v>
       </c>
       <c r="H112" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="I112" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J112" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="K112" t="n">
         <v>2.4</v>
       </c>
       <c r="L112" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M112" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N112" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="O112" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P112" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R112" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="S112" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="T112" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="U112" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V112" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X112" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y112" t="n">
         <v>8.5</v>
       </c>
       <c r="Z112" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA112" t="n">
         <v>12</v>
       </c>
       <c r="AB112" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ112" t="n">
         <v>23</v>
       </c>
-      <c r="AC112" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD112" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE112" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF112" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG112" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH112" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI112" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ112" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK112" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL112" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM112" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN112" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO112" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AP112" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ112" t="n">
-        <v>22</v>
-      </c>
       <c r="AR112" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AS112" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AT112" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AU112" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AV112" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW112" t="n">
         <v>7</v>
       </c>
       <c r="AX112" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY112" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ112" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BA112" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BB112" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC112" t="n">
-        <v>126</v>
+        <v>451</v>
       </c>
       <c r="BD112" t="n">
         <v>151</v>
@@ -20713,46 +20845,46 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="H113" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I113" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="K113" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L113" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="M113" t="n">
         <v>1.05</v>
       </c>
       <c r="N113" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O113" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P113" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R113" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S113" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T113" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="U113" t="n">
         <v>2.12</v>
@@ -20764,28 +20896,28 @@
         <v>5.2</v>
       </c>
       <c r="X113" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="Y113" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z113" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA113" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AB113" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC113" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE113" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF113" t="n">
         <v>150</v>
@@ -20794,43 +20926,43 @@
         <v>101</v>
       </c>
       <c r="AH113" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI113" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ113" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AK113" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL113" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM113" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN113" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AO113" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AP113" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ113" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AR113" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS113" t="n">
         <v>400</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="AU113" t="n">
         <v>8.25</v>
@@ -20839,21 +20971,23 @@
         <v>100</v>
       </c>
       <c r="AW113" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AX113" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AY113" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ113" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BA113" t="n">
         <v>250</v>
       </c>
-      <c r="BB113" t="inlineStr"/>
+      <c r="BB113" t="n">
+        <v>700</v>
+      </c>
       <c r="BC113" t="inlineStr"/>
       <c r="BD113" t="inlineStr"/>
     </row>
@@ -20919,10 +21053,10 @@
         <v>5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R114" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S114" t="n">
         <v>1.29</v>
@@ -21984,16 +22118,16 @@
         <v>2.05</v>
       </c>
       <c r="H120" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I120" t="n">
         <v>3.2</v>
       </c>
       <c r="J120" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K120" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L120" t="n">
         <v>3.75</v>
@@ -22005,31 +22139,31 @@
         <v>13</v>
       </c>
       <c r="O120" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P120" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R120" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S120" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T120" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U120" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V120" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W120" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X120" t="n">
         <v>11</v>
@@ -22041,19 +22175,19 @@
         <v>19</v>
       </c>
       <c r="AA120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB120" t="n">
         <v>23</v>
       </c>
       <c r="AC120" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE120" t="n">
         <v>13</v>
-      </c>
-      <c r="AD120" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE120" t="n">
-        <v>12</v>
       </c>
       <c r="AF120" t="n">
         <v>41</v>
@@ -22062,10 +22196,10 @@
         <v>151</v>
       </c>
       <c r="AH120" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ120" t="n">
         <v>12</v>
@@ -22074,7 +22208,7 @@
         <v>34</v>
       </c>
       <c r="AL120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM120" t="n">
         <v>29</v>
@@ -22086,10 +22220,10 @@
         <v>11</v>
       </c>
       <c r="AP120" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ120" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR120" t="n">
         <v>51</v>
@@ -22098,13 +22232,13 @@
         <v>126</v>
       </c>
       <c r="AT120" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU120" t="n">
         <v>7.5</v>
       </c>
       <c r="AV120" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW120" t="n">
         <v>5.5</v>
@@ -22545,10 +22679,10 @@
         <v>5.5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O123" t="n">
         <v>1.36</v>
@@ -22727,10 +22861,10 @@
         <v>2.05</v>
       </c>
       <c r="M124" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O124" t="n">
         <v>1.29</v>
@@ -22739,10 +22873,10 @@
         <v>3.5</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R124" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S124" t="n">
         <v>1.4</v>
@@ -23619,22 +23753,22 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H129" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="J129" t="n">
         <v>4.8</v>
       </c>
-      <c r="I129" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="J129" t="n">
-        <v>4.55</v>
-      </c>
       <c r="K129" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L129" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="M129" t="n">
         <v>1.02</v>
@@ -23643,46 +23777,46 @@
         <v>10</v>
       </c>
       <c r="O129" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P129" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="R129" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S129" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T129" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="U129" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="V129" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="W129" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X129" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y129" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z129" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AA129" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB129" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC129" t="n">
         <v>11</v>
@@ -23691,76 +23825,76 @@
         <v>12</v>
       </c>
       <c r="AE129" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF129" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG129" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AH129" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI129" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ129" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK129" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL129" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AM129" t="n">
         <v>14.5</v>
       </c>
       <c r="AN129" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AO129" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP129" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ129" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AR129" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS129" t="n">
         <v>120</v>
       </c>
       <c r="AT129" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="AU129" t="n">
         <v>6.4</v>
       </c>
       <c r="AV129" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW129" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AX129" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AY129" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AZ129" t="n">
         <v>16.5</v>
       </c>
       <c r="BA129" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB129" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC129" t="n">
         <v>300</v>
@@ -23977,46 +24111,46 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H131" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="I131" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J131" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="K131" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L131" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M131" t="n">
         <v>1.03</v>
       </c>
       <c r="N131" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O131" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P131" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R131" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="S131" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T131" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="U131" t="n">
         <v>1.55</v>
@@ -24025,7 +24159,7 @@
         <v>2.3</v>
       </c>
       <c r="W131" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X131" t="n">
         <v>32</v>
@@ -24043,13 +24177,13 @@
         <v>35</v>
       </c>
       <c r="AC131" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD131" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE131" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF131" t="n">
         <v>45</v>
@@ -24064,7 +24198,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ131" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK131" t="n">
         <v>12.5</v>
@@ -24076,13 +24210,13 @@
         <v>18.5</v>
       </c>
       <c r="AN131" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AO131" t="n">
         <v>24</v>
       </c>
       <c r="AP131" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ131" t="n">
         <v>120</v>
@@ -24094,7 +24228,7 @@
         <v>250</v>
       </c>
       <c r="AT131" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AU131" t="n">
         <v>7</v>
@@ -24106,19 +24240,19 @@
         <v>3.75</v>
       </c>
       <c r="AX131" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AY131" t="n">
         <v>13.5</v>
       </c>
       <c r="AZ131" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BA131" t="n">
         <v>37</v>
       </c>
       <c r="BB131" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC131" t="n">
         <v>500</v>
@@ -24345,7 +24479,7 @@
         <v>9</v>
       </c>
       <c r="I133" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J133" t="n">
         <v>1.36</v>
@@ -24357,10 +24491,10 @@
         <v>13</v>
       </c>
       <c r="M133" t="n">
+        <v>23</v>
+      </c>
+      <c r="N133" t="n">
         <v>1.01</v>
-      </c>
-      <c r="N133" t="n">
-        <v>15</v>
       </c>
       <c r="O133" t="n">
         <v>1.08</v>
@@ -24381,10 +24515,10 @@
         <v>4.5</v>
       </c>
       <c r="U133" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V133" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W133" t="n">
         <v>12</v>
@@ -24396,7 +24530,7 @@
         <v>13</v>
       </c>
       <c r="Z133" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA133" t="n">
         <v>12</v>
@@ -25085,22 +25219,22 @@
         <v>3.75</v>
       </c>
       <c r="M137" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O137" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P137" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q137" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R137" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S137" t="n">
         <v>1.4</v>
@@ -25115,16 +25249,16 @@
         <v>1.95</v>
       </c>
       <c r="W137" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y137" t="n">
         <v>9</v>
       </c>
       <c r="Z137" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA137" t="n">
         <v>17</v>
@@ -25133,10 +25267,10 @@
         <v>29</v>
       </c>
       <c r="AC137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD137" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE137" t="n">
         <v>15</v>
@@ -25291,7 +25425,7 @@
         <v>3.25</v>
       </c>
       <c r="U138" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V138" t="n">
         <v>2.1</v>
@@ -25473,10 +25607,10 @@
         <v>2.75</v>
       </c>
       <c r="U139" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V139" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W139" t="n">
         <v>7.5</v>
@@ -25628,25 +25762,25 @@
         <v>2.1</v>
       </c>
       <c r="L140" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M140" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N140" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O140" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P140" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q140" t="n">
         <v>2.05</v>
       </c>
       <c r="R140" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S140" t="n">
         <v>1.44</v>
@@ -25655,10 +25789,10 @@
         <v>2.63</v>
       </c>
       <c r="U140" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V140" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W140" t="n">
         <v>7</v>
@@ -25682,7 +25816,7 @@
         <v>9</v>
       </c>
       <c r="AD140" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE140" t="n">
         <v>17</v>
@@ -25691,7 +25825,7 @@
         <v>51</v>
       </c>
       <c r="AG140" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH140" t="n">
         <v>11</v>
@@ -27244,43 +27378,43 @@
         <v>2.3</v>
       </c>
       <c r="H149" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I149" t="n">
         <v>2.82</v>
       </c>
       <c r="J149" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K149" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L149" t="n">
         <v>3.2</v>
       </c>
       <c r="M149" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N149" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O149" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P149" t="n">
-        <v>4.45</v>
+        <v>4.35</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R149" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S149" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T149" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="U149" t="n">
         <v>1.47</v>
@@ -27289,37 +27423,37 @@
         <v>2.5</v>
       </c>
       <c r="W149" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="X149" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y149" t="n">
         <v>9.5</v>
       </c>
       <c r="Z149" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA149" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AB149" t="n">
         <v>22</v>
       </c>
       <c r="AC149" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD149" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE149" t="n">
         <v>11.75</v>
       </c>
       <c r="AF149" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG149" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH149" t="n">
         <v>12.5</v>
@@ -27340,28 +27474,28 @@
         <v>24</v>
       </c>
       <c r="AN149" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AO149" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP149" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ149" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR149" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS149" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT149" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AU149" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV149" t="n">
         <v>40</v>
@@ -27382,7 +27516,7 @@
         <v>70</v>
       </c>
       <c r="BB149" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC149" t="n">
         <v>500</v>
@@ -27423,43 +27557,43 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="H150" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I150" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="J150" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="K150" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="L150" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="M150" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N150" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O150" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P150" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R150" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S150" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T150" t="n">
         <v>3.2</v>
@@ -27471,7 +27605,7 @@
         <v>1.8</v>
       </c>
       <c r="W150" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="X150" t="n">
         <v>6.7</v>
@@ -27480,7 +27614,7 @@
         <v>8.5</v>
       </c>
       <c r="Z150" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA150" t="n">
         <v>10.75</v>
@@ -27489,10 +27623,10 @@
         <v>26</v>
       </c>
       <c r="AC150" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD150" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE150" t="n">
         <v>20</v>
@@ -27504,34 +27638,34 @@
         <v>700</v>
       </c>
       <c r="AH150" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI150" t="n">
         <v>55</v>
       </c>
       <c r="AJ150" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK150" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL150" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM150" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN150" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO150" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AP150" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ150" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AR150" t="n">
         <v>40</v>
@@ -27543,19 +27677,19 @@
         <v>3.2</v>
       </c>
       <c r="AU150" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV150" t="n">
         <v>75</v>
       </c>
       <c r="AW150" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AX150" t="n">
         <v>45</v>
       </c>
       <c r="AY150" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ150" t="n">
         <v>300</v>
@@ -27989,10 +28123,10 @@
         <v>3.75</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R153" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S153" t="n">
         <v>1.36</v>
@@ -28506,16 +28640,16 @@
         <v>1.6</v>
       </c>
       <c r="H156" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J156" t="n">
         <v>2.2</v>
       </c>
       <c r="K156" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L156" t="n">
         <v>5.5</v>
@@ -28688,7 +28822,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I157" t="n">
         <v>2.25</v>
@@ -28742,7 +28876,7 @@
         <v>11</v>
       </c>
       <c r="Z157" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA157" t="n">
         <v>23</v>
@@ -28757,7 +28891,7 @@
         <v>6.5</v>
       </c>
       <c r="AE157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF157" t="n">
         <v>41</v>
@@ -28766,7 +28900,7 @@
         <v>151</v>
       </c>
       <c r="AH157" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI157" t="n">
         <v>12</v>
@@ -28867,13 +29001,13 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H158" t="n">
         <v>3.25</v>
       </c>
       <c r="I158" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J158" t="n">
         <v>3.2</v>
@@ -28924,7 +29058,7 @@
         <v>11</v>
       </c>
       <c r="Z158" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA158" t="n">
         <v>21</v>
@@ -29245,10 +29379,10 @@
         <v>4</v>
       </c>
       <c r="M160" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O160" t="n">
         <v>1.33</v>
@@ -29257,10 +29391,10 @@
         <v>3.25</v>
       </c>
       <c r="Q160" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R160" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S160" t="n">
         <v>1.44</v>
@@ -29430,7 +29564,7 @@
         <v>1.03</v>
       </c>
       <c r="N161" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O161" t="n">
         <v>1.18</v>
@@ -30949,118 +31083,118 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="H170" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I170" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="J170" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K170" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="L170" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="M170" t="n">
         <v>1.03</v>
       </c>
       <c r="N170" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O170" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P170" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R170" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="S170" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="T170" t="n">
         <v>3.55</v>
       </c>
       <c r="U170" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V170" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W170" t="n">
         <v>9</v>
       </c>
       <c r="X170" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="Y170" t="n">
         <v>8.75</v>
       </c>
       <c r="Z170" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA170" t="n">
         <v>10.25</v>
       </c>
       <c r="AB170" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC170" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD170" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE170" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF170" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG170" t="n">
         <v>500</v>
       </c>
       <c r="AH170" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI170" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AJ170" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AK170" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AL170" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AM170" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN170" t="n">
         <v>3.3</v>
       </c>
       <c r="AO170" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AP170" t="n">
         <v>14</v>
       </c>
       <c r="AQ170" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AR170" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AS170" t="n">
         <v>150</v>
@@ -31075,19 +31209,19 @@
         <v>65</v>
       </c>
       <c r="AW170" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AX170" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AY170" t="n">
         <v>40</v>
       </c>
       <c r="AZ170" t="n">
+        <v>350</v>
+      </c>
+      <c r="BA170" t="n">
         <v>300</v>
-      </c>
-      <c r="BA170" t="n">
-        <v>250</v>
       </c>
       <c r="BB170" t="n">
         <v>450</v>
@@ -31307,40 +31441,40 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H172" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I172" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J172" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K172" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="L172" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="M172" t="n">
         <v>1.02</v>
       </c>
       <c r="N172" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O172" t="n">
         <v>1.13</v>
       </c>
       <c r="P172" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R172" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="S172" t="n">
         <v>1.24</v>
@@ -31352,16 +31486,16 @@
         <v>1.42</v>
       </c>
       <c r="V172" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="W172" t="n">
         <v>18</v>
       </c>
       <c r="X172" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y172" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z172" t="n">
         <v>50</v>
@@ -31373,13 +31507,13 @@
         <v>23</v>
       </c>
       <c r="AC172" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD172" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE172" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF172" t="n">
         <v>32</v>
@@ -31397,28 +31531,28 @@
         <v>8.75</v>
       </c>
       <c r="AK172" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL172" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM172" t="n">
         <v>17</v>
       </c>
       <c r="AN172" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AO172" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP172" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ172" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR172" t="n">
         <v>70</v>
-      </c>
-      <c r="AR172" t="n">
-        <v>75</v>
       </c>
       <c r="AS172" t="n">
         <v>150</v>
@@ -31427,22 +31561,22 @@
         <v>3.65</v>
       </c>
       <c r="AU172" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV172" t="n">
         <v>37</v>
       </c>
       <c r="AW172" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AX172" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AY172" t="n">
         <v>13.5</v>
       </c>
       <c r="AZ172" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA172" t="n">
         <v>40</v>
@@ -32201,22 +32335,22 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="I177" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J177" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="K177" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="L177" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="M177" t="n">
         <v>1.01</v>
@@ -32228,19 +32362,19 @@
         <v>1.07</v>
       </c>
       <c r="P177" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Q177" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="R177" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="S177" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="T177" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="U177" t="n">
         <v>2</v>
@@ -32249,91 +32383,91 @@
         <v>1.72</v>
       </c>
       <c r="W177" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X177" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="Y177" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z177" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AA177" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB177" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC177" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AD177" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE177" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AF177" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG177" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AH177" t="n">
         <v>100</v>
       </c>
       <c r="AI177" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AJ177" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK177" t="n">
         <v>700</v>
       </c>
       <c r="AL177" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AM177" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AN177" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO177" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AP177" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ177" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AR177" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS177" t="n">
         <v>110</v>
       </c>
       <c r="AT177" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AU177" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV177" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW177" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX177" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AY177" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AZ177" t="n">
         <v>500</v>
@@ -32341,7 +32475,9 @@
       <c r="BA177" t="n">
         <v>500</v>
       </c>
-      <c r="BB177" t="inlineStr"/>
+      <c r="BB177" t="n">
+        <v>500</v>
+      </c>
       <c r="BC177" t="inlineStr"/>
       <c r="BD177" t="inlineStr"/>
     </row>
@@ -32377,136 +32513,136 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H178" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I178" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J178" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="K178" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L178" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="M178" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N178" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="O178" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="P178" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R178" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S178" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T178" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="U178" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V178" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W178" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="X178" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Y178" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z178" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AA178" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB178" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC178" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD178" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE178" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF178" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG178" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH178" t="n">
         <v>12.5</v>
       </c>
       <c r="AI178" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ178" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK178" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL178" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ178" t="n">
         <v>35</v>
-      </c>
-      <c r="AM178" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN178" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AO178" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP178" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ178" t="n">
-        <v>30</v>
       </c>
       <c r="AR178" t="n">
         <v>60</v>
       </c>
       <c r="AS178" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="AU178" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AV178" t="n">
         <v>60</v>
       </c>
       <c r="AW178" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX178" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY178" t="n">
         <v>27</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-07.xlsx
@@ -753,28 +753,28 @@
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J2" t="n">
         <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.95</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -789,13 +789,13 @@
         <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
         <v>41</v>
@@ -813,7 +813,7 @@
         <v>51</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>9.5</v>
@@ -825,7 +825,7 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
         <v>8.5</v>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="n">
         <v>11</v>
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
         <v>8</v>
@@ -882,13 +882,13 @@
         <v>17</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
         <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC2" t="n">
         <v>140</v>
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -1076,7 +1076,7 @@
         <v>401</v>
       </c>
       <c r="BD3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -1302,43 +1302,43 @@
         <v>1.57</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
         <v>2.1</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.67</v>
       </c>
-      <c r="R5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.75</v>
-      </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
         <v>19</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
         <v>8.5</v>
@@ -1371,13 +1371,13 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
         <v>9</v>
@@ -1389,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="AM5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN5" t="n">
         <v>7</v>
@@ -1407,10 +1407,10 @@
         <v>101</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1419,7 +1419,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX5" t="n">
         <v>8</v>
@@ -1440,7 +1440,7 @@
         <v>501</v>
       </c>
       <c r="BD5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.2</v>
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1541,10 +1541,10 @@
         <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1553,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
         <v>17</v>
@@ -1562,7 +1562,7 @@
         <v>29</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
         <v>51</v>
@@ -1574,10 +1574,10 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
@@ -1601,7 +1601,7 @@
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
         <v>26</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
         <v>2.3</v>
@@ -1759,7 +1759,7 @@
         <v>3.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -1777,7 +1777,7 @@
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -1857,22 +1857,22 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K10" t="n">
         <v>2.75</v>
@@ -2251,16 +2251,16 @@
         <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="n">
         <v>11</v>
@@ -2275,7 +2275,7 @@
         <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
@@ -2323,7 +2323,7 @@
         <v>3.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2344,7 +2344,7 @@
         <v>201</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>151</v>
@@ -2406,7 +2406,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O11" t="n">
         <v>1.08</v>
@@ -2427,10 +2427,10 @@
         <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -2439,7 +2439,7 @@
         <v>7.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>7</v>
@@ -2523,10 +2523,10 @@
         <v>451</v>
       </c>
       <c r="BA11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB11" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC11" t="n">
         <v>151</v>
@@ -2627,7 +2627,7 @@
         <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
         <v>26</v>
@@ -2702,7 +2702,7 @@
         <v>19</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
         <v>51</v>
@@ -2830,7 +2830,7 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>34</v>
@@ -2878,7 +2878,7 @@
         <v>7.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY13" t="n">
         <v>29</v>
@@ -2893,7 +2893,7 @@
         <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -2934,10 +2934,10 @@
         <v>5.75</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
@@ -2946,19 +2946,19 @@
         <v>2.5</v>
       </c>
       <c r="L14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q14" t="n">
         <v>1.53</v>
@@ -3024,7 +3024,7 @@
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
         <v>19</v>
@@ -3033,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
@@ -3057,10 +3057,10 @@
         <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY14" t="n">
         <v>15</v>
@@ -3078,7 +3078,7 @@
         <v>351</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
@@ -3122,7 +3122,7 @@
         <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>2.5</v>
@@ -3155,10 +3155,10 @@
         <v>3.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W15" t="n">
         <v>17</v>
@@ -3221,7 +3221,7 @@
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3427,7 +3427,7 @@
         <v>19</v>
       </c>
       <c r="AY16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
         <v>67</v>
@@ -3480,10 +3480,10 @@
         <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
         <v>2.38</v>
@@ -3674,13 +3674,13 @@
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -3695,10 +3695,10 @@
         <v>1.82</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
         <v>2.05</v>
@@ -3776,7 +3776,7 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
@@ -4065,22 +4065,22 @@
         <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
@@ -4089,7 +4089,7 @@
         <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
@@ -4098,7 +4098,7 @@
         <v>13</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG20" t="n">
         <v>201</v>
@@ -4119,7 +4119,7 @@
         <v>29</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
@@ -4152,7 +4152,7 @@
         <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
@@ -4226,7 +4226,7 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O21" t="n">
         <v>1.13</v>
@@ -4387,16 +4387,16 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
@@ -4444,7 +4444,7 @@
         <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4474,13 +4474,13 @@
         <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>29</v>
@@ -4519,7 +4519,7 @@
         <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
@@ -4534,7 +4534,7 @@
         <v>501</v>
       </c>
       <c r="BD22" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23">
@@ -4581,7 +4581,7 @@
         <v>2.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
         <v>5</v>
@@ -4626,7 +4626,7 @@
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
@@ -4638,7 +4638,7 @@
         <v>9.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4695,7 +4695,7 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
         <v>26</v>
@@ -4751,16 +4751,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
         <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J24" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
         <v>2.5</v>
@@ -4805,7 +4805,7 @@
         <v>29</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z24" t="n">
         <v>51</v>
@@ -4817,7 +4817,7 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD24" t="n">
         <v>9</v>
@@ -4832,7 +4832,7 @@
         <v>126</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>9.5</v>
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J25" t="n">
         <v>3.1</v>
@@ -5161,19 +5161,19 @@
         <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
         <v>15</v>
       </c>
       <c r="Z26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
@@ -5182,7 +5182,7 @@
         <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>13</v>
@@ -5440,7 +5440,7 @@
         <v>126</v>
       </c>
       <c r="BD27" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -5478,10 +5478,10 @@
         <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
         <v>4.33</v>
@@ -5505,10 +5505,10 @@
         <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R28" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S28" t="n">
         <v>1.57</v>
@@ -6045,10 +6045,10 @@
         <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q31" t="n">
         <v>1.5</v>
@@ -7295,148 +7295,148 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H38" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="I38" t="n">
         <v>2.05</v>
       </c>
       <c r="J38" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="K38" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>6.95</v>
+        <v>7.5</v>
       </c>
       <c r="O38" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S38" t="n">
         <v>1.42</v>
       </c>
-      <c r="P38" t="n">
+      <c r="T38" t="n">
         <v>2.45</v>
       </c>
-      <c r="Q38" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T38" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U38" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="V38" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="W38" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X38" t="n">
         <v>19</v>
       </c>
       <c r="Y38" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA38" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AB38" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC38" t="n">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="AD38" t="n">
         <v>5.9</v>
       </c>
       <c r="AE38" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF38" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="n">
-        <v>101</v>
+        <v>700</v>
       </c>
       <c r="AH38" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AL38" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AN38" t="n">
         <v>5.4</v>
       </c>
       <c r="AO38" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP38" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ38" t="n">
         <v>120</v>
       </c>
       <c r="AR38" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS38" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV38" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AX38" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AY38" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA38" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BB38" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
@@ -7473,22 +7473,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="H39" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="J39" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="K39" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L39" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M39" t="n">
         <v>1.01</v>
@@ -7509,106 +7509,106 @@
         <v>1.9</v>
       </c>
       <c r="S39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T39" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="U39" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="V39" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W39" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X39" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y39" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE39" t="n">
         <v>16.5</v>
       </c>
-      <c r="Z39" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AF39" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG39" t="n">
         <v>600</v>
       </c>
       <c r="AH39" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI39" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AJ39" t="n">
         <v>8.25</v>
       </c>
       <c r="AK39" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AL39" t="n">
         <v>12.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN39" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AO39" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AP39" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ39" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR39" t="n">
         <v>175</v>
       </c>
-      <c r="AR39" t="n">
-        <v>200</v>
-      </c>
       <c r="AS39" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV39" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AX39" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AY39" t="n">
         <v>17</v>
       </c>
       <c r="AZ39" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BA39" t="n">
         <v>55</v>
@@ -7681,10 +7681,10 @@
         <v>5.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R40" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S40" t="n">
         <v>1.25</v>
@@ -7842,13 +7842,13 @@
         <v>1.67</v>
       </c>
       <c r="J41" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K41" t="n">
         <v>2.4</v>
       </c>
       <c r="L41" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="M41" t="n">
         <v>1.03</v>
@@ -7875,10 +7875,10 @@
         <v>3.5</v>
       </c>
       <c r="U41" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W41" t="n">
         <v>17</v>
@@ -7911,7 +7911,7 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH41" t="n">
         <v>9.5</v>
@@ -7923,7 +7923,7 @@
         <v>8.5</v>
       </c>
       <c r="AK41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL41" t="n">
         <v>12</v>
@@ -7932,28 +7932,28 @@
         <v>21</v>
       </c>
       <c r="AN41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP41" t="n">
         <v>23</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>26</v>
       </c>
       <c r="AQ41" t="n">
         <v>67</v>
       </c>
       <c r="AR41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT41" t="n">
         <v>3.5</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV41" t="n">
         <v>41</v>
@@ -7962,13 +7962,13 @@
         <v>4</v>
       </c>
       <c r="AX41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ41" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA41" t="n">
         <v>41</v>
@@ -7977,7 +7977,7 @@
         <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -8206,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="J43" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K43" t="n">
         <v>2.3</v>
@@ -8227,10 +8227,10 @@
         <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R43" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S43" t="n">
         <v>1.33</v>
@@ -8743,22 +8743,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="H46" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K46" t="n">
         <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -8785,37 +8785,37 @@
         <v>3.4</v>
       </c>
       <c r="U46" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V46" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W46" t="n">
+        <v>13</v>
+      </c>
+      <c r="X46" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y46" t="n">
         <v>12</v>
       </c>
-      <c r="X46" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>11</v>
-      </c>
       <c r="Z46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB46" t="n">
         <v>29</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>26</v>
       </c>
       <c r="AC46" t="n">
         <v>15</v>
       </c>
       <c r="AD46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF46" t="n">
         <v>41</v>
@@ -8824,37 +8824,37 @@
         <v>126</v>
       </c>
       <c r="AH46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI46" t="n">
         <v>11</v>
       </c>
-      <c r="AI46" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK46" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AL46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM46" t="n">
         <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AP46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ46" t="n">
         <v>51</v>
       </c>
       <c r="AR46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS46" t="n">
         <v>126</v>
@@ -8863,22 +8863,22 @@
         <v>3.4</v>
       </c>
       <c r="AU46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV46" t="n">
         <v>41</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX46" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY46" t="n">
         <v>19</v>
       </c>
       <c r="AZ46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA46" t="n">
         <v>51</v>
@@ -9357,7 +9357,7 @@
         <v>67</v>
       </c>
       <c r="AG49" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH49" t="n">
         <v>7.5</v>
@@ -9408,7 +9408,7 @@
         <v>4.75</v>
       </c>
       <c r="AX49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY49" t="n">
         <v>29</v>
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H50" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J50" t="n">
         <v>7</v>
@@ -9505,13 +9505,13 @@
         <v>1.53</v>
       </c>
       <c r="W50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X50" t="n">
         <v>29</v>
       </c>
       <c r="Y50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z50" t="n">
         <v>67</v>
@@ -9532,13 +9532,13 @@
         <v>23</v>
       </c>
       <c r="AF50" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG50" t="n">
         <v>101</v>
       </c>
       <c r="AH50" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI50" t="n">
         <v>6</v>
@@ -9547,7 +9547,7 @@
         <v>9</v>
       </c>
       <c r="AK50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL50" t="n">
         <v>15</v>
@@ -9556,7 +9556,7 @@
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO50" t="n">
         <v>41</v>
@@ -9584,19 +9584,19 @@
         <v>3.25</v>
       </c>
       <c r="AX50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY50" t="n">
         <v>23</v>
       </c>
       <c r="AZ50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA50" t="n">
         <v>51</v>
       </c>
       <c r="BB50" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="inlineStr"/>
@@ -9633,13 +9633,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J51" t="n">
         <v>2.1</v>
@@ -9663,10 +9663,10 @@
         <v>3.75</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S51" t="n">
         <v>1.36</v>
@@ -9675,10 +9675,10 @@
         <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V51" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W51" t="n">
         <v>7</v>
@@ -9714,7 +9714,7 @@
         <v>301</v>
       </c>
       <c r="AH51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI51" t="n">
         <v>34</v>
@@ -9744,7 +9744,7 @@
         <v>23</v>
       </c>
       <c r="AR51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS51" t="n">
         <v>151</v>
@@ -9753,7 +9753,7 @@
         <v>3</v>
       </c>
       <c r="AU51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV51" t="n">
         <v>51</v>
@@ -9765,16 +9765,16 @@
         <v>34</v>
       </c>
       <c r="AY51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ51" t="n">
         <v>126</v>
       </c>
       <c r="BA51" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB51" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC51" t="inlineStr"/>
       <c r="BD51" t="inlineStr"/>
@@ -9829,16 +9829,16 @@
         <v>3.6</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
         <v>2.1</v>
@@ -10891,22 +10891,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H58" t="n">
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J58" t="n">
         <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L58" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M58" t="n">
         <v>1.04</v>
@@ -10921,13 +10921,13 @@
         <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R58" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S58" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T58" t="n">
         <v>3.25</v>
@@ -10942,7 +10942,7 @@
         <v>7.5</v>
       </c>
       <c r="X58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y58" t="n">
         <v>8.5</v>
@@ -10954,7 +10954,7 @@
         <v>12</v>
       </c>
       <c r="AB58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC58" t="n">
         <v>12</v>
@@ -10972,31 +10972,31 @@
         <v>251</v>
       </c>
       <c r="AH58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI58" t="n">
         <v>34</v>
       </c>
       <c r="AJ58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK58" t="n">
         <v>67</v>
       </c>
       <c r="AL58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM58" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO58" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ58" t="n">
         <v>21</v>
@@ -11017,7 +11017,7 @@
         <v>51</v>
       </c>
       <c r="AW58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX58" t="n">
         <v>34</v>
@@ -11073,22 +11073,22 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H59" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I59" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K59" t="n">
         <v>2.75</v>
       </c>
       <c r="L59" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M59" t="n">
         <v>1.02</v>
@@ -11103,22 +11103,22 @@
         <v>5.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R59" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T59" t="n">
         <v>3.75</v>
       </c>
       <c r="U59" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V59" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W59" t="n">
         <v>9</v>
@@ -11127,16 +11127,16 @@
         <v>7</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z59" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA59" t="n">
         <v>11</v>
       </c>
       <c r="AB59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC59" t="n">
         <v>19</v>
@@ -11145,13 +11145,13 @@
         <v>12</v>
       </c>
       <c r="AE59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF59" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG59" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH59" t="n">
         <v>23</v>
@@ -11172,16 +11172,16 @@
         <v>51</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO59" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP59" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR59" t="n">
         <v>34</v>
@@ -11193,7 +11193,7 @@
         <v>3.75</v>
       </c>
       <c r="AU59" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV59" t="n">
         <v>51</v>
@@ -11208,13 +11208,13 @@
         <v>41</v>
       </c>
       <c r="AZ59" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA59" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB59" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC59" t="n">
         <v>81</v>
@@ -11291,10 +11291,10 @@
         <v>1.75</v>
       </c>
       <c r="S60" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T60" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U60" t="n">
         <v>1.73</v>
@@ -11580,7 +11580,7 @@
         <v>126</v>
       </c>
       <c r="BD61" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62">
@@ -11800,7 +11800,7 @@
         <v>1.75</v>
       </c>
       <c r="H63" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I63" t="n">
         <v>4.75</v>
@@ -11821,16 +11821,16 @@
         <v>10</v>
       </c>
       <c r="O63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R63" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S63" t="n">
         <v>1.4</v>
@@ -11979,13 +11979,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J64" t="n">
         <v>2.88</v>
@@ -11994,7 +11994,7 @@
         <v>2.2</v>
       </c>
       <c r="L64" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M64" t="n">
         <v>1.05</v>
@@ -12009,10 +12009,10 @@
         <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S64" t="n">
         <v>1.36</v>
@@ -12021,10 +12021,10 @@
         <v>3</v>
       </c>
       <c r="U64" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W64" t="n">
         <v>9</v>
@@ -12048,7 +12048,7 @@
         <v>12</v>
       </c>
       <c r="AD64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE64" t="n">
         <v>13</v>
@@ -12069,7 +12069,7 @@
         <v>11</v>
       </c>
       <c r="AK64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL64" t="n">
         <v>23</v>
@@ -12078,7 +12078,7 @@
         <v>29</v>
       </c>
       <c r="AN64" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO64" t="n">
         <v>12</v>
@@ -12161,13 +12161,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H65" t="n">
         <v>3.25</v>
       </c>
       <c r="I65" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J65" t="n">
         <v>3.2</v>
@@ -12182,7 +12182,7 @@
         <v>1.06</v>
       </c>
       <c r="N65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O65" t="n">
         <v>1.3</v>
@@ -12209,7 +12209,7 @@
         <v>2</v>
       </c>
       <c r="W65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X65" t="n">
         <v>13</v>
@@ -12227,7 +12227,7 @@
         <v>29</v>
       </c>
       <c r="AC65" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD65" t="n">
         <v>6</v>
@@ -12248,7 +12248,7 @@
         <v>13</v>
       </c>
       <c r="AJ65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK65" t="n">
         <v>29</v>
@@ -12305,7 +12305,7 @@
         <v>151</v>
       </c>
       <c r="BC65" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD65" t="n">
         <v>151</v>
@@ -12531,7 +12531,7 @@
         <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J67" t="n">
         <v>3.25</v>
@@ -12600,7 +12600,7 @@
         <v>17</v>
       </c>
       <c r="AF67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG67" t="n">
         <v>401</v>
@@ -12663,7 +12663,7 @@
         <v>51</v>
       </c>
       <c r="BA67" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB67" t="n">
         <v>251</v>
@@ -12707,13 +12707,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>3.25</v>
       </c>
       <c r="I68" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J68" t="n">
         <v>3.1</v>
@@ -12761,16 +12761,16 @@
         <v>13</v>
       </c>
       <c r="Y68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z68" t="n">
         <v>23</v>
       </c>
       <c r="AA68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC68" t="n">
         <v>11</v>
@@ -12907,22 +12907,22 @@
         <v>2.88</v>
       </c>
       <c r="M69" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O69" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P69" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R69" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S69" t="n">
         <v>1.4</v>
@@ -13271,22 +13271,22 @@
         <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P71" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S71" t="n">
         <v>1.5</v>
@@ -13453,10 +13453,10 @@
         <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O72" t="n">
         <v>1.4</v>
@@ -13817,25 +13817,25 @@
         <v>4</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O74" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P74" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R74" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S74" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T74" t="n">
         <v>2.75</v>
@@ -14017,7 +14017,7 @@
         <v>2.05</v>
       </c>
       <c r="S75" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T75" t="n">
         <v>3.25</v>
@@ -14163,22 +14163,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H76" t="n">
         <v>3.5</v>
       </c>
       <c r="I76" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J76" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K76" t="n">
         <v>2.2</v>
       </c>
       <c r="L76" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M76" t="n">
         <v>1.05</v>
@@ -14193,13 +14193,13 @@
         <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R76" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S76" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T76" t="n">
         <v>2.75</v>
@@ -14229,7 +14229,7 @@
         <v>41</v>
       </c>
       <c r="AC76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD76" t="n">
         <v>6.5</v>
@@ -14241,7 +14241,7 @@
         <v>51</v>
       </c>
       <c r="AG76" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH76" t="n">
         <v>7.5</v>
@@ -14253,7 +14253,7 @@
         <v>8.5</v>
       </c>
       <c r="AK76" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL76" t="n">
         <v>15</v>
@@ -14274,7 +14274,7 @@
         <v>67</v>
       </c>
       <c r="AR76" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS76" t="n">
         <v>201</v>
@@ -14527,28 +14527,28 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>3.4</v>
       </c>
       <c r="I78" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J78" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K78" t="n">
         <v>2.05</v>
       </c>
       <c r="L78" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M78" t="n">
         <v>1.07</v>
       </c>
       <c r="N78" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O78" t="n">
         <v>1.36</v>
@@ -14563,10 +14563,10 @@
         <v>1.67</v>
       </c>
       <c r="S78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T78" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U78" t="n">
         <v>1.95</v>
@@ -14584,16 +14584,16 @@
         <v>11</v>
       </c>
       <c r="Z78" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA78" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB78" t="n">
         <v>34</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD78" t="n">
         <v>6.5</v>
@@ -14608,13 +14608,13 @@
         <v>351</v>
       </c>
       <c r="AH78" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI78" t="n">
         <v>11</v>
       </c>
       <c r="AJ78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK78" t="n">
         <v>23</v>
@@ -14626,7 +14626,7 @@
         <v>34</v>
       </c>
       <c r="AN78" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO78" t="n">
         <v>17</v>
@@ -14644,19 +14644,19 @@
         <v>201</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU78" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV78" t="n">
         <v>51</v>
       </c>
       <c r="AW78" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY78" t="n">
         <v>26</v>
@@ -14709,13 +14709,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H79" t="n">
         <v>3.5</v>
       </c>
       <c r="I79" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J79" t="n">
         <v>3.75</v>
@@ -14724,7 +14724,7 @@
         <v>2.2</v>
       </c>
       <c r="L79" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -14733,16 +14733,16 @@
         <v>11</v>
       </c>
       <c r="O79" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P79" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q79" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R79" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R79" t="n">
-        <v>1.95</v>
       </c>
       <c r="S79" t="n">
         <v>1.4</v>
@@ -14772,7 +14772,7 @@
         <v>26</v>
       </c>
       <c r="AB79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC79" t="n">
         <v>11</v>
@@ -14790,7 +14790,7 @@
         <v>201</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI79" t="n">
         <v>11</v>
@@ -14808,7 +14808,7 @@
         <v>26</v>
       </c>
       <c r="AN79" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO79" t="n">
         <v>17</v>
@@ -14891,7 +14891,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H80" t="n">
         <v>4.1</v>
@@ -14921,10 +14921,10 @@
         <v>3.5</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R80" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S80" t="n">
         <v>1.4</v>
@@ -14963,7 +14963,7 @@
         <v>7.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF80" t="n">
         <v>51</v>
@@ -15097,16 +15097,16 @@
         <v>15</v>
       </c>
       <c r="O81" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P81" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R81" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S81" t="n">
         <v>1.3</v>
@@ -15273,10 +15273,10 @@
         <v>3.75</v>
       </c>
       <c r="M82" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N82" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O82" t="n">
         <v>1.44</v>
@@ -15467,10 +15467,10 @@
         <v>2.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R83" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S83" t="n">
         <v>1.5</v>
@@ -16004,7 +16004,7 @@
         <v>1.03</v>
       </c>
       <c r="N86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O86" t="n">
         <v>1.17</v>
@@ -16013,10 +16013,10 @@
         <v>5</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R86" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S86" t="n">
         <v>1.3</v>
@@ -16165,13 +16165,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H87" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I87" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J87" t="n">
         <v>3.2</v>
@@ -16183,22 +16183,22 @@
         <v>3.2</v>
       </c>
       <c r="M87" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N87" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O87" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P87" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R87" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S87" t="n">
         <v>1.36</v>
@@ -16216,7 +16216,7 @@
         <v>10</v>
       </c>
       <c r="X87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y87" t="n">
         <v>10</v>
@@ -16231,7 +16231,7 @@
         <v>26</v>
       </c>
       <c r="AC87" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD87" t="n">
         <v>6.5</v>
@@ -16249,7 +16249,7 @@
         <v>10</v>
       </c>
       <c r="AI87" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ87" t="n">
         <v>10</v>
@@ -16270,13 +16270,13 @@
         <v>15</v>
       </c>
       <c r="AP87" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ87" t="n">
         <v>41</v>
       </c>
       <c r="AR87" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS87" t="n">
         <v>151</v>
@@ -16297,13 +16297,13 @@
         <v>15</v>
       </c>
       <c r="AY87" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ87" t="n">
         <v>41</v>
       </c>
       <c r="BA87" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB87" t="n">
         <v>151</v>
@@ -16550,7 +16550,7 @@
         <v>1.04</v>
       </c>
       <c r="N89" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O89" t="n">
         <v>1.22</v>
@@ -16732,19 +16732,19 @@
         <v>1.03</v>
       </c>
       <c r="N90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O90" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P90" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R90" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S90" t="n">
         <v>1.29</v>
@@ -17457,22 +17457,22 @@
         <v>15</v>
       </c>
       <c r="M94" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N94" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O94" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P94" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R94" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S94" t="n">
         <v>1.25</v>
@@ -17876,7 +17876,7 @@
         <v>201</v>
       </c>
       <c r="AH96" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI96" t="n">
         <v>13</v>
@@ -17885,7 +17885,7 @@
         <v>10</v>
       </c>
       <c r="AK96" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL96" t="n">
         <v>21</v>
@@ -17994,7 +17994,7 @@
         <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O97" t="n">
         <v>1.22</v>
@@ -18051,7 +18051,7 @@
         <v>51</v>
       </c>
       <c r="AG97" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH97" t="n">
         <v>17</v>
@@ -18099,7 +18099,7 @@
         <v>51</v>
       </c>
       <c r="AW97" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX97" t="n">
         <v>29</v>
@@ -18114,7 +18114,7 @@
         <v>126</v>
       </c>
       <c r="BB97" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC97" t="inlineStr"/>
       <c r="BD97" t="inlineStr"/>
@@ -18154,7 +18154,7 @@
         <v>1.91</v>
       </c>
       <c r="H98" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I98" t="n">
         <v>3.7</v>
@@ -18169,10 +18169,10 @@
         <v>4</v>
       </c>
       <c r="M98" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N98" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O98" t="n">
         <v>1.18</v>
@@ -18217,7 +18217,7 @@
         <v>21</v>
       </c>
       <c r="AC98" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD98" t="n">
         <v>7</v>
@@ -18537,10 +18537,10 @@
         <v>3.75</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R100" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S100" t="n">
         <v>1.4</v>
@@ -18555,7 +18555,7 @@
         <v>2</v>
       </c>
       <c r="W100" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X100" t="n">
         <v>9.5</v>
@@ -18639,7 +18639,7 @@
         <v>21</v>
       </c>
       <c r="AY100" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ100" t="n">
         <v>67</v>
@@ -18884,7 +18884,7 @@
         <v>1.02</v>
       </c>
       <c r="N102" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="O102" t="n">
         <v>1.37</v>
@@ -19219,40 +19219,40 @@
         </is>
       </c>
       <c r="G104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3</v>
+      </c>
+      <c r="K104" t="n">
         <v>2.1</v>
       </c>
-      <c r="H104" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J104" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L104" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M104" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O104" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P104" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R104" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S104" t="n">
         <v>1.4</v>
@@ -19273,46 +19273,46 @@
         <v>11</v>
       </c>
       <c r="Y104" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z104" t="n">
         <v>21</v>
       </c>
       <c r="AA104" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB104" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD104" t="n">
         <v>6.5</v>
       </c>
       <c r="AE104" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF104" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG104" t="n">
         <v>201</v>
       </c>
       <c r="AH104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI104" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ104" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK104" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL104" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM104" t="n">
         <v>34</v>
@@ -19321,16 +19321,16 @@
         <v>4.33</v>
       </c>
       <c r="AO104" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ104" t="n">
         <v>41</v>
       </c>
       <c r="AR104" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS104" t="n">
         <v>151</v>
@@ -19397,7 +19397,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H105" t="n">
         <v>5</v>
@@ -19406,7 +19406,7 @@
         <v>1.3</v>
       </c>
       <c r="J105" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K105" t="n">
         <v>2.6</v>
@@ -19451,10 +19451,10 @@
         <v>41</v>
       </c>
       <c r="Y105" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z105" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AA105" t="n">
         <v>51</v>
@@ -19466,7 +19466,7 @@
         <v>15</v>
       </c>
       <c r="AD105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE105" t="n">
         <v>21</v>
@@ -19584,10 +19584,10 @@
         <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K106" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L106" t="n">
         <v>3.6</v>
@@ -19596,19 +19596,19 @@
         <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O106" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P106" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R106" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S106" t="n">
         <v>1.44</v>
@@ -19617,19 +19617,19 @@
         <v>2.63</v>
       </c>
       <c r="U106" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V106" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W106" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X106" t="n">
         <v>11</v>
       </c>
       <c r="Y106" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z106" t="n">
         <v>23</v>
@@ -19638,10 +19638,10 @@
         <v>21</v>
       </c>
       <c r="AB106" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD106" t="n">
         <v>6</v>
@@ -19653,10 +19653,10 @@
         <v>51</v>
       </c>
       <c r="AG106" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH106" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI106" t="n">
         <v>15</v>
@@ -19665,10 +19665,10 @@
         <v>11</v>
       </c>
       <c r="AK106" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL106" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM106" t="n">
         <v>34</v>
@@ -19677,19 +19677,19 @@
         <v>4.33</v>
       </c>
       <c r="AO106" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP106" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ106" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR106" t="n">
         <v>67</v>
       </c>
       <c r="AS106" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT106" t="n">
         <v>2.63</v>
@@ -19707,7 +19707,7 @@
         <v>17</v>
       </c>
       <c r="AY106" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ106" t="n">
         <v>51</v>
@@ -20303,28 +20303,28 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H110" t="n">
         <v>3.1</v>
       </c>
       <c r="I110" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J110" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K110" t="n">
         <v>2</v>
       </c>
       <c r="L110" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M110" t="n">
         <v>1.08</v>
       </c>
       <c r="N110" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O110" t="n">
         <v>1.4</v>
@@ -20360,7 +20360,7 @@
         <v>9.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA110" t="n">
         <v>19</v>
@@ -20375,16 +20375,16 @@
         <v>6</v>
       </c>
       <c r="AE110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF110" t="n">
         <v>51</v>
       </c>
       <c r="AG110" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI110" t="n">
         <v>17</v>
@@ -20405,7 +20405,7 @@
         <v>4</v>
       </c>
       <c r="AO110" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP110" t="n">
         <v>26</v>
@@ -20429,7 +20429,7 @@
         <v>67</v>
       </c>
       <c r="AW110" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX110" t="n">
         <v>21</v>
@@ -20438,13 +20438,13 @@
         <v>34</v>
       </c>
       <c r="AZ110" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA110" t="n">
         <v>101</v>
       </c>
       <c r="BB110" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC110" t="n">
         <v>81</v>
@@ -20663,10 +20663,10 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I112" t="n">
         <v>4.75</v>
@@ -20693,16 +20693,16 @@
         <v>4.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R112" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S112" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T112" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U112" t="n">
         <v>1.67</v>
@@ -20717,7 +20717,7 @@
         <v>8.5</v>
       </c>
       <c r="Y112" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z112" t="n">
         <v>12</v>
@@ -20732,7 +20732,7 @@
         <v>17</v>
       </c>
       <c r="AD112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE112" t="n">
         <v>15</v>
@@ -20780,13 +20780,13 @@
         <v>101</v>
       </c>
       <c r="AT112" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU112" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV112" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW112" t="n">
         <v>7</v>
@@ -20801,7 +20801,7 @@
         <v>81</v>
       </c>
       <c r="BA112" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB112" t="n">
         <v>151</v>
@@ -20845,145 +20845,145 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
         <v>4.1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K113" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L113" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N113" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O113" t="n">
         <v>1.5</v>
       </c>
       <c r="P113" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R113" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S113" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="T113" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="U113" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="V113" t="n">
         <v>1.57</v>
       </c>
       <c r="W113" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="X113" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="Y113" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z113" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA113" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB113" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC113" t="n">
         <v>6.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE113" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF113" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AG113" t="n">
         <v>101</v>
       </c>
       <c r="AH113" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AI113" t="n">
         <v>21</v>
       </c>
       <c r="AJ113" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK113" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AL113" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AM113" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AN113" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AO113" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AP113" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AQ113" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR113" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AS113" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="AT113" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU113" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AV113" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="AW113" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AX113" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY113" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AZ113" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="BA113" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BB113" t="n">
         <v>700</v>
@@ -21086,7 +21086,7 @@
         <v>15</v>
       </c>
       <c r="AB114" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC114" t="n">
         <v>17</v>
@@ -21122,7 +21122,7 @@
         <v>26</v>
       </c>
       <c r="AN114" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO114" t="n">
         <v>11</v>
@@ -21235,10 +21235,10 @@
         <v>3.5</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R115" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S115" t="n">
         <v>1.4</v>
@@ -21417,10 +21417,10 @@
         <v>4</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R116" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S116" t="n">
         <v>1.33</v>
@@ -21587,22 +21587,22 @@
         <v>7</v>
       </c>
       <c r="M117" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O117" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P117" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q117" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R117" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R117" t="n">
-        <v>1.9</v>
       </c>
       <c r="S117" t="n">
         <v>1.4</v>
@@ -21751,22 +21751,22 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H118" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J118" t="n">
         <v>2.2</v>
       </c>
       <c r="K118" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L118" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M118" t="n">
         <v>1.05</v>
@@ -21793,22 +21793,22 @@
         <v>2.75</v>
       </c>
       <c r="U118" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V118" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W118" t="n">
         <v>6.5</v>
       </c>
       <c r="X118" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y118" t="n">
         <v>8.5</v>
       </c>
       <c r="Z118" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA118" t="n">
         <v>13</v>
@@ -21823,19 +21823,19 @@
         <v>7.5</v>
       </c>
       <c r="AE118" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF118" t="n">
         <v>51</v>
       </c>
       <c r="AG118" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH118" t="n">
         <v>13</v>
       </c>
       <c r="AI118" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ118" t="n">
         <v>17</v>
@@ -21853,7 +21853,7 @@
         <v>3.5</v>
       </c>
       <c r="AO118" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP118" t="n">
         <v>21</v>
@@ -21871,7 +21871,7 @@
         <v>2.75</v>
       </c>
       <c r="AU118" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV118" t="n">
         <v>51</v>
@@ -21883,16 +21883,16 @@
         <v>29</v>
       </c>
       <c r="AY118" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ118" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA118" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB118" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC118" t="n">
         <v>81</v>
@@ -22297,13 +22297,13 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H121" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I121" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J121" t="n">
         <v>2.75</v>
@@ -22378,7 +22378,7 @@
         <v>301</v>
       </c>
       <c r="AH121" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI121" t="n">
         <v>19</v>
@@ -22485,7 +22485,7 @@
         <v>5</v>
       </c>
       <c r="I122" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J122" t="n">
         <v>1.8</v>
@@ -22497,10 +22497,10 @@
         <v>8</v>
       </c>
       <c r="M122" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N122" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O122" t="n">
         <v>1.2</v>
@@ -22536,7 +22536,7 @@
         <v>9</v>
       </c>
       <c r="Z122" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA122" t="n">
         <v>11</v>
@@ -22557,7 +22557,7 @@
         <v>67</v>
       </c>
       <c r="AG122" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH122" t="n">
         <v>21</v>
@@ -22566,13 +22566,13 @@
         <v>41</v>
       </c>
       <c r="AJ122" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK122" t="n">
         <v>101</v>
       </c>
       <c r="AL122" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM122" t="n">
         <v>51</v>
@@ -22661,22 +22661,22 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H123" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I123" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L123" t="n">
         <v>5</v>
-      </c>
-      <c r="J123" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K123" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L123" t="n">
-        <v>5.5</v>
       </c>
       <c r="M123" t="n">
         <v>1.07</v>
@@ -22691,16 +22691,16 @@
         <v>3</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R123" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S123" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T123" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U123" t="n">
         <v>2</v>
@@ -22712,19 +22712,19 @@
         <v>6</v>
       </c>
       <c r="X123" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y123" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z123" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB123" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC123" t="n">
         <v>8</v>
@@ -22742,13 +22742,13 @@
         <v>401</v>
       </c>
       <c r="AH123" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI123" t="n">
         <v>23</v>
       </c>
       <c r="AJ123" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK123" t="n">
         <v>51</v>
@@ -22757,13 +22757,13 @@
         <v>41</v>
       </c>
       <c r="AM123" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN123" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO123" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP123" t="n">
         <v>23</v>
@@ -22778,7 +22778,7 @@
         <v>201</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU123" t="n">
         <v>9</v>
@@ -22787,13 +22787,13 @@
         <v>67</v>
       </c>
       <c r="AW123" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX123" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY123" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ123" t="n">
         <v>101</v>
@@ -23207,13 +23207,13 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H126" t="n">
         <v>3.2</v>
       </c>
       <c r="I126" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
         <v>3</v>
@@ -23222,13 +23222,13 @@
         <v>2.1</v>
       </c>
       <c r="L126" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M126" t="n">
         <v>1.06</v>
       </c>
       <c r="N126" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O126" t="n">
         <v>1.3</v>
@@ -23243,10 +23243,10 @@
         <v>1.83</v>
       </c>
       <c r="S126" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T126" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U126" t="n">
         <v>1.8</v>
@@ -23288,19 +23288,19 @@
         <v>251</v>
       </c>
       <c r="AH126" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI126" t="n">
         <v>15</v>
       </c>
       <c r="AJ126" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK126" t="n">
         <v>34</v>
       </c>
       <c r="AL126" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM126" t="n">
         <v>34</v>
@@ -23324,7 +23324,7 @@
         <v>151</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU126" t="n">
         <v>8</v>
@@ -23753,22 +23753,22 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="H129" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="I129" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J129" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K129" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="L129" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="M129" t="n">
         <v>1.02</v>
@@ -23777,112 +23777,112 @@
         <v>10</v>
       </c>
       <c r="O129" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P129" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="R129" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="S129" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="T129" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="U129" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="V129" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="W129" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="X129" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Y129" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z129" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AA129" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB129" t="n">
         <v>29</v>
       </c>
       <c r="AC129" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AD129" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AE129" t="n">
         <v>13</v>
       </c>
       <c r="AF129" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG129" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AH129" t="n">
         <v>15.5</v>
       </c>
       <c r="AI129" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AJ129" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK129" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL129" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AM129" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AN129" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AO129" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP129" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ129" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR129" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS129" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AT129" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="AU129" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV129" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AW129" t="n">
         <v>4.2</v>
       </c>
       <c r="AX129" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AY129" t="n">
         <v>10.75</v>
@@ -23897,7 +23897,7 @@
         <v>75</v>
       </c>
       <c r="BC129" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD129" t="inlineStr"/>
     </row>
@@ -23933,22 +23933,22 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H130" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="I130" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J130" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="K130" t="n">
         <v>2.87</v>
       </c>
       <c r="L130" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="M130" t="n">
         <v>1.01</v>
@@ -23957,43 +23957,43 @@
         <v>17.5</v>
       </c>
       <c r="O130" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P130" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Q130" t="n">
         <v>1.37</v>
       </c>
       <c r="R130" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="S130" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="T130" t="n">
         <v>3.8</v>
       </c>
       <c r="U130" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="V130" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W130" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X130" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA130" t="n">
         <v>10</v>
-      </c>
-      <c r="X130" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y130" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z130" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA130" t="n">
-        <v>10.25</v>
       </c>
       <c r="AB130" t="n">
         <v>26</v>
@@ -24002,10 +24002,10 @@
         <v>22</v>
       </c>
       <c r="AD130" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE130" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF130" t="n">
         <v>100</v>
@@ -24014,16 +24014,16 @@
         <v>600</v>
       </c>
       <c r="AH130" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI130" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ130" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK130" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL130" t="n">
         <v>175</v>
@@ -24032,13 +24032,13 @@
         <v>110</v>
       </c>
       <c r="AN130" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO130" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AP130" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ130" t="n">
         <v>10.5</v>
@@ -24059,19 +24059,19 @@
         <v>70</v>
       </c>
       <c r="AW130" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AX130" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AY130" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ130" t="n">
         <v>500</v>
       </c>
       <c r="BA130" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BB130" t="n">
         <v>500</v>
@@ -24291,16 +24291,16 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H132" t="n">
         <v>3.2</v>
       </c>
       <c r="I132" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J132" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K132" t="n">
         <v>2</v>
@@ -24309,10 +24309,10 @@
         <v>3.4</v>
       </c>
       <c r="M132" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N132" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O132" t="n">
         <v>1.36</v>
@@ -24327,16 +24327,16 @@
         <v>1.67</v>
       </c>
       <c r="S132" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T132" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U132" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V132" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W132" t="n">
         <v>7.5</v>
@@ -24345,19 +24345,19 @@
         <v>12</v>
       </c>
       <c r="Y132" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z132" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA132" t="n">
         <v>23</v>
-      </c>
-      <c r="AA132" t="n">
-        <v>21</v>
       </c>
       <c r="AB132" t="n">
         <v>34</v>
       </c>
       <c r="AC132" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD132" t="n">
         <v>6</v>
@@ -24381,7 +24381,7 @@
         <v>11</v>
       </c>
       <c r="AK132" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL132" t="n">
         <v>23</v>
@@ -24402,13 +24402,13 @@
         <v>51</v>
       </c>
       <c r="AR132" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS132" t="n">
         <v>300</v>
       </c>
       <c r="AT132" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU132" t="n">
         <v>8.5</v>
@@ -24420,7 +24420,7 @@
         <v>4.75</v>
       </c>
       <c r="AX132" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY132" t="n">
         <v>29</v>
@@ -24655,22 +24655,22 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H134" t="n">
         <v>3.4</v>
       </c>
       <c r="I134" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="J134" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K134" t="n">
         <v>2.1</v>
       </c>
       <c r="L134" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M134" t="n">
         <v>1.06</v>
@@ -24691,10 +24691,10 @@
         <v>1.75</v>
       </c>
       <c r="S134" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T134" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U134" t="n">
         <v>1.83</v>
@@ -24706,10 +24706,10 @@
         <v>11</v>
       </c>
       <c r="X134" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y134" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z134" t="n">
         <v>41</v>
@@ -24727,25 +24727,25 @@
         <v>6.5</v>
       </c>
       <c r="AE134" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF134" t="n">
         <v>51</v>
       </c>
       <c r="AG134" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH134" t="n">
         <v>7</v>
       </c>
       <c r="AI134" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ134" t="n">
         <v>9</v>
       </c>
       <c r="AK134" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL134" t="n">
         <v>17</v>
@@ -24754,16 +24754,16 @@
         <v>29</v>
       </c>
       <c r="AN134" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO134" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP134" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ134" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR134" t="n">
         <v>101</v>
@@ -24781,10 +24781,10 @@
         <v>51</v>
       </c>
       <c r="AW134" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX134" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY134" t="n">
         <v>21</v>
@@ -24873,7 +24873,7 @@
         <v>2.03</v>
       </c>
       <c r="S135" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T135" t="n">
         <v>3</v>
@@ -25055,7 +25055,7 @@
         <v>3.2</v>
       </c>
       <c r="S136" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="T136" t="n">
         <v>4.33</v>
@@ -25425,7 +25425,7 @@
         <v>3.25</v>
       </c>
       <c r="U138" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V138" t="n">
         <v>2.1</v>
@@ -25607,10 +25607,10 @@
         <v>2.75</v>
       </c>
       <c r="U139" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V139" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W139" t="n">
         <v>7.5</v>
@@ -25762,7 +25762,7 @@
         <v>2.1</v>
       </c>
       <c r="L140" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M140" t="n">
         <v>1.06</v>
@@ -25771,16 +25771,16 @@
         <v>8</v>
       </c>
       <c r="O140" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P140" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R140" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S140" t="n">
         <v>1.44</v>
@@ -25789,10 +25789,10 @@
         <v>2.63</v>
       </c>
       <c r="U140" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V140" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W140" t="n">
         <v>7</v>
@@ -25816,7 +25816,7 @@
         <v>9</v>
       </c>
       <c r="AD140" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE140" t="n">
         <v>17</v>
@@ -25825,7 +25825,7 @@
         <v>51</v>
       </c>
       <c r="AG140" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH140" t="n">
         <v>11</v>
@@ -25888,7 +25888,7 @@
         <v>101</v>
       </c>
       <c r="BB140" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC140" t="n">
         <v>81</v>
@@ -25959,7 +25959,7 @@
         <v>4</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R141" t="n">
         <v>2.05</v>
@@ -26144,7 +26144,7 @@
         <v>2.15</v>
       </c>
       <c r="R142" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S142" t="n">
         <v>1.44</v>
@@ -26293,40 +26293,40 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H143" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J143" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K143" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L143" t="n">
         <v>3.75</v>
       </c>
       <c r="M143" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N143" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O143" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P143" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R143" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S143" t="n">
         <v>1.44</v>
@@ -26335,10 +26335,10 @@
         <v>2.63</v>
       </c>
       <c r="U143" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V143" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W143" t="n">
         <v>7</v>
@@ -26347,19 +26347,19 @@
         <v>10</v>
       </c>
       <c r="Y143" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA143" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB143" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC143" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD143" t="n">
         <v>6.5</v>
@@ -26371,10 +26371,10 @@
         <v>51</v>
       </c>
       <c r="AG143" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH143" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI143" t="n">
         <v>15</v>
@@ -26386,19 +26386,19 @@
         <v>34</v>
       </c>
       <c r="AL143" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM143" t="n">
         <v>41</v>
       </c>
       <c r="AN143" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO143" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP143" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ143" t="n">
         <v>41</v>
@@ -26407,7 +26407,7 @@
         <v>67</v>
       </c>
       <c r="AS143" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT143" t="n">
         <v>2.63</v>
@@ -26428,13 +26428,13 @@
         <v>29</v>
       </c>
       <c r="AZ143" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA143" t="n">
         <v>81</v>
       </c>
       <c r="BB143" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC143" t="n">
         <v>81</v>
@@ -26657,22 +26657,22 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="H145" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="I145" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J145" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="K145" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="L145" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M145" t="n">
         <v>1.01</v>
@@ -26681,58 +26681,58 @@
         <v>16.5</v>
       </c>
       <c r="O145" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P145" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="R145" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="S145" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="T145" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="U145" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="V145" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="W145" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="X145" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y145" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z145" t="n">
         <v>5.7</v>
       </c>
       <c r="AA145" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB145" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC145" t="n">
         <v>21</v>
       </c>
       <c r="AD145" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE145" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF145" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AG145" t="n">
         <v>101</v>
@@ -26744,7 +26744,7 @@
         <v>800</v>
       </c>
       <c r="AJ145" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AK145" t="n">
         <v>101</v>
@@ -26753,19 +26753,19 @@
         <v>101</v>
       </c>
       <c r="AM145" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AN145" t="n">
         <v>3.05</v>
       </c>
       <c r="AO145" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AP145" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ145" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AR145" t="n">
         <v>32</v>
@@ -26774,22 +26774,22 @@
         <v>250</v>
       </c>
       <c r="AT145" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AU145" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AV145" t="n">
         <v>150</v>
       </c>
       <c r="AW145" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AX145" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AY145" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AZ145" t="inlineStr"/>
       <c r="BA145" t="inlineStr"/>
@@ -27011,58 +27011,58 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H147" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I147" t="n">
         <v>4.35</v>
       </c>
       <c r="J147" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="K147" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L147" t="n">
         <v>4.6</v>
       </c>
       <c r="M147" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N147" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="O147" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P147" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S147" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T147" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U147" t="n">
         <v>1.72</v>
       </c>
-      <c r="R147" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S147" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T147" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U147" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V147" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="W147" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="X147" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y147" t="n">
         <v>8.5</v>
@@ -27071,34 +27071,34 @@
         <v>16.5</v>
       </c>
       <c r="AA147" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB147" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC147" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AD147" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AE147" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF147" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG147" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH147" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI147" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ147" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK147" t="n">
         <v>80</v>
@@ -27110,46 +27110,46 @@
         <v>45</v>
       </c>
       <c r="AN147" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AO147" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AP147" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ147" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR147" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS147" t="n">
         <v>200</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="AU147" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AV147" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW147" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AX147" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY147" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ147" t="n">
         <v>150</v>
       </c>
       <c r="BA147" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB147" t="n">
         <v>350</v>
@@ -27193,139 +27193,139 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H148" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I148" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J148" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K148" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L148" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="M148" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N148" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="O148" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P148" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R148" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S148" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T148" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="U148" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V148" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="W148" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X148" t="n">
         <v>15</v>
       </c>
       <c r="Y148" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Z148" t="n">
         <v>37</v>
       </c>
       <c r="AA148" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB148" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC148" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AD148" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AE148" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF148" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG148" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH148" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AI148" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ148" t="n">
         <v>10</v>
       </c>
       <c r="AK148" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL148" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM148" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN148" t="n">
         <v>4.75</v>
       </c>
       <c r="AO148" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP148" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ148" t="n">
         <v>75</v>
       </c>
       <c r="AR148" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS148" t="n">
         <v>350</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AU148" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV148" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW148" t="n">
         <v>4.15</v>
       </c>
       <c r="AX148" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AY148" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ148" t="n">
         <v>50</v>
@@ -27375,22 +27375,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H149" t="n">
         <v>3.55</v>
       </c>
       <c r="I149" t="n">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="J149" t="n">
-        <v>2.82</v>
+        <v>2.95</v>
       </c>
       <c r="K149" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L149" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M149" t="n">
         <v>1.04</v>
@@ -27411,10 +27411,10 @@
         <v>2.3</v>
       </c>
       <c r="S149" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T149" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="U149" t="n">
         <v>1.47</v>
@@ -27423,22 +27423,22 @@
         <v>2.5</v>
       </c>
       <c r="W149" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="X149" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y149" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z149" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA149" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AB149" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC149" t="n">
         <v>9.5</v>
@@ -27456,67 +27456,67 @@
         <v>250</v>
       </c>
       <c r="AH149" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO149" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AI149" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK149" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM149" t="n">
-        <v>24</v>
-      </c>
-      <c r="AN149" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO149" t="n">
-        <v>11.75</v>
       </c>
       <c r="AP149" t="n">
         <v>17</v>
       </c>
       <c r="AQ149" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR149" t="n">
         <v>65</v>
       </c>
       <c r="AS149" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT149" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU149" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV149" t="n">
         <v>40</v>
       </c>
       <c r="AW149" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="AX149" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AY149" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ149" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA149" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB149" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC149" t="n">
         <v>500</v>
@@ -27557,55 +27557,55 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I150" t="n">
-        <v>7.7</v>
+        <v>8.75</v>
       </c>
       <c r="J150" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K150" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="L150" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="M150" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N150" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O150" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P150" t="n">
-        <v>4.1</v>
+        <v>4.35</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="R150" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="S150" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T150" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U150" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V150" t="n">
         <v>1.8</v>
       </c>
       <c r="W150" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="X150" t="n">
         <v>6.7</v>
@@ -27614,58 +27614,58 @@
         <v>8.5</v>
       </c>
       <c r="Z150" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AA150" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB150" t="n">
         <v>26</v>
       </c>
       <c r="AC150" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD150" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE150" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF150" t="n">
         <v>90</v>
       </c>
       <c r="AG150" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH150" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI150" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ150" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK150" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AL150" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM150" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN150" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO150" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AP150" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ150" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AR150" t="n">
         <v>40</v>
@@ -27674,25 +27674,25 @@
         <v>200</v>
       </c>
       <c r="AT150" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU150" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV150" t="n">
         <v>75</v>
       </c>
       <c r="AW150" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AX150" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY150" t="n">
         <v>45</v>
       </c>
-      <c r="AY150" t="n">
-        <v>40</v>
-      </c>
       <c r="AZ150" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BA150" t="n">
         <v>300</v>
@@ -27735,148 +27735,148 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H151" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I151" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J151" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K151" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L151" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="M151" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N151" t="n">
-        <v>6.9</v>
+        <v>6.2</v>
       </c>
       <c r="O151" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="P151" t="n">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="Q151" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="R151" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="S151" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="T151" t="n">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="U151" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V151" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="W151" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="X151" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y151" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z151" t="n">
         <v>60</v>
       </c>
       <c r="AA151" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM151" t="n">
         <v>35</v>
       </c>
-      <c r="AB151" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC151" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD151" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE151" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF151" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG151" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH151" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AI151" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ151" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK151" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL151" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM151" t="n">
-        <v>29</v>
-      </c>
       <c r="AN151" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO151" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY151" t="n">
         <v>21</v>
       </c>
-      <c r="AP151" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ151" t="n">
-        <v>110</v>
-      </c>
-      <c r="AR151" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS151" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT151" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU151" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV151" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW151" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX151" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY151" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ151" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA151" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BB151" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC151" t="inlineStr"/>
       <c r="BD151" t="inlineStr"/>
@@ -27931,10 +27931,10 @@
         <v>5</v>
       </c>
       <c r="M152" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O152" t="n">
         <v>1.4</v>
@@ -28093,13 +28093,13 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H153" t="n">
         <v>3.4</v>
       </c>
       <c r="I153" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J153" t="n">
         <v>2.75</v>
@@ -28123,10 +28123,10 @@
         <v>3.75</v>
       </c>
       <c r="Q153" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R153" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S153" t="n">
         <v>1.36</v>
@@ -28150,7 +28150,7 @@
         <v>9</v>
       </c>
       <c r="Z153" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA153" t="n">
         <v>17</v>
@@ -28174,10 +28174,10 @@
         <v>151</v>
       </c>
       <c r="AH153" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ153" t="n">
         <v>12</v>
@@ -28189,13 +28189,13 @@
         <v>26</v>
       </c>
       <c r="AM153" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN153" t="n">
         <v>4.33</v>
       </c>
       <c r="AO153" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP153" t="n">
         <v>21</v>
@@ -28222,16 +28222,16 @@
         <v>5.5</v>
       </c>
       <c r="AX153" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY153" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ153" t="n">
         <v>51</v>
       </c>
       <c r="BA153" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB153" t="n">
         <v>151</v>
@@ -28275,16 +28275,16 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I154" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J154" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K154" t="n">
         <v>2.1</v>
@@ -28293,10 +28293,10 @@
         <v>4</v>
       </c>
       <c r="M154" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N154" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O154" t="n">
         <v>1.33</v>
@@ -28326,7 +28326,7 @@
         <v>7</v>
       </c>
       <c r="X154" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y154" t="n">
         <v>9</v>
@@ -28335,7 +28335,7 @@
         <v>19</v>
       </c>
       <c r="AA154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB154" t="n">
         <v>29</v>
@@ -28395,7 +28395,7 @@
         <v>2.63</v>
       </c>
       <c r="AU154" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV154" t="n">
         <v>51</v>
@@ -28404,7 +28404,7 @@
         <v>5.5</v>
       </c>
       <c r="AX154" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY154" t="n">
         <v>29</v>
@@ -28413,10 +28413,10 @@
         <v>67</v>
       </c>
       <c r="BA154" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB154" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC154" t="n">
         <v>81</v>
@@ -28457,13 +28457,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H155" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="I155" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J155" t="n">
         <v>3.4</v>
@@ -28475,22 +28475,22 @@
         <v>4</v>
       </c>
       <c r="M155" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N155" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O155" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P155" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R155" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S155" t="n">
         <v>1.62</v>
@@ -28523,10 +28523,10 @@
         <v>41</v>
       </c>
       <c r="AC155" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD155" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE155" t="n">
         <v>19</v>
@@ -28536,10 +28536,10 @@
       </c>
       <c r="AG155" t="inlineStr"/>
       <c r="AH155" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI155" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ155" t="n">
         <v>13</v>
@@ -28551,7 +28551,7 @@
         <v>34</v>
       </c>
       <c r="AM155" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN155" t="n">
         <v>4.33</v>
@@ -28581,10 +28581,10 @@
         <v>81</v>
       </c>
       <c r="AW155" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX155" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY155" t="n">
         <v>34</v>
@@ -28637,22 +28637,22 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H156" t="n">
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J156" t="n">
         <v>2.2</v>
       </c>
       <c r="K156" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L156" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M156" t="n">
         <v>1.04</v>
@@ -28721,7 +28721,7 @@
         <v>15</v>
       </c>
       <c r="AI156" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ156" t="n">
         <v>17</v>
@@ -28736,7 +28736,7 @@
         <v>41</v>
       </c>
       <c r="AN156" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO156" t="n">
         <v>8</v>
@@ -28745,7 +28745,7 @@
         <v>19</v>
       </c>
       <c r="AQ156" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR156" t="n">
         <v>41</v>
@@ -28840,7 +28840,7 @@
         <v>1.04</v>
       </c>
       <c r="N157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O157" t="n">
         <v>1.22</v>
@@ -29361,13 +29361,13 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J160" t="n">
         <v>2.75</v>
@@ -29376,7 +29376,7 @@
         <v>2.1</v>
       </c>
       <c r="L160" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M160" t="n">
         <v>1.06</v>
@@ -29418,7 +29418,7 @@
         <v>9</v>
       </c>
       <c r="Z160" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA160" t="n">
         <v>17</v>
@@ -29445,7 +29445,7 @@
         <v>10</v>
       </c>
       <c r="AI160" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ160" t="n">
         <v>13</v>
@@ -29463,7 +29463,7 @@
         <v>4</v>
       </c>
       <c r="AO160" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP160" t="n">
         <v>23</v>
@@ -29472,7 +29472,7 @@
         <v>41</v>
       </c>
       <c r="AR160" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS160" t="n">
         <v>151</v>
@@ -29481,7 +29481,7 @@
         <v>2.63</v>
       </c>
       <c r="AU160" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV160" t="n">
         <v>51</v>
@@ -29502,7 +29502,7 @@
         <v>101</v>
       </c>
       <c r="BB160" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC160" t="n">
         <v>276</v>
@@ -29543,13 +29543,13 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I161" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J161" t="n">
         <v>1.73</v>
@@ -29558,7 +29558,7 @@
         <v>2.6</v>
       </c>
       <c r="L161" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M161" t="n">
         <v>1.03</v>
@@ -29585,10 +29585,10 @@
         <v>3.4</v>
       </c>
       <c r="U161" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V161" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W161" t="n">
         <v>7.5</v>
@@ -29612,10 +29612,10 @@
         <v>15</v>
       </c>
       <c r="AD161" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE161" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF161" t="n">
         <v>67</v>
@@ -29624,19 +29624,19 @@
         <v>351</v>
       </c>
       <c r="AH161" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI161" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ161" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK161" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL161" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM161" t="n">
         <v>51</v>
@@ -29663,13 +29663,13 @@
         <v>3.4</v>
       </c>
       <c r="AU161" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV161" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW161" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AX161" t="n">
         <v>41</v>
@@ -30359,13 +30359,13 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H166" t="n">
         <v>3.2</v>
       </c>
       <c r="I166" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J166" t="n">
         <v>3.1</v>
@@ -30407,7 +30407,7 @@
         <v>1.83</v>
       </c>
       <c r="W166" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X166" t="n">
         <v>11</v>
@@ -30416,16 +30416,16 @@
         <v>9.5</v>
       </c>
       <c r="Z166" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA166" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB166" t="n">
         <v>29</v>
       </c>
       <c r="AC166" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD166" t="n">
         <v>6.5</v>
@@ -30440,7 +30440,7 @@
         <v>251</v>
       </c>
       <c r="AH166" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI166" t="n">
         <v>15</v>
@@ -30449,10 +30449,10 @@
         <v>11</v>
       </c>
       <c r="AK166" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL166" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM166" t="n">
         <v>34</v>
@@ -30485,7 +30485,7 @@
         <v>51</v>
       </c>
       <c r="AW166" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX166" t="n">
         <v>17</v>
@@ -30721,22 +30721,22 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="H168" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I168" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="J168" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="K168" t="n">
         <v>2.1</v>
       </c>
       <c r="L168" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M168" t="n">
         <v>1.04</v>
@@ -30745,86 +30745,86 @@
         <v>8.949999999999999</v>
       </c>
       <c r="O168" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P168" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R168" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S168" t="n">
         <v>1.42</v>
       </c>
       <c r="T168" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U168" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="V168" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W168" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X168" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Y168" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z168" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AA168" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB168" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AC168" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD168" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AE168" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF168" t="n">
         <v>120</v>
       </c>
       <c r="AG168" t="inlineStr"/>
       <c r="AH168" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AI168" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AJ168" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK168" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AL168" t="n">
         <v>14.5</v>
       </c>
       <c r="AM168" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN168" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AO168" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AP168" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ168" t="n">
         <v>250</v>
@@ -30836,31 +30836,31 @@
         <v>81</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU168" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV168" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AW168" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AX168" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AY168" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ168" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA168" t="n">
         <v>65</v>
       </c>
       <c r="BB168" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC168" t="n">
         <v>81</v>
@@ -30901,22 +30901,22 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="H169" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="I169" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J169" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="K169" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="L169" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="M169" t="n">
         <v>1.08</v>
@@ -30925,25 +30925,25 @@
         <v>7.95</v>
       </c>
       <c r="O169" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P169" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="Q169" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R169" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S169" t="n">
         <v>1.47</v>
       </c>
       <c r="T169" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="U169" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V169" t="n">
         <v>1.7</v>
@@ -30952,97 +30952,97 @@
         <v>6.1</v>
       </c>
       <c r="X169" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="Y169" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z169" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AA169" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AB169" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC169" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AD169" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AE169" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF169" t="n">
         <v>100</v>
       </c>
       <c r="AG169" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH169" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI169" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AJ169" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AK169" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AL169" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM169" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN169" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="AO169" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AP169" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ169" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AR169" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS169" t="n">
         <v>300</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="AU169" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV169" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW169" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="AX169" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY169" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AZ169" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BA169" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BB169" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC169" t="n">
         <v>81</v>
@@ -31083,22 +31083,22 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="H170" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I170" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="J170" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="K170" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L170" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="M170" t="n">
         <v>1.03</v>
@@ -31110,40 +31110,40 @@
         <v>1.14</v>
       </c>
       <c r="P170" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="Q170" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R170" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="S170" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="T170" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="U170" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V170" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W170" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X170" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y170" t="n">
         <v>9</v>
-      </c>
-      <c r="X170" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y170" t="n">
-        <v>8.75</v>
       </c>
       <c r="Z170" t="n">
         <v>8</v>
       </c>
       <c r="AA170" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB170" t="n">
         <v>24</v>
@@ -31152,79 +31152,79 @@
         <v>9.75</v>
       </c>
       <c r="AD170" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AE170" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF170" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG170" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH170" t="n">
         <v>32</v>
       </c>
       <c r="AI170" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ170" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK170" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL170" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM170" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AN170" t="n">
         <v>3.3</v>
       </c>
       <c r="AO170" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AP170" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ170" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AR170" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AS170" t="n">
         <v>150</v>
       </c>
       <c r="AT170" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="AU170" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AV170" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW170" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AX170" t="n">
+        <v>60</v>
+      </c>
+      <c r="AY170" t="n">
         <v>50</v>
       </c>
-      <c r="AY170" t="n">
-        <v>40</v>
-      </c>
       <c r="AZ170" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="BA170" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BB170" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC170" t="inlineStr"/>
       <c r="BD170" t="inlineStr"/>
@@ -31261,148 +31261,148 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="H171" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="I171" t="n">
-        <v>5.3</v>
+        <v>6.3</v>
       </c>
       <c r="J171" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="K171" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="L171" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="M171" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N171" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="O171" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P171" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="R171" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="S171" t="n">
         <v>1.2</v>
       </c>
       <c r="T171" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="U171" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V171" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="W171" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X171" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y171" t="n">
         <v>8.75</v>
       </c>
       <c r="Z171" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA171" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB171" t="n">
         <v>16</v>
       </c>
       <c r="AC171" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD171" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE171" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF171" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG171" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK171" t="n">
         <v>150</v>
       </c>
-      <c r="AH171" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI171" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ171" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK171" t="n">
-        <v>100</v>
-      </c>
       <c r="AL171" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM171" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN171" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AO171" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AP171" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AQ171" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AR171" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS171" t="n">
         <v>90</v>
       </c>
       <c r="AT171" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AU171" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV171" t="n">
         <v>37</v>
       </c>
       <c r="AW171" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="AX171" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AY171" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AZ171" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA171" t="n">
         <v>120</v>
       </c>
-      <c r="BA171" t="n">
-        <v>100</v>
-      </c>
       <c r="BB171" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC171" t="n">
         <v>400</v>
@@ -31441,70 +31441,70 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="H172" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I172" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="J172" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="K172" t="n">
         <v>2.47</v>
       </c>
       <c r="L172" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="M172" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N172" t="n">
         <v>9.75</v>
       </c>
       <c r="O172" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P172" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Q172" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R172" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="S172" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T172" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="U172" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="V172" t="n">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="W172" t="n">
         <v>18</v>
       </c>
       <c r="X172" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y172" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z172" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA172" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AB172" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC172" t="n">
         <v>9.75</v>
@@ -31513,79 +31513,79 @@
         <v>8.75</v>
       </c>
       <c r="AE172" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI172" t="n">
         <v>11.5</v>
       </c>
-      <c r="AF172" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG172" t="n">
-        <v>150</v>
-      </c>
-      <c r="AH172" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AJ172" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK172" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL172" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM172" t="n">
         <v>17</v>
       </c>
       <c r="AN172" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO172" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP172" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ172" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AR172" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS172" t="n">
         <v>150</v>
       </c>
       <c r="AT172" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AU172" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AV172" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW172" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="AX172" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AY172" t="n">
         <v>13.5</v>
       </c>
       <c r="AZ172" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BA172" t="n">
         <v>40</v>
       </c>
       <c r="BB172" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC172" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD172" t="inlineStr"/>
     </row>
@@ -31801,79 +31801,79 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="H174" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="I174" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="J174" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K174" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L174" t="n">
-        <v>2.07</v>
+        <v>1.95</v>
       </c>
       <c r="M174" t="n">
         <v>1.03</v>
       </c>
       <c r="N174" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O174" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P174" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R174" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="S174" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T174" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="U174" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V174" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="W174" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="X174" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y174" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Z174" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AA174" t="n">
         <v>45</v>
       </c>
       <c r="AB174" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AC174" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AD174" t="n">
         <v>9</v>
       </c>
-      <c r="AD174" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AE174" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF174" t="n">
         <v>50</v>
@@ -31882,64 +31882,64 @@
         <v>300</v>
       </c>
       <c r="AH174" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI174" t="n">
         <v>8.75</v>
       </c>
       <c r="AJ174" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK174" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AL174" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AM174" t="n">
         <v>19.5</v>
       </c>
       <c r="AN174" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AO174" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP174" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AQ174" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR174" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS174" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT174" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="AU174" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AV174" t="n">
         <v>50</v>
       </c>
       <c r="AW174" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AX174" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="AY174" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AZ174" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="BA174" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BB174" t="n">
         <v>150</v>
@@ -31979,148 +31979,148 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H175" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I175" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="J175" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="K175" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="L175" t="n">
-        <v>4.35</v>
+        <v>4.15</v>
       </c>
       <c r="M175" t="n">
         <v>1.04</v>
       </c>
       <c r="N175" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="O175" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="P175" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R175" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="S175" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="T175" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="U175" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V175" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W175" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="X175" t="n">
         <v>9.25</v>
       </c>
       <c r="Y175" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z175" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA175" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB175" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC175" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD175" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="AE175" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF175" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG175" t="n">
         <v>350</v>
       </c>
       <c r="AH175" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI175" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ175" t="n">
         <v>13.5</v>
       </c>
       <c r="AK175" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL175" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM175" t="n">
         <v>35</v>
       </c>
-      <c r="AM175" t="n">
-        <v>37</v>
-      </c>
       <c r="AN175" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AO175" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AP175" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ175" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR175" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS175" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="AU175" t="n">
         <v>7</v>
       </c>
       <c r="AV175" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW175" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AX175" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY175" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ175" t="n">
+        <v>100</v>
+      </c>
+      <c r="BA175" t="n">
         <v>120</v>
       </c>
-      <c r="BA175" t="n">
-        <v>150</v>
-      </c>
       <c r="BB175" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC175" t="inlineStr"/>
       <c r="BD175" t="inlineStr"/>
@@ -32157,145 +32157,145 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="H176" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I176" t="n">
-        <v>4.35</v>
+        <v>5.5</v>
       </c>
       <c r="J176" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="K176" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L176" t="n">
-        <v>4.8</v>
+        <v>5.7</v>
       </c>
       <c r="M176" t="n">
         <v>1.06</v>
       </c>
       <c r="N176" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="O176" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P176" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q176" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R176" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S176" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T176" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="U176" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="V176" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="W176" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="X176" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="Y176" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z176" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA176" t="n">
         <v>13</v>
       </c>
-      <c r="AA176" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AB176" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC176" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD176" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE176" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF176" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG176" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AH176" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AI176" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AJ176" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK176" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AL176" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AM176" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AN176" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="AO176" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="AP176" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ176" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AR176" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS176" t="n">
         <v>250</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="AU176" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AV176" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW176" t="n">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="AX176" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="AY176" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AZ176" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="BA176" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB176" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-07.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -777,22 +777,22 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>19</v>
@@ -819,13 +819,13 @@
         <v>9.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>8.5</v>
@@ -864,7 +864,7 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>8.5</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.8</v>
@@ -944,13 +944,13 @@
         <v>2.75</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -971,22 +971,22 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
         <v>11</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>11</v>
@@ -998,16 +998,16 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
@@ -1019,7 +1019,7 @@
         <v>23</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
         <v>51</v>
@@ -1031,13 +1031,13 @@
         <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1049,13 +1049,13 @@
         <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
         <v>34</v>
@@ -1067,16 +1067,16 @@
         <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BD3" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1347,10 +1347,10 @@
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="n">
         <v>41</v>
@@ -1362,7 +1362,7 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1404,7 +1404,7 @@
         <v>81</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
@@ -1413,7 +1413,7 @@
         <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
@@ -1437,10 +1437,10 @@
         <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K6" t="n">
         <v>2.3</v>
@@ -1553,10 +1553,10 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>29</v>
@@ -1583,7 +1583,7 @@
         <v>19</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1604,7 +1604,7 @@
         <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
         <v>3.8</v>
@@ -1669,7 +1669,7 @@
         <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
         <v>4.75</v>
@@ -1699,10 +1699,10 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
         <v>8.5</v>
@@ -1726,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
@@ -1857,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1869,10 +1869,10 @@
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1902,13 +1902,13 @@
         <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1917,7 +1917,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
         <v>15</v>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>3.5</v>
@@ -1959,7 +1959,7 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1974,7 +1974,7 @@
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
         <v>151</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J9" t="n">
         <v>4.75</v>
@@ -2090,7 +2090,7 @@
         <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>13</v>
@@ -2099,13 +2099,13 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
         <v>9.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ9" t="n">
         <v>8.5</v>
@@ -2147,10 +2147,10 @@
         <v>41</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
         <v>17</v>
@@ -2227,16 +2227,16 @@
         <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.25</v>
@@ -2254,10 +2254,10 @@
         <v>8.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>8</v>
@@ -2269,10 +2269,10 @@
         <v>26</v>
       </c>
       <c r="AC10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2406,7 +2406,7 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O11" t="n">
         <v>1.08</v>
@@ -2427,10 +2427,10 @@
         <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -2439,7 +2439,7 @@
         <v>7.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
         <v>7</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>2.38</v>
       </c>
       <c r="L12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2609,13 +2609,13 @@
         <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
         <v>19</v>
@@ -2651,7 +2651,7 @@
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ12" t="n">
         <v>9</v>
@@ -2669,7 +2669,7 @@
         <v>5.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2678,7 +2678,7 @@
         <v>51</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
         <v>126</v>
@@ -2693,13 +2693,13 @@
         <v>41</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ12" t="n">
         <v>34</v>
@@ -2711,7 +2711,7 @@
         <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2773,10 +2773,10 @@
         <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
         <v>1.62</v>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
@@ -3000,7 +3000,7 @@
         <v>17</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -3113,13 +3113,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J15" t="n">
         <v>3.4</v>
@@ -3128,13 +3128,13 @@
         <v>2.5</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -3155,10 +3155,10 @@
         <v>3.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W15" t="n">
         <v>17</v>
@@ -3176,7 +3176,7 @@
         <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
         <v>21</v>
@@ -3197,7 +3197,7 @@
         <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.5</v>
@@ -3239,13 +3239,13 @@
         <v>41</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
         <v>11</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
         <v>34</v>
@@ -3325,10 +3325,10 @@
         <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
         <v>1.53</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
         <v>2.38</v>
@@ -3528,7 +3528,7 @@
         <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9</v>
@@ -3543,7 +3543,7 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3558,10 +3558,10 @@
         <v>501</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
         <v>17</v>
@@ -3570,13 +3570,13 @@
         <v>51</v>
       </c>
       <c r="AL17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
@@ -3591,7 +3591,7 @@
         <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
         <v>2.5</v>
@@ -3618,7 +3618,7 @@
         <v>151</v>
       </c>
       <c r="BB17" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="BC17" t="n">
         <v>126</v>
@@ -3680,7 +3680,7 @@
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -3844,19 +3844,19 @@
         <v>2.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3895,7 +3895,7 @@
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
         <v>19</v>
@@ -3913,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
@@ -3964,7 +3964,7 @@
         <v>7.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
         <v>5.5</v>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
         <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
         <v>2.63</v>
@@ -4074,16 +4074,16 @@
         <v>7.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z20" t="n">
         <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB20" t="n">
         <v>26</v>
@@ -4095,19 +4095,19 @@
         <v>6.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ20" t="n">
         <v>13</v>
@@ -4116,7 +4116,7 @@
         <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
@@ -4131,7 +4131,7 @@
         <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -4161,13 +4161,13 @@
         <v>67</v>
       </c>
       <c r="BA20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
         <v>201</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4226,7 +4226,7 @@
         <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
         <v>1.13</v>
@@ -4387,22 +4387,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -4441,7 +4441,7 @@
         <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
         <v>23</v>
@@ -4471,7 +4471,7 @@
         <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>11</v>
@@ -4483,19 +4483,19 @@
         <v>23</v>
       </c>
       <c r="AM22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
         <v>4.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
         <v>67</v>
@@ -4516,7 +4516,7 @@
         <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY22" t="n">
         <v>26</v>
@@ -4534,7 +4534,7 @@
         <v>501</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
         <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J23" t="n">
         <v>2.4</v>
@@ -4590,7 +4590,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -4611,10 +4611,10 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
@@ -4626,7 +4626,7 @@
         <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
@@ -4638,7 +4638,7 @@
         <v>9.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -4647,10 +4647,10 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
@@ -4695,7 +4695,7 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX23" t="n">
         <v>26</v>
@@ -4707,7 +4707,7 @@
         <v>81</v>
       </c>
       <c r="BA23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB23" t="n">
         <v>251</v>
@@ -4751,22 +4751,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H24" t="n">
         <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J24" t="n">
         <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -4781,10 +4781,10 @@
         <v>5.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S24" t="n">
         <v>1.25</v>
@@ -4793,16 +4793,16 @@
         <v>3.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V24" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
         <v>17</v>
@@ -4817,7 +4817,7 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD24" t="n">
         <v>9</v>
@@ -4832,7 +4832,7 @@
         <v>126</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI24" t="n">
         <v>9.5</v>
@@ -4850,10 +4850,10 @@
         <v>19</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP24" t="n">
         <v>26</v>
@@ -4880,7 +4880,7 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
@@ -4889,7 +4889,7 @@
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB24" t="n">
         <v>81</v>
@@ -4898,7 +4898,7 @@
         <v>351</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -5325,10 +5325,10 @@
         <v>2.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S27" t="n">
         <v>1.57</v>
@@ -5505,10 +5505,10 @@
         <v>2.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R28" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S28" t="n">
         <v>1.57</v>
@@ -5854,7 +5854,7 @@
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -5893,7 +5893,7 @@
         <v>8.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>15</v>
@@ -5905,7 +5905,7 @@
         <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
         <v>6.5</v>
@@ -5941,7 +5941,7 @@
         <v>3.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP30" t="n">
         <v>23</v>
@@ -6039,10 +6039,10 @@
         <v>2.4</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O31" t="n">
         <v>1.14</v>
@@ -6069,7 +6069,7 @@
         <v>2.5</v>
       </c>
       <c r="W31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X31" t="n">
         <v>21</v>
@@ -6087,10 +6087,10 @@
         <v>26</v>
       </c>
       <c r="AC31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6102,7 +6102,7 @@
         <v>101</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>12</v>
@@ -6415,10 +6415,10 @@
         <v>4.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S33" t="n">
         <v>1.3</v>
@@ -6767,10 +6767,10 @@
         <v>3.25</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.29</v>
@@ -7113,22 +7113,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H37" t="n">
         <v>3.8</v>
       </c>
       <c r="I37" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J37" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L37" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -7149,10 +7149,10 @@
         <v>2.15</v>
       </c>
       <c r="S37" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="T37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="U37" t="n">
         <v>1.6</v>
@@ -7161,22 +7161,22 @@
         <v>2.2</v>
       </c>
       <c r="W37" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Z37" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA37" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
@@ -7194,43 +7194,43 @@
         <v>300</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AI37" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AJ37" t="n">
         <v>8.5</v>
       </c>
       <c r="AK37" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL37" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM37" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO37" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR37" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS37" t="n">
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU37" t="n">
         <v>6.9</v>
@@ -7239,10 +7239,10 @@
         <v>55</v>
       </c>
       <c r="AW37" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AX37" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY37" t="n">
         <v>16.5</v>
@@ -7295,37 +7295,37 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="J38" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="L38" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P38" t="n">
         <v>2.65</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R38" t="n">
         <v>1.6</v>
@@ -7337,106 +7337,106 @@
         <v>2.45</v>
       </c>
       <c r="U38" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="V38" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W38" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="X38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA38" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC38" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AD38" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AE38" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF38" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG38" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AI38" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ38" t="n">
         <v>8.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AL38" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM38" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AO38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ38" t="n">
         <v>120</v>
       </c>
       <c r="AR38" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS38" t="n">
         <v>400</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU38" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AV38" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="AX38" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AY38" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ38" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA38" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB38" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC38" t="inlineStr"/>
       <c r="BD38" t="inlineStr"/>
@@ -7473,64 +7473,64 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="I39" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="J39" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="L39" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
       <c r="O39" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="R39" t="n">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="S39" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="T39" t="n">
-        <v>3.04</v>
+        <v>3.34</v>
       </c>
       <c r="U39" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V39" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="X39" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Y39" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AA39" t="n">
         <v>45</v>
@@ -7539,46 +7539,46 @@
         <v>45</v>
       </c>
       <c r="AC39" t="n">
-        <v>11.75</v>
+        <v>14</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF39" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AG39" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AH39" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AI39" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AJ39" t="n">
         <v>8.25</v>
       </c>
       <c r="AK39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL39" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AM39" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN39" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="AO39" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ39" t="n">
         <v>150</v>
@@ -7587,34 +7587,34 @@
         <v>175</v>
       </c>
       <c r="AS39" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT39" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV39" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW39" t="n">
         <v>3.45</v>
       </c>
       <c r="AX39" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="AY39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ39" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BA39" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BB39" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
@@ -7681,10 +7681,10 @@
         <v>5.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R40" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S40" t="n">
         <v>1.25</v>
@@ -7699,7 +7699,7 @@
         <v>1.95</v>
       </c>
       <c r="W40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X40" t="n">
         <v>7.5</v>
@@ -7708,7 +7708,7 @@
         <v>9</v>
       </c>
       <c r="Z40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA40" t="n">
         <v>11</v>
@@ -7729,7 +7729,7 @@
         <v>51</v>
       </c>
       <c r="AG40" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH40" t="n">
         <v>21</v>
@@ -7750,10 +7750,10 @@
         <v>41</v>
       </c>
       <c r="AN40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP40" t="n">
         <v>15</v>
@@ -7780,19 +7780,19 @@
         <v>9</v>
       </c>
       <c r="AX40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY40" t="n">
         <v>34</v>
       </c>
       <c r="AZ40" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA40" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB40" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC40" t="n">
         <v>501</v>
@@ -7833,13 +7833,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J41" t="n">
         <v>4.33</v>
@@ -7875,10 +7875,10 @@
         <v>3.5</v>
       </c>
       <c r="U41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W41" t="n">
         <v>17</v>
@@ -7911,13 +7911,13 @@
         <v>41</v>
       </c>
       <c r="AG41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ41" t="n">
         <v>8.5</v>
@@ -7929,7 +7929,7 @@
         <v>12</v>
       </c>
       <c r="AM41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN41" t="n">
         <v>6</v>
@@ -8388,13 +8388,13 @@
         <v>4.75</v>
       </c>
       <c r="J44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K44" t="n">
         <v>2.5</v>
       </c>
       <c r="L44" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.03</v>
@@ -8448,7 +8448,7 @@
         <v>17</v>
       </c>
       <c r="AD44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE44" t="n">
         <v>15</v>
@@ -8466,13 +8466,13 @@
         <v>29</v>
       </c>
       <c r="AJ44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK44" t="n">
         <v>51</v>
       </c>
       <c r="AL44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM44" t="n">
         <v>34</v>
@@ -8585,16 +8585,16 @@
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R45" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S45" t="n">
         <v>1.36</v>
@@ -8743,28 +8743,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I46" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
         <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O46" t="n">
         <v>1.2</v>
@@ -8773,16 +8773,16 @@
         <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U46" t="n">
         <v>1.57</v>
@@ -8791,22 +8791,22 @@
         <v>2.25</v>
       </c>
       <c r="W46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X46" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA46" t="n">
         <v>21</v>
       </c>
-      <c r="Y46" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA46" t="n">
+      <c r="AB46" t="n">
         <v>26</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>29</v>
       </c>
       <c r="AC46" t="n">
         <v>15</v>
@@ -8824,43 +8824,43 @@
         <v>126</v>
       </c>
       <c r="AH46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ46" t="n">
         <v>9</v>
       </c>
       <c r="AK46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL46" t="n">
         <v>17</v>
       </c>
-      <c r="AL46" t="n">
+      <c r="AM46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO46" t="n">
         <v>15</v>
       </c>
-      <c r="AM46" t="n">
+      <c r="AP46" t="n">
         <v>21</v>
       </c>
-      <c r="AN46" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ46" t="n">
         <v>51</v>
       </c>
       <c r="AR46" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS46" t="n">
         <v>126</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU46" t="n">
         <v>7.5</v>
@@ -8869,16 +8869,16 @@
         <v>41</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY46" t="n">
         <v>19</v>
       </c>
       <c r="AZ46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA46" t="n">
         <v>51</v>
@@ -9113,7 +9113,7 @@
         <v>2.25</v>
       </c>
       <c r="K48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L48" t="n">
         <v>5</v>
@@ -9131,10 +9131,10 @@
         <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R48" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
         <v>1.36</v>
@@ -9143,10 +9143,10 @@
         <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V48" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W48" t="n">
         <v>7.5</v>
@@ -9164,7 +9164,7 @@
         <v>13</v>
       </c>
       <c r="AB48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC48" t="n">
         <v>12</v>
@@ -9185,7 +9185,7 @@
         <v>13</v>
       </c>
       <c r="AI48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ48" t="n">
         <v>15</v>
@@ -9209,10 +9209,10 @@
         <v>19</v>
       </c>
       <c r="AQ48" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR48" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS48" t="n">
         <v>126</v>
@@ -9233,7 +9233,7 @@
         <v>26</v>
       </c>
       <c r="AY48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ48" t="n">
         <v>81</v>
@@ -9260,7 +9260,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -9279,13 +9279,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
         <v>3.25</v>
@@ -9297,10 +9297,10 @@
         <v>3.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -9309,10 +9309,10 @@
         <v>2.63</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R49" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S49" t="n">
         <v>1.53</v>
@@ -9330,7 +9330,7 @@
         <v>6.5</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y49" t="n">
         <v>10</v>
@@ -9345,13 +9345,13 @@
         <v>41</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD49" t="n">
         <v>6</v>
       </c>
       <c r="AE49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF49" t="n">
         <v>67</v>
@@ -9366,13 +9366,13 @@
         <v>13</v>
       </c>
       <c r="AJ49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK49" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL49" t="n">
         <v>29</v>
-      </c>
-      <c r="AL49" t="n">
-        <v>26</v>
       </c>
       <c r="AM49" t="n">
         <v>41</v>
@@ -9405,22 +9405,22 @@
         <v>67</v>
       </c>
       <c r="AW49" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX49" t="n">
         <v>19</v>
       </c>
       <c r="AY49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA49" t="n">
         <v>101</v>
       </c>
       <c r="BB49" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC49" t="inlineStr"/>
       <c r="BD49" t="inlineStr"/>
@@ -9636,7 +9636,7 @@
         <v>1.55</v>
       </c>
       <c r="H51" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I51" t="n">
         <v>6.5</v>
@@ -9645,43 +9645,43 @@
         <v>2.1</v>
       </c>
       <c r="K51" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L51" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O51" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="R51" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="S51" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T51" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X51" t="n">
         <v>7</v>
@@ -9696,19 +9696,19 @@
         <v>13</v>
       </c>
       <c r="AB51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC51" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD51" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG51" t="n">
         <v>301</v>
@@ -9720,28 +9720,28 @@
         <v>34</v>
       </c>
       <c r="AJ51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK51" t="n">
         <v>67</v>
       </c>
       <c r="AL51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM51" t="n">
         <v>51</v>
       </c>
       <c r="AN51" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR51" t="n">
         <v>51</v>
@@ -9750,13 +9750,13 @@
         <v>151</v>
       </c>
       <c r="AT51" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU51" t="n">
         <v>9</v>
       </c>
       <c r="AV51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW51" t="n">
         <v>7.5</v>
@@ -9774,7 +9774,7 @@
         <v>151</v>
       </c>
       <c r="BB51" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC51" t="inlineStr"/>
       <c r="BD51" t="inlineStr"/>
@@ -9835,16 +9835,16 @@
         <v>9</v>
       </c>
       <c r="O52" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R52" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S52" t="n">
         <v>1.44</v>
@@ -9996,19 +9996,19 @@
         <v>7.5</v>
       </c>
       <c r="H53" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="J53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L53" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
         <v>1.05</v>
@@ -10023,10 +10023,10 @@
         <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R53" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S53" t="n">
         <v>1.4</v>
@@ -10047,7 +10047,7 @@
         <v>41</v>
       </c>
       <c r="Y53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z53" t="n">
         <v>81</v>
@@ -10059,10 +10059,10 @@
         <v>51</v>
       </c>
       <c r="AC53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE53" t="n">
         <v>21</v>
@@ -10074,7 +10074,7 @@
         <v>1250</v>
       </c>
       <c r="AH53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI53" t="n">
         <v>6.5</v>
@@ -10083,7 +10083,7 @@
         <v>9</v>
       </c>
       <c r="AK53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL53" t="n">
         <v>13</v>
@@ -10131,7 +10131,7 @@
         <v>21</v>
       </c>
       <c r="BA53" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB53" t="n">
         <v>151</v>
@@ -10349,26 +10349,26 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Paphos</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="H55" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I55" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="J55" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="K55" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="L55" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -10377,118 +10377,118 @@
         <v>10</v>
       </c>
       <c r="O55" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P55" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R55" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S55" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="T55" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="U55" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="V55" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X55" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="Y55" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z55" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AA55" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AB55" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AC55" t="n">
         <v>10</v>
       </c>
       <c r="AD55" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE55" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF55" t="n">
         <v>120</v>
       </c>
       <c r="AG55" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH55" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI55" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AJ55" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AL55" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN55" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AO55" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AP55" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AQ55" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AR55" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AS55" t="n">
         <v>500</v>
       </c>
       <c r="AT55" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AU55" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV55" t="n">
         <v>90</v>
       </c>
       <c r="AW55" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AX55" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="AY55" t="n">
         <v>16</v>
       </c>
       <c r="AZ55" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="BA55" t="n">
         <v>40</v>
@@ -10531,19 +10531,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H56" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I56" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="K56" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L56" t="n">
         <v>6</v>
@@ -10552,37 +10552,37 @@
         <v>1.07</v>
       </c>
       <c r="N56" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="O56" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="P56" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R56" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S56" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T56" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="U56" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V56" t="n">
         <v>1.65</v>
       </c>
       <c r="W56" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X56" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -10597,22 +10597,22 @@
         <v>37</v>
       </c>
       <c r="AC56" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AD56" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE56" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF56" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG56" t="n">
         <v>1000</v>
       </c>
       <c r="AH56" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI56" t="n">
         <v>40</v>
@@ -10624,7 +10624,7 @@
         <v>150</v>
       </c>
       <c r="AL56" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM56" t="n">
         <v>90</v>
@@ -10633,31 +10633,31 @@
         <v>3.25</v>
       </c>
       <c r="AO56" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AP56" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR56" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS56" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT56" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="AU56" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW56" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AX56" t="n">
         <v>37</v>
@@ -10669,7 +10669,7 @@
         <v>250</v>
       </c>
       <c r="BA56" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB56" t="n">
         <v>500</v>
@@ -10891,13 +10891,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H58" t="n">
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J58" t="n">
         <v>2</v>
@@ -10906,7 +10906,7 @@
         <v>2.38</v>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M58" t="n">
         <v>1.04</v>
@@ -10927,7 +10927,7 @@
         <v>2.08</v>
       </c>
       <c r="S58" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T58" t="n">
         <v>3.25</v>
@@ -10969,7 +10969,7 @@
         <v>51</v>
       </c>
       <c r="AG58" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH58" t="n">
         <v>17</v>
@@ -10978,22 +10978,22 @@
         <v>34</v>
       </c>
       <c r="AJ58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK58" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN58" t="n">
         <v>3.4</v>
       </c>
       <c r="AO58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP58" t="n">
         <v>19</v>
@@ -11017,19 +11017,19 @@
         <v>51</v>
       </c>
       <c r="AW58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX58" t="n">
         <v>34</v>
       </c>
       <c r="AY58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ58" t="n">
         <v>126</v>
       </c>
       <c r="BA58" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB58" t="n">
         <v>251</v>
@@ -11103,13 +11103,13 @@
         <v>5.5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R59" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S59" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T59" t="n">
         <v>3.75</v>
@@ -11121,7 +11121,7 @@
         <v>1.91</v>
       </c>
       <c r="W59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X59" t="n">
         <v>7</v>
@@ -11151,7 +11151,7 @@
         <v>51</v>
       </c>
       <c r="AG59" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH59" t="n">
         <v>23</v>
@@ -11291,10 +11291,10 @@
         <v>1.75</v>
       </c>
       <c r="S60" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T60" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U60" t="n">
         <v>1.73</v>
@@ -11433,7 +11433,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H61" t="n">
         <v>4.75</v>
@@ -11442,7 +11442,7 @@
         <v>8.5</v>
       </c>
       <c r="J61" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K61" t="n">
         <v>2.38</v>
@@ -11451,22 +11451,22 @@
         <v>8</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N61" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O61" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P61" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R61" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S61" t="n">
         <v>1.36</v>
@@ -11481,7 +11481,7 @@
         <v>1.62</v>
       </c>
       <c r="W61" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X61" t="n">
         <v>6</v>
@@ -11490,19 +11490,19 @@
         <v>9</v>
       </c>
       <c r="Z61" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB61" t="n">
         <v>34</v>
       </c>
       <c r="AC61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD61" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE61" t="n">
         <v>23</v>
@@ -11514,13 +11514,13 @@
         <v>501</v>
       </c>
       <c r="AH61" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI61" t="n">
         <v>41</v>
       </c>
       <c r="AJ61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK61" t="n">
         <v>101</v>
@@ -11529,7 +11529,7 @@
         <v>67</v>
       </c>
       <c r="AM61" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN61" t="n">
         <v>3.2</v>
@@ -11559,7 +11559,7 @@
         <v>67</v>
       </c>
       <c r="AW61" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX61" t="n">
         <v>41</v>
@@ -11571,16 +11571,16 @@
         <v>201</v>
       </c>
       <c r="BA61" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB61" t="n">
         <v>451</v>
       </c>
       <c r="BC61" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD61" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62">
@@ -11645,10 +11645,10 @@
         <v>3</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R62" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S62" t="n">
         <v>1.5</v>
@@ -11797,16 +11797,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J63" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K63" t="n">
         <v>2.2</v>
@@ -11821,16 +11821,16 @@
         <v>10</v>
       </c>
       <c r="O63" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R63" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S63" t="n">
         <v>1.4</v>
@@ -11854,16 +11854,16 @@
         <v>8.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA63" t="n">
         <v>15</v>
       </c>
       <c r="AB63" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD63" t="n">
         <v>7</v>
@@ -11899,13 +11899,13 @@
         <v>3.75</v>
       </c>
       <c r="AO63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP63" t="n">
         <v>21</v>
       </c>
       <c r="AQ63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR63" t="n">
         <v>51</v>
@@ -11923,7 +11923,7 @@
         <v>51</v>
       </c>
       <c r="AW63" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX63" t="n">
         <v>26</v>
@@ -12009,10 +12009,10 @@
         <v>4</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R64" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
         <v>1.36</v>
@@ -12182,7 +12182,7 @@
         <v>1.06</v>
       </c>
       <c r="N65" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O65" t="n">
         <v>1.3</v>
@@ -12349,10 +12349,10 @@
         <v>3.25</v>
       </c>
       <c r="I66" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
         <v>2.1</v>
@@ -12379,25 +12379,25 @@
         <v>1.83</v>
       </c>
       <c r="S66" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T66" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U66" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V66" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X66" t="n">
         <v>11</v>
       </c>
       <c r="Y66" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z66" t="n">
         <v>21</v>
@@ -12418,16 +12418,16 @@
         <v>13</v>
       </c>
       <c r="AF66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG66" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH66" t="n">
         <v>10</v>
       </c>
       <c r="AI66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ66" t="n">
         <v>12</v>
@@ -12460,7 +12460,7 @@
         <v>151</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU66" t="n">
         <v>8</v>
@@ -12472,7 +12472,7 @@
         <v>5</v>
       </c>
       <c r="AX66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY66" t="n">
         <v>26</v>
@@ -12525,19 +12525,19 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H67" t="n">
         <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
         <v>3.25</v>
       </c>
       <c r="K67" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L67" t="n">
         <v>3.75</v>
@@ -12546,7 +12546,7 @@
         <v>1.08</v>
       </c>
       <c r="N67" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O67" t="n">
         <v>1.44</v>
@@ -12555,10 +12555,10 @@
         <v>2.75</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R67" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S67" t="n">
         <v>1.53</v>
@@ -12585,7 +12585,7 @@
         <v>23</v>
       </c>
       <c r="AA67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB67" t="n">
         <v>34</v>
@@ -12600,7 +12600,7 @@
         <v>17</v>
       </c>
       <c r="AF67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG67" t="n">
         <v>401</v>
@@ -12615,7 +12615,7 @@
         <v>11</v>
       </c>
       <c r="AK67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL67" t="n">
         <v>26</v>
@@ -12654,7 +12654,7 @@
         <v>4.75</v>
       </c>
       <c r="AX67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY67" t="n">
         <v>29</v>
@@ -12663,7 +12663,7 @@
         <v>51</v>
       </c>
       <c r="BA67" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB67" t="n">
         <v>251</v>
@@ -13071,16 +13071,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H70" t="n">
         <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J70" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K70" t="n">
         <v>2.2</v>
@@ -13089,10 +13089,10 @@
         <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O70" t="n">
         <v>1.29</v>
@@ -13101,10 +13101,10 @@
         <v>3.75</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R70" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S70" t="n">
         <v>1.4</v>
@@ -13113,10 +13113,10 @@
         <v>2.75</v>
       </c>
       <c r="U70" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V70" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W70" t="n">
         <v>10</v>
@@ -13128,16 +13128,16 @@
         <v>11</v>
       </c>
       <c r="Z70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA70" t="n">
         <v>23</v>
       </c>
       <c r="AB70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD70" t="n">
         <v>6.5</v>
@@ -13155,13 +13155,13 @@
         <v>8.5</v>
       </c>
       <c r="AI70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ70" t="n">
         <v>9.5</v>
       </c>
       <c r="AK70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL70" t="n">
         <v>19</v>
@@ -13176,7 +13176,7 @@
         <v>17</v>
       </c>
       <c r="AP70" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ70" t="n">
         <v>51</v>
@@ -13197,7 +13197,7 @@
         <v>51</v>
       </c>
       <c r="AW70" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX70" t="n">
         <v>13</v>
@@ -13215,10 +13215,10 @@
         <v>151</v>
       </c>
       <c r="BC70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71">
@@ -13259,13 +13259,13 @@
         <v>3.3</v>
       </c>
       <c r="I71" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J71" t="n">
         <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L71" t="n">
         <v>4</v>
@@ -13274,7 +13274,7 @@
         <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -13283,16 +13283,16 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R71" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S71" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T71" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U71" t="n">
         <v>1.95</v>
@@ -13301,7 +13301,7 @@
         <v>1.8</v>
       </c>
       <c r="W71" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X71" t="n">
         <v>10</v>
@@ -13316,16 +13316,16 @@
         <v>19</v>
       </c>
       <c r="AB71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE71" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF71" t="n">
         <v>51</v>
@@ -13334,7 +13334,7 @@
         <v>351</v>
       </c>
       <c r="AH71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI71" t="n">
         <v>15</v>
@@ -13352,13 +13352,13 @@
         <v>41</v>
       </c>
       <c r="AN71" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO71" t="n">
         <v>13</v>
       </c>
       <c r="AP71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ71" t="n">
         <v>41</v>
@@ -13370,13 +13370,13 @@
         <v>201</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU71" t="n">
         <v>8.5</v>
       </c>
       <c r="AV71" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW71" t="n">
         <v>5</v>
@@ -13391,7 +13391,7 @@
         <v>67</v>
       </c>
       <c r="BA71" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB71" t="n">
         <v>251</v>
@@ -13435,16 +13435,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H72" t="n">
         <v>3.4</v>
       </c>
       <c r="I72" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J72" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K72" t="n">
         <v>2</v>
@@ -13453,22 +13453,22 @@
         <v>4</v>
       </c>
       <c r="M72" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O72" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P72" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R72" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S72" t="n">
         <v>1.5</v>
@@ -13486,7 +13486,7 @@
         <v>6.5</v>
       </c>
       <c r="X72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y72" t="n">
         <v>9.5</v>
@@ -13513,7 +13513,7 @@
         <v>67</v>
       </c>
       <c r="AG72" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH72" t="n">
         <v>8</v>
@@ -13534,7 +13534,7 @@
         <v>41</v>
       </c>
       <c r="AN72" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO72" t="n">
         <v>13</v>
@@ -13546,7 +13546,7 @@
         <v>41</v>
       </c>
       <c r="AR72" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS72" t="n">
         <v>201</v>
@@ -13564,7 +13564,7 @@
         <v>5</v>
       </c>
       <c r="AX72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY72" t="n">
         <v>29</v>
@@ -13617,22 +13617,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I73" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K73" t="n">
         <v>2.25</v>
       </c>
       <c r="L73" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M73" t="n">
         <v>1.04</v>
@@ -13641,16 +13641,16 @@
         <v>13</v>
       </c>
       <c r="O73" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R73" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S73" t="n">
         <v>1.33</v>
@@ -13665,13 +13665,13 @@
         <v>2.2</v>
       </c>
       <c r="W73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z73" t="n">
         <v>41</v>
@@ -13701,13 +13701,13 @@
         <v>9</v>
       </c>
       <c r="AI73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL73" t="n">
         <v>15</v>
@@ -13728,7 +13728,7 @@
         <v>51</v>
       </c>
       <c r="AR73" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS73" t="n">
         <v>151</v>
@@ -13743,10 +13743,10 @@
         <v>51</v>
       </c>
       <c r="AW73" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY73" t="n">
         <v>19</v>
@@ -13799,22 +13799,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H74" t="n">
         <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J74" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K74" t="n">
         <v>2.2</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M74" t="n">
         <v>1.05</v>
@@ -13829,34 +13829,34 @@
         <v>3.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R74" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S74" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T74" t="n">
         <v>2.75</v>
       </c>
       <c r="U74" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V74" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W74" t="n">
         <v>8</v>
       </c>
       <c r="X74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y74" t="n">
         <v>9</v>
       </c>
       <c r="Z74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA74" t="n">
         <v>17</v>
@@ -13865,7 +13865,7 @@
         <v>26</v>
       </c>
       <c r="AC74" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD74" t="n">
         <v>6.5</v>
@@ -13889,7 +13889,7 @@
         <v>12</v>
       </c>
       <c r="AK74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL74" t="n">
         <v>26</v>
@@ -13898,10 +13898,10 @@
         <v>34</v>
       </c>
       <c r="AN74" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO74" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP74" t="n">
         <v>21</v>
@@ -13919,13 +13919,13 @@
         <v>2.75</v>
       </c>
       <c r="AU74" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV74" t="n">
         <v>51</v>
       </c>
       <c r="AW74" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX74" t="n">
         <v>19</v>
@@ -13940,7 +13940,7 @@
         <v>81</v>
       </c>
       <c r="BB74" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC74" t="n">
         <v>126</v>
@@ -13981,40 +13981,40 @@
         </is>
       </c>
       <c r="G75" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J75" t="n">
+        <v>5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N75" t="n">
+        <v>15</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P75" t="n">
         <v>4.33</v>
       </c>
-      <c r="H75" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J75" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N75" t="n">
-        <v>12</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P75" t="n">
-        <v>4</v>
-      </c>
       <c r="Q75" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R75" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S75" t="n">
         <v>1.3</v>
@@ -14029,16 +14029,16 @@
         <v>2.05</v>
       </c>
       <c r="W75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X75" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y75" t="n">
         <v>15</v>
       </c>
       <c r="Z75" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA75" t="n">
         <v>34</v>
@@ -14047,10 +14047,10 @@
         <v>34</v>
       </c>
       <c r="AC75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD75" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE75" t="n">
         <v>15</v>
@@ -14065,13 +14065,13 @@
         <v>8</v>
       </c>
       <c r="AI75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ75" t="n">
         <v>8.5</v>
       </c>
       <c r="AK75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL75" t="n">
         <v>13</v>
@@ -14080,7 +14080,7 @@
         <v>23</v>
       </c>
       <c r="AN75" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO75" t="n">
         <v>23</v>
@@ -14089,13 +14089,13 @@
         <v>29</v>
       </c>
       <c r="AQ75" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR75" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS75" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT75" t="n">
         <v>3.25</v>
@@ -14110,16 +14110,16 @@
         <v>3.75</v>
       </c>
       <c r="AX75" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY75" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ75" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB75" t="n">
         <v>126</v>
@@ -14128,7 +14128,7 @@
         <v>501</v>
       </c>
       <c r="BD75" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76">
@@ -14193,10 +14193,10 @@
         <v>3.5</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R76" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S76" t="n">
         <v>1.37</v>
@@ -14369,22 +14369,22 @@
         <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R77" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S77" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T77" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U77" t="n">
         <v>1.95</v>
@@ -14545,10 +14545,10 @@
         <v>3.2</v>
       </c>
       <c r="M78" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O78" t="n">
         <v>1.36</v>
@@ -14557,22 +14557,22 @@
         <v>3</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R78" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S78" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T78" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U78" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V78" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W78" t="n">
         <v>8</v>
@@ -14605,7 +14605,7 @@
         <v>51</v>
       </c>
       <c r="AG78" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH78" t="n">
         <v>7.5</v>
@@ -14614,7 +14614,7 @@
         <v>11</v>
       </c>
       <c r="AJ78" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK78" t="n">
         <v>23</v>
@@ -14632,7 +14632,7 @@
         <v>17</v>
       </c>
       <c r="AP78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ78" t="n">
         <v>51</v>
@@ -14727,25 +14727,25 @@
         <v>2.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N79" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O79" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P79" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R79" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S79" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T79" t="n">
         <v>2.75</v>
@@ -14927,7 +14927,7 @@
         <v>1.95</v>
       </c>
       <c r="S80" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T80" t="n">
         <v>2.75</v>
@@ -15655,7 +15655,7 @@
         <v>2.5</v>
       </c>
       <c r="S84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T84" t="n">
         <v>3.75</v>
@@ -15801,13 +15801,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H85" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I85" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J85" t="n">
         <v>2.1</v>
@@ -15837,7 +15837,7 @@
         <v>1.98</v>
       </c>
       <c r="S85" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T85" t="n">
         <v>3</v>
@@ -15983,16 +15983,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H86" t="n">
         <v>3.6</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J86" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K86" t="n">
         <v>2.38</v>
@@ -16019,7 +16019,7 @@
         <v>2.35</v>
       </c>
       <c r="S86" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T86" t="n">
         <v>3.4</v>
@@ -16037,13 +16037,13 @@
         <v>13</v>
       </c>
       <c r="Y86" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z86" t="n">
         <v>21</v>
       </c>
       <c r="AA86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB86" t="n">
         <v>21</v>
@@ -16067,31 +16067,31 @@
         <v>13</v>
       </c>
       <c r="AI86" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL86" t="n">
         <v>21</v>
       </c>
       <c r="AM86" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN86" t="n">
         <v>4.5</v>
       </c>
       <c r="AO86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP86" t="n">
         <v>19</v>
       </c>
       <c r="AQ86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR86" t="n">
         <v>51</v>
@@ -16109,7 +16109,7 @@
         <v>41</v>
       </c>
       <c r="AW86" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX86" t="n">
         <v>15</v>
@@ -16118,13 +16118,13 @@
         <v>21</v>
       </c>
       <c r="AZ86" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA86" t="n">
         <v>51</v>
       </c>
       <c r="BB86" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC86" t="n">
         <v>351</v>
@@ -16711,43 +16711,43 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>3.75</v>
       </c>
       <c r="I90" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J90" t="n">
         <v>2.5</v>
       </c>
       <c r="K90" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L90" t="n">
         <v>4</v>
       </c>
       <c r="M90" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O90" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P90" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R90" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S90" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T90" t="n">
         <v>3.5</v>
@@ -16765,7 +16765,7 @@
         <v>11</v>
       </c>
       <c r="Y90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z90" t="n">
         <v>17</v>
@@ -16783,7 +16783,7 @@
         <v>7.5</v>
       </c>
       <c r="AE90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF90" t="n">
         <v>41</v>
@@ -16813,7 +16813,7 @@
         <v>4.33</v>
       </c>
       <c r="AO90" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP90" t="n">
         <v>17</v>
@@ -16831,7 +16831,7 @@
         <v>3.5</v>
       </c>
       <c r="AU90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV90" t="n">
         <v>41</v>
@@ -16855,7 +16855,7 @@
         <v>126</v>
       </c>
       <c r="BC90" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD90" t="n">
         <v>81</v>
@@ -16893,31 +16893,31 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H91" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J91" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K91" t="n">
         <v>2.38</v>
       </c>
       <c r="L91" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M91" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N91" t="n">
         <v>15</v>
       </c>
       <c r="O91" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -16929,7 +16929,7 @@
         <v>2.35</v>
       </c>
       <c r="S91" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T91" t="n">
         <v>3.4</v>
@@ -16950,7 +16950,7 @@
         <v>11</v>
       </c>
       <c r="Z91" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA91" t="n">
         <v>21</v>
@@ -16959,13 +16959,13 @@
         <v>23</v>
       </c>
       <c r="AC91" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD91" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF91" t="n">
         <v>34</v>
@@ -16986,13 +16986,13 @@
         <v>21</v>
       </c>
       <c r="AL91" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM91" t="n">
         <v>21</v>
       </c>
       <c r="AN91" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO91" t="n">
         <v>15</v>
@@ -17001,7 +17001,7 @@
         <v>21</v>
       </c>
       <c r="AQ91" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR91" t="n">
         <v>51</v>
@@ -17019,7 +17019,7 @@
         <v>41</v>
       </c>
       <c r="AW91" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX91" t="n">
         <v>12</v>
@@ -17093,13 +17093,13 @@
         <v>3.4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N92" t="n">
         <v>15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P92" t="n">
         <v>4.33</v>
@@ -17111,7 +17111,7 @@
         <v>2.15</v>
       </c>
       <c r="S92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T92" t="n">
         <v>3.25</v>
@@ -17439,13 +17439,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="H94" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I94" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J94" t="n">
         <v>1.5</v>
@@ -17463,16 +17463,16 @@
         <v>19</v>
       </c>
       <c r="O94" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P94" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R94" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S94" t="n">
         <v>1.25</v>
@@ -17508,7 +17508,7 @@
         <v>15</v>
       </c>
       <c r="AD94" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE94" t="n">
         <v>41</v>
@@ -17520,22 +17520,22 @@
         <v>501</v>
       </c>
       <c r="AH94" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI94" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ94" t="n">
         <v>41</v>
       </c>
       <c r="AK94" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL94" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AM94" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN94" t="n">
         <v>3</v>
@@ -17994,7 +17994,7 @@
         <v>1.04</v>
       </c>
       <c r="N97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O97" t="n">
         <v>1.22</v>
@@ -18175,16 +18175,16 @@
         <v>15</v>
       </c>
       <c r="O98" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P98" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R98" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S98" t="n">
         <v>1.3</v>
@@ -18329,13 +18329,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H99" t="n">
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J99" t="n">
         <v>2.5</v>
@@ -18371,10 +18371,10 @@
         <v>3.25</v>
       </c>
       <c r="U99" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V99" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W99" t="n">
         <v>9</v>
@@ -18410,10 +18410,10 @@
         <v>151</v>
       </c>
       <c r="AH99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ99" t="n">
         <v>12</v>
@@ -18431,16 +18431,16 @@
         <v>4</v>
       </c>
       <c r="AO99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP99" t="n">
         <v>19</v>
       </c>
       <c r="AQ99" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR99" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS99" t="n">
         <v>101</v>
@@ -18455,19 +18455,19 @@
         <v>41</v>
       </c>
       <c r="AW99" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX99" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY99" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ99" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA99" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB99" t="n">
         <v>151</v>
@@ -18507,16 +18507,16 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>3.5</v>
       </c>
       <c r="I100" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J100" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K100" t="n">
         <v>2.2</v>
@@ -18537,10 +18537,10 @@
         <v>3.75</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R100" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S100" t="n">
         <v>1.4</v>
@@ -18558,16 +18558,16 @@
         <v>8</v>
       </c>
       <c r="X100" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y100" t="n">
         <v>9</v>
       </c>
       <c r="Z100" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA100" t="n">
         <v>17</v>
-      </c>
-      <c r="AA100" t="n">
-        <v>15</v>
       </c>
       <c r="AB100" t="n">
         <v>26</v>
@@ -18582,7 +18582,7 @@
         <v>15</v>
       </c>
       <c r="AF100" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG100" t="n">
         <v>201</v>
@@ -18591,16 +18591,16 @@
         <v>11</v>
       </c>
       <c r="AI100" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ100" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK100" t="n">
         <v>41</v>
       </c>
       <c r="AL100" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM100" t="n">
         <v>34</v>
@@ -18615,7 +18615,7 @@
         <v>21</v>
       </c>
       <c r="AQ100" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR100" t="n">
         <v>51</v>
@@ -18636,7 +18636,7 @@
         <v>5.5</v>
       </c>
       <c r="AX100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY100" t="n">
         <v>26</v>
@@ -18648,7 +18648,7 @@
         <v>81</v>
       </c>
       <c r="BB100" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC100" t="inlineStr"/>
       <c r="BD100" t="inlineStr"/>
@@ -19219,16 +19219,16 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I104" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J104" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K104" t="n">
         <v>2.1</v>
@@ -19240,7 +19240,7 @@
         <v>1.06</v>
       </c>
       <c r="N104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O104" t="n">
         <v>1.3</v>
@@ -19249,22 +19249,22 @@
         <v>3.4</v>
       </c>
       <c r="Q104" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R104" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S104" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T104" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U104" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V104" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W104" t="n">
         <v>8</v>
@@ -19276,7 +19276,7 @@
         <v>9.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA104" t="n">
         <v>19</v>
@@ -19285,7 +19285,7 @@
         <v>29</v>
       </c>
       <c r="AC104" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD104" t="n">
         <v>6.5</v>
@@ -19297,10 +19297,10 @@
         <v>51</v>
       </c>
       <c r="AG104" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH104" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI104" t="n">
         <v>15</v>
@@ -19336,7 +19336,7 @@
         <v>151</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU104" t="n">
         <v>8</v>
@@ -19360,7 +19360,7 @@
         <v>81</v>
       </c>
       <c r="BB104" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC104" t="inlineStr"/>
       <c r="BD104" t="inlineStr"/>
@@ -19418,7 +19418,7 @@
         <v>1.03</v>
       </c>
       <c r="N105" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O105" t="n">
         <v>1.18</v>
@@ -19584,7 +19584,7 @@
         <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K106" t="n">
         <v>2.05</v>
@@ -19593,22 +19593,22 @@
         <v>3.6</v>
       </c>
       <c r="M106" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N106" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O106" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P106" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R106" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S106" t="n">
         <v>1.44</v>
@@ -19617,10 +19617,10 @@
         <v>2.63</v>
       </c>
       <c r="U106" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V106" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W106" t="n">
         <v>7.5</v>
@@ -19629,7 +19629,7 @@
         <v>11</v>
       </c>
       <c r="Y106" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z106" t="n">
         <v>23</v>
@@ -19638,7 +19638,7 @@
         <v>21</v>
       </c>
       <c r="AB106" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC106" t="n">
         <v>8.5</v>
@@ -19665,7 +19665,7 @@
         <v>11</v>
       </c>
       <c r="AK106" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL106" t="n">
         <v>26</v>
@@ -19677,7 +19677,7 @@
         <v>4.33</v>
       </c>
       <c r="AO106" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP106" t="n">
         <v>26</v>
@@ -19707,7 +19707,7 @@
         <v>17</v>
       </c>
       <c r="AY106" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ106" t="n">
         <v>51</v>
@@ -19757,13 +19757,13 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H107" t="n">
         <v>3.2</v>
       </c>
       <c r="I107" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J107" t="n">
         <v>4</v>
@@ -19778,7 +19778,7 @@
         <v>1.07</v>
       </c>
       <c r="N107" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O107" t="n">
         <v>1.36</v>
@@ -19787,34 +19787,34 @@
         <v>3</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R107" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S107" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T107" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U107" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V107" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W107" t="n">
         <v>9</v>
       </c>
       <c r="X107" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y107" t="n">
         <v>12</v>
       </c>
       <c r="Z107" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA107" t="n">
         <v>29</v>
@@ -19823,7 +19823,7 @@
         <v>41</v>
       </c>
       <c r="AC107" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD107" t="n">
         <v>6</v>
@@ -19835,7 +19835,7 @@
         <v>51</v>
       </c>
       <c r="AG107" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH107" t="n">
         <v>7</v>
@@ -19853,7 +19853,7 @@
         <v>19</v>
       </c>
       <c r="AM107" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN107" t="n">
         <v>5</v>
@@ -19868,22 +19868,22 @@
         <v>67</v>
       </c>
       <c r="AR107" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS107" t="n">
         <v>251</v>
       </c>
       <c r="AT107" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU107" t="n">
         <v>8.5</v>
       </c>
       <c r="AV107" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW107" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX107" t="n">
         <v>13</v>
@@ -19939,13 +19939,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H108" t="n">
         <v>3.2</v>
       </c>
       <c r="I108" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J108" t="n">
         <v>4</v>
@@ -19987,7 +19987,7 @@
         <v>1.8</v>
       </c>
       <c r="W108" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X108" t="n">
         <v>15</v>
@@ -20011,7 +20011,7 @@
         <v>6</v>
       </c>
       <c r="AE108" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF108" t="n">
         <v>51</v>
@@ -20065,7 +20065,7 @@
         <v>67</v>
       </c>
       <c r="AW108" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX108" t="n">
         <v>13</v>
@@ -20121,16 +20121,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H109" t="n">
         <v>3.3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J109" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K109" t="n">
         <v>2.05</v>
@@ -20172,7 +20172,7 @@
         <v>6.5</v>
       </c>
       <c r="X109" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y109" t="n">
         <v>9</v>
@@ -20199,10 +20199,10 @@
         <v>51</v>
       </c>
       <c r="AG109" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI109" t="n">
         <v>19</v>
@@ -20220,7 +20220,7 @@
         <v>41</v>
       </c>
       <c r="AN109" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO109" t="n">
         <v>11</v>
@@ -20250,7 +20250,7 @@
         <v>5.5</v>
       </c>
       <c r="AX109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY109" t="n">
         <v>34</v>
@@ -20262,7 +20262,7 @@
         <v>101</v>
       </c>
       <c r="BB109" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC109" t="n">
         <v>81</v>
@@ -20324,7 +20324,7 @@
         <v>1.08</v>
       </c>
       <c r="N110" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O110" t="n">
         <v>1.4</v>
@@ -20485,19 +20485,19 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H111" t="n">
         <v>3.1</v>
       </c>
       <c r="I111" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J111" t="n">
         <v>2.88</v>
       </c>
       <c r="K111" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L111" t="n">
         <v>4</v>
@@ -20515,10 +20515,10 @@
         <v>3.25</v>
       </c>
       <c r="Q111" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R111" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S111" t="n">
         <v>1.44</v>
@@ -20527,10 +20527,10 @@
         <v>2.63</v>
       </c>
       <c r="U111" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V111" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W111" t="n">
         <v>7.5</v>
@@ -20539,10 +20539,10 @@
         <v>10</v>
       </c>
       <c r="Y111" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z111" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA111" t="n">
         <v>19</v>
@@ -20566,16 +20566,16 @@
         <v>251</v>
       </c>
       <c r="AH111" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI111" t="n">
         <v>17</v>
       </c>
       <c r="AJ111" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK111" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL111" t="n">
         <v>29</v>
@@ -20584,7 +20584,7 @@
         <v>41</v>
       </c>
       <c r="AN111" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO111" t="n">
         <v>12</v>
@@ -20599,7 +20599,7 @@
         <v>67</v>
       </c>
       <c r="AS111" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT111" t="n">
         <v>2.63</v>
@@ -20611,10 +20611,10 @@
         <v>51</v>
       </c>
       <c r="AW111" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY111" t="n">
         <v>29</v>
@@ -20663,13 +20663,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H112" t="n">
         <v>4.5</v>
       </c>
       <c r="I112" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
         <v>2.1</v>
@@ -20711,22 +20711,22 @@
         <v>2.1</v>
       </c>
       <c r="W112" t="n">
+        <v>8</v>
+      </c>
+      <c r="X112" t="n">
         <v>9</v>
       </c>
-      <c r="X112" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Y112" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA112" t="n">
         <v>12</v>
       </c>
       <c r="AB112" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC112" t="n">
         <v>17</v>
@@ -20756,7 +20756,7 @@
         <v>51</v>
       </c>
       <c r="AL112" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM112" t="n">
         <v>34</v>
@@ -20783,10 +20783,10 @@
         <v>3.4</v>
       </c>
       <c r="AU112" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV112" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW112" t="n">
         <v>7</v>
@@ -20801,7 +20801,7 @@
         <v>81</v>
       </c>
       <c r="BA112" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB112" t="n">
         <v>151</v>
@@ -20863,10 +20863,10 @@
         <v>5</v>
       </c>
       <c r="M113" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N113" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O113" t="n">
         <v>1.5</v>
@@ -20875,10 +20875,10 @@
         <v>2.5</v>
       </c>
       <c r="Q113" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R113" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S113" t="n">
         <v>1.57</v>
@@ -20896,7 +20896,7 @@
         <v>5.5</v>
       </c>
       <c r="X113" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y113" t="n">
         <v>9.5</v>
@@ -20905,13 +20905,13 @@
         <v>17</v>
       </c>
       <c r="AA113" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB113" t="n">
         <v>41</v>
       </c>
       <c r="AC113" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD113" t="n">
         <v>6.5</v>
@@ -20932,7 +20932,7 @@
         <v>21</v>
       </c>
       <c r="AJ113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK113" t="n">
         <v>51</v>
@@ -20959,7 +20959,7 @@
         <v>81</v>
       </c>
       <c r="AS113" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT113" t="n">
         <v>2.25</v>
@@ -21569,22 +21569,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H117" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I117" t="n">
         <v>6.5</v>
       </c>
       <c r="J117" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L117" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M117" t="n">
         <v>1.05</v>
@@ -21599,22 +21599,22 @@
         <v>3.75</v>
       </c>
       <c r="Q117" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R117" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S117" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T117" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U117" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V117" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W117" t="n">
         <v>6.5</v>
@@ -21629,16 +21629,16 @@
         <v>10</v>
       </c>
       <c r="AA117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB117" t="n">
         <v>29</v>
       </c>
       <c r="AC117" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD117" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE117" t="n">
         <v>21</v>
@@ -21647,7 +21647,7 @@
         <v>67</v>
       </c>
       <c r="AG117" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH117" t="n">
         <v>15</v>
@@ -21656,7 +21656,7 @@
         <v>34</v>
       </c>
       <c r="AJ117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK117" t="n">
         <v>81</v>
@@ -21668,28 +21668,28 @@
         <v>51</v>
       </c>
       <c r="AN117" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO117" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP117" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ117" t="n">
         <v>21</v>
       </c>
-      <c r="AQ117" t="n">
-        <v>23</v>
-      </c>
       <c r="AR117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS117" t="n">
         <v>151</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU117" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV117" t="n">
         <v>67</v>
@@ -21698,7 +21698,7 @@
         <v>8</v>
       </c>
       <c r="AX117" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY117" t="n">
         <v>41</v>
@@ -21710,7 +21710,7 @@
         <v>151</v>
       </c>
       <c r="BB117" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC117" t="n">
         <v>81</v>
@@ -21751,16 +21751,16 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H118" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I118" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J118" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K118" t="n">
         <v>2.25</v>
@@ -21769,10 +21769,10 @@
         <v>6</v>
       </c>
       <c r="M118" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N118" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O118" t="n">
         <v>1.29</v>
@@ -21826,7 +21826,7 @@
         <v>19</v>
       </c>
       <c r="AF118" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG118" t="n">
         <v>351</v>
@@ -21838,19 +21838,19 @@
         <v>29</v>
       </c>
       <c r="AJ118" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK118" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL118" t="n">
         <v>41</v>
       </c>
       <c r="AM118" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN118" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO118" t="n">
         <v>8</v>
@@ -21859,7 +21859,7 @@
         <v>21</v>
       </c>
       <c r="AQ118" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR118" t="n">
         <v>51</v>
@@ -21874,13 +21874,13 @@
         <v>9</v>
       </c>
       <c r="AV118" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX118" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY118" t="n">
         <v>41</v>
@@ -22136,7 +22136,7 @@
         <v>1.04</v>
       </c>
       <c r="N120" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O120" t="n">
         <v>1.25</v>
@@ -22318,7 +22318,7 @@
         <v>1.07</v>
       </c>
       <c r="N121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O121" t="n">
         <v>1.33</v>
@@ -22327,10 +22327,10 @@
         <v>3.25</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R121" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S121" t="n">
         <v>1.44</v>
@@ -22497,10 +22497,10 @@
         <v>8</v>
       </c>
       <c r="M122" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O122" t="n">
         <v>1.2</v>
@@ -22509,10 +22509,10 @@
         <v>4.33</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R122" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S122" t="n">
         <v>1.3</v>
@@ -22536,7 +22536,7 @@
         <v>9</v>
       </c>
       <c r="Z122" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA122" t="n">
         <v>11</v>
@@ -22557,7 +22557,7 @@
         <v>67</v>
       </c>
       <c r="AG122" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH122" t="n">
         <v>21</v>
@@ -22584,7 +22584,7 @@
         <v>6</v>
       </c>
       <c r="AP122" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ122" t="n">
         <v>17</v>
@@ -22602,7 +22602,7 @@
         <v>9.5</v>
       </c>
       <c r="AV122" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW122" t="n">
         <v>9.5</v>
@@ -22661,7 +22661,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H123" t="n">
         <v>3.3</v>
@@ -22685,16 +22685,16 @@
         <v>9</v>
       </c>
       <c r="O123" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P123" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R123" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S123" t="n">
         <v>1.5</v>
@@ -22712,7 +22712,7 @@
         <v>6</v>
       </c>
       <c r="X123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y123" t="n">
         <v>9</v>
@@ -22739,7 +22739,7 @@
         <v>67</v>
       </c>
       <c r="AG123" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH123" t="n">
         <v>11</v>
@@ -22748,7 +22748,7 @@
         <v>23</v>
       </c>
       <c r="AJ123" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK123" t="n">
         <v>51</v>
@@ -22757,10 +22757,10 @@
         <v>41</v>
       </c>
       <c r="AM123" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN123" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO123" t="n">
         <v>10</v>
@@ -23389,16 +23389,16 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H127" t="n">
         <v>3.2</v>
       </c>
       <c r="I127" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J127" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K127" t="n">
         <v>2</v>
@@ -23437,13 +23437,13 @@
         <v>1.73</v>
       </c>
       <c r="W127" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X127" t="n">
         <v>12</v>
       </c>
       <c r="Y127" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z127" t="n">
         <v>26</v>
@@ -23452,13 +23452,13 @@
         <v>23</v>
       </c>
       <c r="AB127" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC127" t="n">
         <v>8</v>
       </c>
       <c r="AD127" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE127" t="n">
         <v>17</v>
@@ -23479,7 +23479,7 @@
         <v>11</v>
       </c>
       <c r="AK127" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL127" t="n">
         <v>23</v>
@@ -23491,7 +23491,7 @@
         <v>4.5</v>
       </c>
       <c r="AO127" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP127" t="n">
         <v>29</v>
@@ -23515,7 +23515,7 @@
         <v>67</v>
       </c>
       <c r="AW127" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX127" t="n">
         <v>17</v>
@@ -23592,13 +23592,13 @@
         <v>1.07</v>
       </c>
       <c r="N128" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O128" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P128" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q128" t="n">
         <v>2.2</v>
@@ -23753,22 +23753,22 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H129" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="I129" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J129" t="n">
         <v>4.7</v>
       </c>
       <c r="K129" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="L129" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M129" t="n">
         <v>1.02</v>
@@ -23777,40 +23777,40 @@
         <v>10</v>
       </c>
       <c r="O129" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P129" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R129" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="S129" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="T129" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="U129" t="n">
         <v>1.39</v>
       </c>
       <c r="V129" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="W129" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="X129" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y129" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z129" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA129" t="n">
         <v>40</v>
@@ -23822,28 +23822,28 @@
         <v>10.75</v>
       </c>
       <c r="AD129" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE129" t="n">
         <v>13</v>
       </c>
       <c r="AF129" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG129" t="n">
         <v>120</v>
       </c>
       <c r="AH129" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI129" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AJ129" t="n">
         <v>9</v>
       </c>
       <c r="AK129" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL129" t="n">
         <v>10.5</v>
@@ -23852,25 +23852,25 @@
         <v>15</v>
       </c>
       <c r="AN129" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AO129" t="n">
         <v>25</v>
       </c>
       <c r="AP129" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ129" t="n">
         <v>110</v>
       </c>
       <c r="AR129" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS129" t="n">
         <v>150</v>
       </c>
       <c r="AT129" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AU129" t="n">
         <v>6.5</v>
@@ -23879,22 +23879,22 @@
         <v>32</v>
       </c>
       <c r="AW129" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="AX129" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AY129" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AZ129" t="n">
         <v>16.5</v>
       </c>
       <c r="BA129" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB129" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC129" t="n">
         <v>350</v>
@@ -23950,12 +23950,8 @@
       <c r="L130" t="n">
         <v>9.25</v>
       </c>
-      <c r="M130" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N130" t="n">
-        <v>17.5</v>
-      </c>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
       <c r="O130" t="n">
         <v>1.12</v>
       </c>
@@ -24309,10 +24305,10 @@
         <v>3.4</v>
       </c>
       <c r="M132" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N132" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O132" t="n">
         <v>1.36</v>
@@ -24679,22 +24675,22 @@
         <v>8</v>
       </c>
       <c r="O134" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P134" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R134" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S134" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T134" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U134" t="n">
         <v>1.83</v>
@@ -24721,7 +24717,7 @@
         <v>41</v>
       </c>
       <c r="AC134" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD134" t="n">
         <v>6.5</v>
@@ -24837,13 +24833,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H135" t="n">
         <v>4.2</v>
       </c>
       <c r="I135" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J135" t="n">
         <v>2.1</v>
@@ -24873,7 +24869,7 @@
         <v>2.03</v>
       </c>
       <c r="S135" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T135" t="n">
         <v>3</v>
@@ -24888,7 +24884,7 @@
         <v>7</v>
       </c>
       <c r="X135" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y135" t="n">
         <v>8.5</v>
@@ -24897,7 +24893,7 @@
         <v>11</v>
       </c>
       <c r="AA135" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB135" t="n">
         <v>26</v>
@@ -24918,10 +24914,10 @@
         <v>301</v>
       </c>
       <c r="AH135" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI135" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ135" t="n">
         <v>19</v>
@@ -24939,7 +24935,7 @@
         <v>3.5</v>
       </c>
       <c r="AO135" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP135" t="n">
         <v>19</v>
@@ -24966,13 +24962,13 @@
         <v>7.5</v>
       </c>
       <c r="AX135" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY135" t="n">
         <v>34</v>
       </c>
       <c r="AZ135" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA135" t="n">
         <v>126</v>
@@ -25043,19 +25039,19 @@
         <v>23</v>
       </c>
       <c r="O136" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P136" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q136" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R136" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S136" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="T136" t="n">
         <v>4.33</v>
@@ -25231,10 +25227,10 @@
         <v>3.4</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R137" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S137" t="n">
         <v>1.4</v>
@@ -25383,22 +25379,22 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I138" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J138" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K138" t="n">
         <v>2.3</v>
       </c>
       <c r="L138" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M138" t="n">
         <v>1.04</v>
@@ -25425,43 +25421,43 @@
         <v>3.25</v>
       </c>
       <c r="U138" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V138" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W138" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X138" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y138" t="n">
         <v>8.5</v>
       </c>
       <c r="Z138" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA138" t="n">
         <v>13</v>
       </c>
       <c r="AB138" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC138" t="n">
         <v>13</v>
       </c>
       <c r="AD138" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE138" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF138" t="n">
         <v>41</v>
       </c>
       <c r="AG138" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH138" t="n">
         <v>15</v>
@@ -25473,7 +25469,7 @@
         <v>15</v>
       </c>
       <c r="AK138" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL138" t="n">
         <v>34</v>
@@ -25482,13 +25478,13 @@
         <v>34</v>
       </c>
       <c r="AN138" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO138" t="n">
         <v>9</v>
       </c>
       <c r="AP138" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ138" t="n">
         <v>29</v>
@@ -25503,22 +25499,22 @@
         <v>3.25</v>
       </c>
       <c r="AU138" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV138" t="n">
         <v>51</v>
       </c>
       <c r="AW138" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX138" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY138" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ138" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA138" t="n">
         <v>81</v>
@@ -25565,13 +25561,13 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>3.4</v>
       </c>
       <c r="I139" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J139" t="n">
         <v>2.75</v>
@@ -25595,10 +25591,10 @@
         <v>3.5</v>
       </c>
       <c r="Q139" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R139" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S139" t="n">
         <v>1.4</v>
@@ -25607,10 +25603,10 @@
         <v>2.75</v>
       </c>
       <c r="U139" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V139" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W139" t="n">
         <v>7.5</v>
@@ -25643,10 +25639,10 @@
         <v>51</v>
       </c>
       <c r="AG139" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH139" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI139" t="n">
         <v>17</v>
@@ -25777,10 +25773,10 @@
         <v>3.4</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R140" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S140" t="n">
         <v>1.44</v>
@@ -25888,7 +25884,7 @@
         <v>101</v>
       </c>
       <c r="BB140" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC140" t="n">
         <v>81</v>
@@ -25953,16 +25949,16 @@
         <v>9</v>
       </c>
       <c r="O141" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P141" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R141" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S141" t="n">
         <v>1.36</v>
@@ -26144,7 +26140,7 @@
         <v>2.15</v>
       </c>
       <c r="R142" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S142" t="n">
         <v>1.44</v>
@@ -26311,10 +26307,10 @@
         <v>3.75</v>
       </c>
       <c r="M143" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N143" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O143" t="n">
         <v>1.33</v>
@@ -26493,10 +26489,10 @@
         <v>4.75</v>
       </c>
       <c r="M144" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N144" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O144" t="n">
         <v>1.25</v>
@@ -26505,10 +26501,10 @@
         <v>3.75</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R144" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S144" t="n">
         <v>1.36</v>
@@ -26553,7 +26549,7 @@
         <v>51</v>
       </c>
       <c r="AG144" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH144" t="n">
         <v>13</v>
@@ -26675,10 +26671,10 @@
         <v>23</v>
       </c>
       <c r="M145" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N145" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="O145" t="n">
         <v>1.08</v>
@@ -27011,46 +27007,46 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I147" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="J147" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K147" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L147" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="M147" t="n">
         <v>1.06</v>
       </c>
       <c r="N147" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O147" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P147" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R147" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S147" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T147" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="U147" t="n">
         <v>1.72</v>
@@ -27059,16 +27055,16 @@
         <v>2.02</v>
       </c>
       <c r="W147" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X147" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y147" t="n">
         <v>8.5</v>
       </c>
       <c r="Z147" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA147" t="n">
         <v>15</v>
@@ -27077,10 +27073,10 @@
         <v>26</v>
       </c>
       <c r="AC147" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD147" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AE147" t="n">
         <v>15</v>
@@ -27092,13 +27088,13 @@
         <v>500</v>
       </c>
       <c r="AH147" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI147" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ147" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK147" t="n">
         <v>80</v>
@@ -27113,7 +27109,7 @@
         <v>3.7</v>
       </c>
       <c r="AO147" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP147" t="n">
         <v>17.5</v>
@@ -27122,13 +27118,13 @@
         <v>32</v>
       </c>
       <c r="AR147" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS147" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU147" t="n">
         <v>7.1</v>
@@ -27140,16 +27136,16 @@
         <v>6.1</v>
       </c>
       <c r="AX147" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY147" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ147" t="n">
         <v>150</v>
       </c>
       <c r="BA147" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB147" t="n">
         <v>350</v>
@@ -27375,58 +27371,58 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="H149" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I149" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="J149" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="K149" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L149" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M149" t="n">
         <v>1.04</v>
       </c>
       <c r="N149" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O149" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P149" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R149" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="S149" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T149" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="U149" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V149" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W149" t="n">
         <v>11</v>
       </c>
       <c r="X149" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y149" t="n">
         <v>10</v>
@@ -27435,19 +27431,19 @@
         <v>32</v>
       </c>
       <c r="AA149" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB149" t="n">
         <v>23</v>
       </c>
       <c r="AC149" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD149" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AE149" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF149" t="n">
         <v>40</v>
@@ -27456,10 +27452,10 @@
         <v>250</v>
       </c>
       <c r="AH149" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI149" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ149" t="n">
         <v>10.25</v>
@@ -27468,13 +27464,13 @@
         <v>32</v>
       </c>
       <c r="AL149" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM149" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN149" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO149" t="n">
         <v>12.5</v>
@@ -27489,34 +27485,34 @@
         <v>65</v>
       </c>
       <c r="AS149" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT149" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AU149" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AV149" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW149" t="n">
         <v>4.85</v>
       </c>
       <c r="AX149" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY149" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AZ149" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA149" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BB149" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC149" t="n">
         <v>500</v>
@@ -27738,52 +27734,52 @@
         <v>3.9</v>
       </c>
       <c r="H151" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I151" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="J151" t="n">
         <v>4.4</v>
       </c>
       <c r="K151" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L151" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="M151" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N151" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O151" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P151" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R151" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="S151" t="n">
         <v>1.47</v>
       </c>
       <c r="T151" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="U151" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V151" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W151" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X151" t="n">
         <v>19.5</v>
@@ -27795,28 +27791,28 @@
         <v>60</v>
       </c>
       <c r="AA151" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB151" t="n">
         <v>55</v>
       </c>
       <c r="AC151" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD151" t="n">
         <v>6.2</v>
       </c>
-      <c r="AD151" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AE151" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF151" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG151" t="n">
         <v>900</v>
       </c>
       <c r="AH151" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AI151" t="n">
         <v>8.25</v>
@@ -27825,13 +27821,13 @@
         <v>8.75</v>
       </c>
       <c r="AK151" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL151" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM151" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN151" t="n">
         <v>5.6</v>
@@ -27843,19 +27839,19 @@
         <v>32</v>
       </c>
       <c r="AQ151" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR151" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS151" t="n">
         <v>500</v>
       </c>
       <c r="AT151" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="AU151" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV151" t="n">
         <v>80</v>
@@ -27864,19 +27860,19 @@
         <v>3.7</v>
       </c>
       <c r="AX151" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AY151" t="n">
         <v>21</v>
       </c>
       <c r="AZ151" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA151" t="n">
         <v>80</v>
       </c>
       <c r="BB151" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC151" t="inlineStr"/>
       <c r="BD151" t="inlineStr"/>
@@ -27949,7 +27945,7 @@
         <v>1.62</v>
       </c>
       <c r="S152" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T152" t="n">
         <v>2.5</v>
@@ -27990,7 +27986,9 @@
       <c r="AF152" t="n">
         <v>67</v>
       </c>
-      <c r="AG152" t="inlineStr"/>
+      <c r="AG152" t="n">
+        <v>1250</v>
+      </c>
       <c r="AH152" t="n">
         <v>10</v>
       </c>
@@ -28093,16 +28091,16 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H153" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I153" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J153" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K153" t="n">
         <v>2.2</v>
@@ -28156,7 +28154,7 @@
         <v>17</v>
       </c>
       <c r="AB153" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC153" t="n">
         <v>11</v>
@@ -28186,10 +28184,10 @@
         <v>34</v>
       </c>
       <c r="AL153" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN153" t="n">
         <v>4.33</v>
@@ -28207,7 +28205,7 @@
         <v>51</v>
       </c>
       <c r="AS153" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT153" t="n">
         <v>3</v>
@@ -28219,7 +28217,7 @@
         <v>51</v>
       </c>
       <c r="AW153" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX153" t="n">
         <v>17</v>
@@ -28275,13 +28273,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H154" t="n">
         <v>3.25</v>
       </c>
       <c r="I154" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J154" t="n">
         <v>2.75</v>
@@ -28290,7 +28288,7 @@
         <v>2.1</v>
       </c>
       <c r="L154" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M154" t="n">
         <v>1.07</v>
@@ -28332,7 +28330,7 @@
         <v>9</v>
       </c>
       <c r="Z154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA154" t="n">
         <v>17</v>
@@ -28359,7 +28357,7 @@
         <v>10</v>
       </c>
       <c r="AI154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ154" t="n">
         <v>13</v>
@@ -28368,7 +28366,7 @@
         <v>41</v>
       </c>
       <c r="AL154" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM154" t="n">
         <v>41</v>
@@ -28377,7 +28375,7 @@
         <v>4</v>
       </c>
       <c r="AO154" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP154" t="n">
         <v>23</v>
@@ -28386,7 +28384,7 @@
         <v>41</v>
       </c>
       <c r="AR154" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS154" t="n">
         <v>151</v>
@@ -28457,13 +28455,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H155" t="n">
         <v>2.7</v>
       </c>
       <c r="I155" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J155" t="n">
         <v>3.4</v>
@@ -28505,16 +28503,16 @@
         <v>1.62</v>
       </c>
       <c r="W155" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y155" t="n">
         <v>11</v>
       </c>
       <c r="Z155" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA155" t="n">
         <v>26</v>
@@ -28532,14 +28530,14 @@
         <v>19</v>
       </c>
       <c r="AF155" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG155" t="inlineStr"/>
       <c r="AH155" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI155" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ155" t="n">
         <v>13</v>
@@ -28557,7 +28555,7 @@
         <v>4.33</v>
       </c>
       <c r="AO155" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP155" t="n">
         <v>34</v>
@@ -28581,10 +28579,10 @@
         <v>81</v>
       </c>
       <c r="AW155" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX155" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY155" t="n">
         <v>34</v>
@@ -28640,10 +28638,10 @@
         <v>1.62</v>
       </c>
       <c r="H156" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I156" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J156" t="n">
         <v>2.2</v>
@@ -28652,43 +28650,43 @@
         <v>2.3</v>
       </c>
       <c r="L156" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M156" t="n">
         <v>1.04</v>
       </c>
       <c r="N156" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O156" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P156" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R156" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S156" t="n">
         <v>1.33</v>
       </c>
       <c r="T156" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U156" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V156" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W156" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X156" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y156" t="n">
         <v>8.5</v>
@@ -28700,28 +28698,28 @@
         <v>13</v>
       </c>
       <c r="AB156" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC156" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD156" t="n">
         <v>7.5</v>
       </c>
       <c r="AE156" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF156" t="n">
         <v>51</v>
       </c>
       <c r="AG156" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH156" t="n">
         <v>15</v>
       </c>
       <c r="AI156" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ156" t="n">
         <v>17</v>
@@ -28736,7 +28734,7 @@
         <v>41</v>
       </c>
       <c r="AN156" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO156" t="n">
         <v>8</v>
@@ -28754,10 +28752,10 @@
         <v>126</v>
       </c>
       <c r="AT156" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU156" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV156" t="n">
         <v>51</v>
@@ -28766,19 +28764,19 @@
         <v>7</v>
       </c>
       <c r="AX156" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY156" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ156" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA156" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB156" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC156" t="n">
         <v>81</v>
@@ -28819,16 +28817,16 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H157" t="n">
         <v>3.5</v>
       </c>
       <c r="I157" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J157" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K157" t="n">
         <v>2.2</v>
@@ -28855,16 +28853,16 @@
         <v>2</v>
       </c>
       <c r="S157" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T157" t="n">
         <v>3</v>
       </c>
       <c r="U157" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V157" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W157" t="n">
         <v>11</v>
@@ -28876,7 +28874,7 @@
         <v>11</v>
       </c>
       <c r="Z157" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA157" t="n">
         <v>23</v>
@@ -28888,7 +28886,7 @@
         <v>12</v>
       </c>
       <c r="AD157" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE157" t="n">
         <v>13</v>
@@ -28906,7 +28904,7 @@
         <v>12</v>
       </c>
       <c r="AJ157" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK157" t="n">
         <v>21</v>
@@ -28945,7 +28943,7 @@
         <v>51</v>
       </c>
       <c r="AW157" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX157" t="n">
         <v>12</v>
@@ -29037,7 +29035,7 @@
         <v>2.1</v>
       </c>
       <c r="S158" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T158" t="n">
         <v>3.25</v>
@@ -29183,139 +29181,139 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I159" t="n">
         <v>3.4</v>
       </c>
       <c r="J159" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="K159" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L159" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="M159" t="n">
         <v>1.07</v>
       </c>
       <c r="N159" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="O159" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="P159" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R159" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S159" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T159" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="U159" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V159" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="W159" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="X159" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y159" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z159" t="n">
         <v>19.5</v>
       </c>
       <c r="AA159" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AB159" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC159" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AD159" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AE159" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF159" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG159" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH159" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI159" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ159" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK159" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AL159" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM159" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ159" t="n">
         <v>37</v>
       </c>
-      <c r="AN159" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO159" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP159" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AQ159" t="n">
-        <v>45</v>
-      </c>
       <c r="AR159" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AS159" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AU159" t="n">
         <v>6.9</v>
       </c>
       <c r="AV159" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW159" t="n">
         <v>5.3</v>
       </c>
       <c r="AX159" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AY159" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ159" t="n">
         <v>90</v>
@@ -29361,16 +29359,16 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H160" t="n">
         <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J160" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K160" t="n">
         <v>2.1</v>
@@ -29412,7 +29410,7 @@
         <v>7</v>
       </c>
       <c r="X160" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y160" t="n">
         <v>9</v>
@@ -29442,7 +29440,7 @@
         <v>301</v>
       </c>
       <c r="AH160" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI160" t="n">
         <v>19</v>
@@ -29454,7 +29452,7 @@
         <v>41</v>
       </c>
       <c r="AL160" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM160" t="n">
         <v>41</v>
@@ -29481,7 +29479,7 @@
         <v>2.63</v>
       </c>
       <c r="AU160" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV160" t="n">
         <v>51</v>
@@ -29502,7 +29500,7 @@
         <v>101</v>
       </c>
       <c r="BB160" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC160" t="n">
         <v>276</v>
@@ -29558,7 +29556,7 @@
         <v>2.6</v>
       </c>
       <c r="L161" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M161" t="n">
         <v>1.03</v>
@@ -29573,10 +29571,10 @@
         <v>4.5</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R161" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S161" t="n">
         <v>1.3</v>
@@ -29597,7 +29595,7 @@
         <v>6.5</v>
       </c>
       <c r="Y161" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z161" t="n">
         <v>8</v>
@@ -29609,13 +29607,13 @@
         <v>29</v>
       </c>
       <c r="AC161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD161" t="n">
         <v>10</v>
       </c>
       <c r="AE161" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF161" t="n">
         <v>67</v>
@@ -29630,7 +29628,7 @@
         <v>41</v>
       </c>
       <c r="AJ161" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK161" t="n">
         <v>101</v>
@@ -29666,10 +29664,10 @@
         <v>9.5</v>
       </c>
       <c r="AV161" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW161" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX161" t="n">
         <v>41</v>
@@ -29925,10 +29923,10 @@
         <v>8</v>
       </c>
       <c r="M163" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N163" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O163" t="n">
         <v>1.33</v>
@@ -29958,19 +29956,19 @@
         <v>5.5</v>
       </c>
       <c r="X163" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y163" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z163" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA163" t="n">
         <v>15</v>
       </c>
       <c r="AB163" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC163" t="n">
         <v>8</v>
@@ -29988,7 +29986,7 @@
         <v>900</v>
       </c>
       <c r="AH163" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI163" t="n">
         <v>41</v>
@@ -30006,7 +30004,7 @@
         <v>67</v>
       </c>
       <c r="AN163" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO163" t="n">
         <v>7</v>
@@ -30033,7 +30031,7 @@
         <v>81</v>
       </c>
       <c r="AW163" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX163" t="n">
         <v>41</v>
@@ -30089,59 +30087,139 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H164" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I164" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="inlineStr"/>
-      <c r="N164" t="inlineStr"/>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="inlineStr"/>
-      <c r="T164" t="inlineStr"/>
-      <c r="U164" t="inlineStr"/>
-      <c r="V164" t="inlineStr"/>
-      <c r="W164" t="inlineStr"/>
-      <c r="X164" t="inlineStr"/>
-      <c r="Y164" t="inlineStr"/>
+        <v>1.06</v>
+      </c>
+      <c r="J164" t="n">
+        <v>23</v>
+      </c>
+      <c r="K164" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N164" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O164" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P164" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R164" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T164" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U164" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V164" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="W164" t="n">
+        <v>51</v>
+      </c>
+      <c r="X164" t="n">
+        <v>151</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>81</v>
+      </c>
       <c r="Z164" t="inlineStr"/>
-      <c r="AA164" t="inlineStr"/>
-      <c r="AB164" t="inlineStr"/>
-      <c r="AC164" t="inlineStr"/>
-      <c r="AD164" t="inlineStr"/>
-      <c r="AE164" t="inlineStr"/>
-      <c r="AF164" t="inlineStr"/>
+      <c r="AA164" t="n">
+        <v>251</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>301</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>51</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>251</v>
+      </c>
       <c r="AG164" t="inlineStr"/>
-      <c r="AH164" t="inlineStr"/>
-      <c r="AI164" t="inlineStr"/>
-      <c r="AJ164" t="inlineStr"/>
-      <c r="AK164" t="inlineStr"/>
-      <c r="AL164" t="inlineStr"/>
-      <c r="AM164" t="inlineStr"/>
-      <c r="AN164" t="inlineStr"/>
-      <c r="AO164" t="inlineStr"/>
-      <c r="AP164" t="inlineStr"/>
+      <c r="AH164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>151</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>101</v>
+      </c>
       <c r="AQ164" t="inlineStr"/>
       <c r="AR164" t="inlineStr"/>
       <c r="AS164" t="inlineStr"/>
-      <c r="AT164" t="inlineStr"/>
-      <c r="AU164" t="inlineStr"/>
-      <c r="AV164" t="inlineStr"/>
-      <c r="AW164" t="inlineStr"/>
-      <c r="AX164" t="inlineStr"/>
-      <c r="AY164" t="inlineStr"/>
-      <c r="AZ164" t="inlineStr"/>
-      <c r="BA164" t="inlineStr"/>
-      <c r="BB164" t="inlineStr"/>
+      <c r="AT164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>151</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>251</v>
+      </c>
       <c r="BC164" t="inlineStr"/>
       <c r="BD164" t="inlineStr"/>
     </row>
@@ -30186,19 +30264,19 @@
         <v>2.75</v>
       </c>
       <c r="J165" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K165" t="n">
         <v>2.05</v>
       </c>
       <c r="L165" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M165" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N165" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O165" t="n">
         <v>1.36</v>
@@ -30231,7 +30309,7 @@
         <v>11</v>
       </c>
       <c r="Y165" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z165" t="n">
         <v>23</v>
@@ -30261,7 +30339,7 @@
         <v>8.5</v>
       </c>
       <c r="AI165" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ165" t="n">
         <v>11</v>
@@ -30285,7 +30363,7 @@
         <v>26</v>
       </c>
       <c r="AQ165" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR165" t="n">
         <v>67</v>
@@ -30303,7 +30381,7 @@
         <v>51</v>
       </c>
       <c r="AW165" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX165" t="n">
         <v>17</v>
@@ -30368,19 +30446,19 @@
         <v>2.88</v>
       </c>
       <c r="J166" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K166" t="n">
         <v>2.1</v>
       </c>
       <c r="L166" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M166" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N166" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O166" t="n">
         <v>1.33</v>
@@ -30541,19 +30619,19 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H167" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="I167" t="n">
         <v>2.12</v>
       </c>
       <c r="J167" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K167" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L167" t="n">
         <v>2.82</v>
@@ -30562,7 +30640,7 @@
         <v>1.1</v>
       </c>
       <c r="N167" t="n">
-        <v>6.85</v>
+        <v>6.8</v>
       </c>
       <c r="O167" t="n">
         <v>1.47</v>
@@ -30571,7 +30649,7 @@
         <v>2.32</v>
       </c>
       <c r="Q167" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="R167" t="n">
         <v>1.45</v>
@@ -30583,71 +30661,71 @@
         <v>2.2</v>
       </c>
       <c r="U167" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V167" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W167" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="X167" t="n">
         <v>17.5</v>
       </c>
       <c r="Y167" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z167" t="n">
         <v>55</v>
       </c>
       <c r="AA167" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB167" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC167" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AD167" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE167" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF167" t="n">
         <v>120</v>
       </c>
       <c r="AG167" t="inlineStr"/>
       <c r="AH167" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AI167" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ167" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK167" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL167" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO167" t="n">
         <v>22</v>
       </c>
-      <c r="AM167" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN167" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO167" t="n">
-        <v>21</v>
-      </c>
       <c r="AP167" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ167" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR167" t="n">
         <v>200</v>
@@ -30659,28 +30737,28 @@
         <v>2.18</v>
       </c>
       <c r="AU167" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV167" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW167" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX167" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY167" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ167" t="n">
         <v>50</v>
       </c>
       <c r="BA167" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB167" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC167" t="n">
         <v>81</v>
@@ -30721,34 +30799,34 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="H168" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I168" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J168" t="n">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="K168" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L168" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M168" t="n">
         <v>1.04</v>
       </c>
       <c r="N168" t="n">
-        <v>8.949999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="O168" t="n">
         <v>1.35</v>
       </c>
       <c r="P168" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q168" t="n">
         <v>2.02</v>
@@ -30760,7 +30838,7 @@
         <v>1.42</v>
       </c>
       <c r="T168" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U168" t="n">
         <v>2.1</v>
@@ -30769,68 +30847,68 @@
         <v>1.57</v>
       </c>
       <c r="W168" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X168" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y168" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z168" t="n">
         <v>150</v>
       </c>
       <c r="AA168" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB168" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC168" t="n">
         <v>8.25</v>
       </c>
       <c r="AD168" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE168" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF168" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG168" t="inlineStr"/>
       <c r="AH168" t="n">
         <v>5.4</v>
       </c>
       <c r="AI168" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AJ168" t="n">
         <v>8.5</v>
       </c>
       <c r="AK168" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AL168" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AM168" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN168" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AO168" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP168" t="n">
         <v>45</v>
       </c>
       <c r="AQ168" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AR168" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AS168" t="n">
         <v>81</v>
@@ -30845,22 +30923,22 @@
         <v>100</v>
       </c>
       <c r="AW168" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AX168" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AY168" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AZ168" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA168" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB168" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC168" t="n">
         <v>81</v>
@@ -30901,46 +30979,46 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H169" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I169" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="J169" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K169" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="L169" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M169" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N169" t="n">
-        <v>7.95</v>
+        <v>7.5</v>
       </c>
       <c r="O169" t="n">
         <v>1.44</v>
       </c>
       <c r="P169" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Q169" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R169" t="n">
         <v>1.5</v>
       </c>
       <c r="S169" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T169" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="U169" t="n">
         <v>1.91</v>
@@ -30949,76 +31027,76 @@
         <v>1.7</v>
       </c>
       <c r="W169" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="X169" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="Y169" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z169" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AA169" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB169" t="n">
         <v>37</v>
       </c>
       <c r="AC169" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AD169" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE169" t="n">
         <v>16</v>
       </c>
       <c r="AF169" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR169" t="n">
         <v>100</v>
       </c>
-      <c r="AG169" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH169" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI169" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ169" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK169" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL169" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM169" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN169" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO169" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AP169" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ169" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR169" t="n">
-        <v>90</v>
-      </c>
       <c r="AS169" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AU169" t="n">
         <v>7.2</v>
@@ -31027,16 +31105,16 @@
         <v>75</v>
       </c>
       <c r="AW169" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="AX169" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AY169" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ169" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BA169" t="n">
         <v>150</v>
@@ -31083,7 +31161,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H170" t="n">
         <v>5.6</v>
@@ -31092,10 +31170,10 @@
         <v>10.75</v>
       </c>
       <c r="J170" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K170" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L170" t="n">
         <v>8.25</v>
@@ -31119,10 +31197,10 @@
         <v>2.62</v>
       </c>
       <c r="S170" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="T170" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="U170" t="n">
         <v>1.87</v>
@@ -31131,16 +31209,16 @@
         <v>1.83</v>
       </c>
       <c r="W170" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X170" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y170" t="n">
         <v>9</v>
       </c>
       <c r="Z170" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA170" t="n">
         <v>10</v>
@@ -31155,7 +31233,7 @@
         <v>11.75</v>
       </c>
       <c r="AE170" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF170" t="n">
         <v>90</v>
@@ -31182,28 +31260,28 @@
         <v>90</v>
       </c>
       <c r="AN170" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO170" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AP170" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ170" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AR170" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS170" t="n">
         <v>150</v>
       </c>
       <c r="AT170" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AU170" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV170" t="n">
         <v>70</v>
@@ -31215,13 +31293,13 @@
         <v>60</v>
       </c>
       <c r="AY170" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AZ170" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BA170" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BB170" t="n">
         <v>500</v>
@@ -31261,13 +31339,13 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H171" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="I171" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="J171" t="n">
         <v>1.78</v>
@@ -31276,70 +31354,70 @@
         <v>2.72</v>
       </c>
       <c r="L171" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M171" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N171" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="O171" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P171" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="R171" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="S171" t="n">
         <v>1.2</v>
       </c>
       <c r="T171" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="U171" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V171" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="W171" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="X171" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y171" t="n">
         <v>8.75</v>
       </c>
       <c r="Z171" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA171" t="n">
         <v>10</v>
       </c>
       <c r="AB171" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC171" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD171" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AE171" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF171" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG171" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH171" t="n">
         <v>30</v>
@@ -31348,7 +31426,7 @@
         <v>55</v>
       </c>
       <c r="AJ171" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK171" t="n">
         <v>150</v>
@@ -31357,55 +31435,55 @@
         <v>55</v>
       </c>
       <c r="AM171" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN171" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AO171" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AP171" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AQ171" t="n">
         <v>15</v>
       </c>
       <c r="AR171" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS171" t="n">
         <v>90</v>
       </c>
       <c r="AT171" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AU171" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV171" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW171" t="n">
         <v>8.75</v>
       </c>
       <c r="AX171" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY171" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ171" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA171" t="n">
         <v>150</v>
-      </c>
-      <c r="BA171" t="n">
-        <v>120</v>
       </c>
       <c r="BB171" t="n">
         <v>200</v>
       </c>
       <c r="BC171" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD171" t="inlineStr"/>
     </row>
@@ -31979,22 +32057,22 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H175" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I175" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="J175" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="K175" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="L175" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="M175" t="n">
         <v>1.04</v>
@@ -32009,16 +32087,16 @@
         <v>4.05</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R175" t="n">
         <v>2.18</v>
       </c>
       <c r="S175" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T175" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U175" t="n">
         <v>1.62</v>
@@ -32030,16 +32108,16 @@
         <v>9</v>
       </c>
       <c r="X175" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y175" t="n">
         <v>8.25</v>
       </c>
       <c r="Z175" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA175" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB175" t="n">
         <v>21</v>
@@ -32048,10 +32126,10 @@
         <v>8.75</v>
       </c>
       <c r="AD175" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AE175" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF175" t="n">
         <v>50</v>
@@ -32060,34 +32138,34 @@
         <v>350</v>
       </c>
       <c r="AH175" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI175" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ175" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK175" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL175" t="n">
         <v>32</v>
       </c>
       <c r="AM175" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN175" t="n">
         <v>3.85</v>
       </c>
       <c r="AO175" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP175" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ175" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR175" t="n">
         <v>50</v>
@@ -32096,19 +32174,19 @@
         <v>175</v>
       </c>
       <c r="AT175" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU175" t="n">
         <v>7</v>
       </c>
       <c r="AV175" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW175" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX175" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY175" t="n">
         <v>24</v>
@@ -32352,12 +32430,8 @@
       <c r="L177" t="n">
         <v>13.5</v>
       </c>
-      <c r="M177" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N177" t="n">
-        <v>23</v>
-      </c>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
       <c r="O177" t="n">
         <v>1.07</v>
       </c>

--- a/Jogos_da_Semana_FlashScore_2024-12-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-07.xlsx
@@ -759,7 +759,7 @@
         <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>2</v>
@@ -789,10 +789,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W2" t="n">
         <v>19</v>
@@ -816,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -825,10 +825,10 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>8</v>
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
         <v>8</v>
@@ -932,13 +932,13 @@
         <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K3" t="n">
         <v>2.75</v>
@@ -950,7 +950,7 @@
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -998,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
@@ -1058,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1132,7 +1132,7 @@
         <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
         <v>1.17</v>
@@ -1204,7 +1204,7 @@
         <v>26</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
         <v>23</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
@@ -1308,7 +1308,7 @@
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
@@ -1347,7 +1347,7 @@
         <v>34</v>
       </c>
       <c r="Y5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="n">
         <v>51</v>
@@ -1362,13 +1362,13 @@
         <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1383,7 +1383,7 @@
         <v>9</v>
       </c>
       <c r="AK5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
         <v>13</v>
@@ -1416,7 +1416,7 @@
         <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW5" t="n">
         <v>3.75</v>
@@ -1440,7 +1440,7 @@
         <v>451</v>
       </c>
       <c r="BD5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
         <v>2.25</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
         <v>4.75</v>
@@ -1699,10 +1699,10 @@
         <v>3.25</v>
       </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W7" t="n">
         <v>8.5</v>
@@ -1726,7 +1726,7 @@
         <v>13</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1777,7 +1777,7 @@
         <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
@@ -2051,10 +2051,10 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S9" t="n">
         <v>1.29</v>
@@ -2206,7 +2206,7 @@
         <v>1.25</v>
       </c>
       <c r="H10" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I10" t="n">
         <v>10</v>
@@ -2221,10 +2221,10 @@
         <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
         <v>1.17</v>
@@ -2239,19 +2239,19 @@
         <v>2.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
         <v>6.5</v>
@@ -2260,13 +2260,13 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA10" t="n">
         <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
         <v>17</v>
@@ -2281,7 +2281,7 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH10" t="n">
         <v>23</v>
@@ -2314,16 +2314,16 @@
         <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
         <v>51</v>
@@ -2344,7 +2344,7 @@
         <v>201</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>151</v>
@@ -2427,10 +2427,10 @@
         <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>12</v>
@@ -2439,7 +2439,7 @@
         <v>7.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z11" t="n">
         <v>7</v>
@@ -2585,10 +2585,10 @@
         <v>2.63</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
@@ -2779,25 +2779,25 @@
         <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
         <v>8.5</v>
@@ -2815,13 +2815,13 @@
         <v>21</v>
       </c>
       <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE13" t="n">
         <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2839,7 +2839,7 @@
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
         <v>41</v>
@@ -2848,7 +2848,7 @@
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
         <v>7.5</v>
@@ -2857,7 +2857,7 @@
         <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2866,7 +2866,7 @@
         <v>101</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2875,25 +2875,25 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
         <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA13" t="n">
         <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -2961,10 +2961,10 @@
         <v>5.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R14" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S14" t="n">
         <v>1.25</v>
@@ -3131,10 +3131,10 @@
         <v>2.63</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
         <v>1.14</v>
@@ -3143,10 +3143,10 @@
         <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S15" t="n">
         <v>1.25</v>
@@ -3376,7 +3376,7 @@
         <v>451</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>13</v>
@@ -3415,13 +3415,13 @@
         <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
         <v>19</v>
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H18" t="n">
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
         <v>2.2</v>
@@ -3674,7 +3674,7 @@
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
@@ -3683,34 +3683,34 @@
         <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3731,13 +3731,13 @@
         <v>7.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
         <v>67</v>
       </c>
       <c r="AG18" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -3752,7 +3752,7 @@
         <v>67</v>
       </c>
       <c r="AL18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="n">
         <v>51</v>
@@ -3776,7 +3776,7 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
         <v>9</v>
@@ -4041,10 +4041,10 @@
         <v>4.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>1.29</v>
@@ -4053,10 +4053,10 @@
         <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
         <v>1.4</v>
@@ -4387,28 +4387,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.3</v>
@@ -4429,25 +4429,25 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
         <v>9.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
         <v>29</v>
@@ -4459,16 +4459,16 @@
         <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -4486,7 +4486,7 @@
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
         <v>13</v>
@@ -4513,7 +4513,7 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
         <v>17</v>
@@ -4525,10 +4525,10 @@
         <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
         <v>501</v>
@@ -4581,7 +4581,7 @@
         <v>2.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
         <v>5</v>
@@ -4590,7 +4590,7 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -4599,10 +4599,10 @@
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R23" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4635,7 +4635,7 @@
         <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
         <v>7</v>
@@ -4650,7 +4650,7 @@
         <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
@@ -4668,7 +4668,7 @@
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO23" t="n">
         <v>9.5</v>
@@ -5260,7 +5260,7 @@
         <v>451</v>
       </c>
       <c r="BD26" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27">
@@ -5475,22 +5475,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J28" t="n">
         <v>4.33</v>
       </c>
       <c r="K28" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>1.1</v>
@@ -5523,10 +5523,10 @@
         <v>1.67</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
         <v>13</v>
@@ -5541,7 +5541,7 @@
         <v>41</v>
       </c>
       <c r="AC28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD28" t="n">
         <v>6</v>
@@ -5559,10 +5559,10 @@
         <v>6</v>
       </c>
       <c r="AI28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>10</v>
       </c>
       <c r="AK28" t="n">
         <v>21</v>
@@ -5574,7 +5574,7 @@
         <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
@@ -5610,7 +5610,7 @@
         <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA28" t="n">
         <v>81</v>
@@ -5657,22 +5657,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K29" t="n">
         <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -5699,25 +5699,25 @@
         <v>2.5</v>
       </c>
       <c r="U29" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z29" t="n">
         <v>41</v>
       </c>
       <c r="AA29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB29" t="n">
         <v>41</v>
@@ -5738,16 +5738,16 @@
         <v>501</v>
       </c>
       <c r="AH29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
@@ -5759,16 +5759,16 @@
         <v>5.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP29" t="n">
         <v>34</v>
       </c>
       <c r="AQ29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS29" t="n">
         <v>301</v>
@@ -5777,16 +5777,16 @@
         <v>2.5</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV29" t="n">
         <v>67</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
         <v>26</v>
@@ -5839,22 +5839,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
@@ -5863,10 +5863,10 @@
         <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q30" t="n">
         <v>2.1</v>
@@ -5890,16 +5890,16 @@
         <v>6.5</v>
       </c>
       <c r="X30" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y30" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>9</v>
       </c>
       <c r="Z30" t="n">
         <v>15</v>
       </c>
       <c r="AA30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB30" t="n">
         <v>29</v>
@@ -5911,13 +5911,13 @@
         <v>6.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH30" t="n">
         <v>11</v>
@@ -5929,10 +5929,10 @@
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="n">
         <v>41</v>
@@ -5941,10 +5941,10 @@
         <v>3.75</v>
       </c>
       <c r="AO30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>34</v>
@@ -6042,7 +6042,7 @@
         <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O31" t="n">
         <v>1.14</v>
@@ -6051,10 +6051,10 @@
         <v>5.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S31" t="n">
         <v>1.25</v>
@@ -6203,13 +6203,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J32" t="n">
         <v>3.1</v>
@@ -6233,16 +6233,16 @@
         <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R32" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S32" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U32" t="n">
         <v>1.5</v>
@@ -6254,7 +6254,7 @@
         <v>13</v>
       </c>
       <c r="X32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y32" t="n">
         <v>10</v>
@@ -6269,22 +6269,22 @@
         <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG32" t="n">
         <v>101</v>
       </c>
       <c r="AH32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI32" t="n">
         <v>15</v>
@@ -6296,10 +6296,10 @@
         <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN32" t="n">
         <v>5</v>
@@ -6320,7 +6320,7 @@
         <v>101</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU32" t="n">
         <v>7</v>
@@ -6567,13 +6567,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J34" t="n">
         <v>6</v>
@@ -6621,7 +6621,7 @@
         <v>34</v>
       </c>
       <c r="Y34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
         <v>67</v>
@@ -7113,22 +7113,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="H37" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I37" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="K37" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="M37" t="n">
         <v>1.04</v>
@@ -7149,106 +7149,106 @@
         <v>2.15</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U37" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V37" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="W37" t="n">
         <v>13.5</v>
       </c>
       <c r="X37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y37" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA37" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB37" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF37" t="n">
         <v>50</v>
       </c>
       <c r="AG37" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH37" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK37" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AL37" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AM37" t="n">
         <v>21</v>
       </c>
       <c r="AN37" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AO37" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AP37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ37" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR37" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS37" t="n">
         <v>250</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU37" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV37" t="n">
         <v>55</v>
       </c>
       <c r="AW37" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="AX37" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AY37" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ37" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BA37" t="n">
         <v>55</v>
@@ -7295,145 +7295,145 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="H38" t="n">
         <v>3.15</v>
       </c>
       <c r="I38" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="J38" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="K38" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P38" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="S38" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="T38" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="U38" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="W38" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="X38" t="n">
         <v>21</v>
       </c>
       <c r="Y38" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB38" t="n">
         <v>60</v>
       </c>
-      <c r="AA38" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>50</v>
-      </c>
       <c r="AC38" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AD38" t="n">
         <v>6.2</v>
       </c>
       <c r="AE38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF38" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AG38" t="n">
         <v>800</v>
       </c>
       <c r="AH38" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AI38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK38" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL38" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN38" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO38" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP38" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AQ38" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR38" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS38" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT38" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="AU38" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AV38" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AX38" t="n">
         <v>9.75</v>
       </c>
       <c r="AY38" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AZ38" t="n">
         <v>37</v>
       </c>
       <c r="BA38" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB38" t="n">
         <v>300</v>
@@ -7473,22 +7473,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H39" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="I39" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="K39" t="n">
         <v>2.37</v>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7500,7 +7500,7 @@
         <v>1.19</v>
       </c>
       <c r="P39" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q39" t="n">
         <v>1.6</v>
@@ -7509,28 +7509,28 @@
         <v>2.07</v>
       </c>
       <c r="S39" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T39" t="n">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="U39" t="n">
         <v>1.7</v>
       </c>
       <c r="V39" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X39" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z39" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA39" t="n">
         <v>45</v>
@@ -7542,10 +7542,10 @@
         <v>14</v>
       </c>
       <c r="AD39" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE39" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF39" t="n">
         <v>65</v>
@@ -7554,61 +7554,61 @@
         <v>450</v>
       </c>
       <c r="AH39" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI39" t="n">
         <v>8</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>7.8</v>
       </c>
       <c r="AJ39" t="n">
         <v>8.25</v>
       </c>
       <c r="AK39" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AL39" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM39" t="n">
         <v>23</v>
       </c>
       <c r="AN39" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP39" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ39" t="n">
         <v>150</v>
       </c>
       <c r="AR39" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS39" t="n">
         <v>350</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU39" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV39" t="n">
         <v>60</v>
       </c>
       <c r="AW39" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AY39" t="n">
         <v>15</v>
       </c>
       <c r="AZ39" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA39" t="n">
         <v>45</v>
@@ -7833,13 +7833,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I41" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J41" t="n">
         <v>4.33</v>
@@ -7881,31 +7881,31 @@
         <v>2.25</v>
       </c>
       <c r="W41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
         <v>17</v>
       </c>
       <c r="AD41" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF41" t="n">
         <v>41</v>
@@ -7926,10 +7926,10 @@
         <v>15</v>
       </c>
       <c r="AL41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN41" t="n">
         <v>6</v>
@@ -7980,7 +7980,7 @@
         <v>351</v>
       </c>
       <c r="BD41" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42">
@@ -8024,13 +8024,13 @@
         <v>2.75</v>
       </c>
       <c r="J42" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="K42" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L42" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M42" t="n">
         <v>1.08</v>
@@ -8039,10 +8039,10 @@
         <v>7.5</v>
       </c>
       <c r="O42" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P42" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q42" t="n">
         <v>2.35</v>
@@ -8051,16 +8051,16 @@
         <v>1.57</v>
       </c>
       <c r="S42" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T42" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U42" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W42" t="n">
         <v>7</v>
@@ -8090,13 +8090,13 @@
         <v>17</v>
       </c>
       <c r="AF42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG42" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI42" t="n">
         <v>12</v>
@@ -8114,49 +8114,49 @@
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ42" t="n">
         <v>51</v>
       </c>
       <c r="AR42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV42" t="n">
         <v>67</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>51</v>
       </c>
       <c r="AW42" t="n">
         <v>4.75</v>
       </c>
       <c r="AX42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ42" t="n">
         <v>51</v>
       </c>
       <c r="BA42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB42" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC42" t="n">
         <v>126</v>
@@ -8585,16 +8585,16 @@
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R45" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S45" t="n">
         <v>1.36</v>
@@ -8923,16 +8923,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H47" t="n">
         <v>4.33</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J47" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K47" t="n">
         <v>2.5</v>
@@ -8980,7 +8980,7 @@
         <v>8.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA47" t="n">
         <v>12</v>
@@ -9016,7 +9016,7 @@
         <v>51</v>
       </c>
       <c r="AL47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM47" t="n">
         <v>34</v>
@@ -9025,13 +9025,13 @@
         <v>3.75</v>
       </c>
       <c r="AO47" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP47" t="n">
         <v>15</v>
       </c>
       <c r="AQ47" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR47" t="n">
         <v>41</v>
@@ -9052,10 +9052,10 @@
         <v>7</v>
       </c>
       <c r="AX47" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ47" t="n">
         <v>81</v>
@@ -9113,7 +9113,7 @@
         <v>2.25</v>
       </c>
       <c r="K48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
         <v>5</v>
@@ -9122,7 +9122,7 @@
         <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O48" t="n">
         <v>1.25</v>
@@ -9131,10 +9131,10 @@
         <v>3.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R48" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S48" t="n">
         <v>1.36</v>
@@ -9164,7 +9164,7 @@
         <v>13</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC48" t="n">
         <v>12</v>
@@ -9212,7 +9212,7 @@
         <v>26</v>
       </c>
       <c r="AR48" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS48" t="n">
         <v>126</v>
@@ -9233,7 +9233,7 @@
         <v>26</v>
       </c>
       <c r="AY48" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ48" t="n">
         <v>81</v>
@@ -9279,16 +9279,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>3.2</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>1.95</v>
@@ -9297,10 +9297,10 @@
         <v>3.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O49" t="n">
         <v>1.44</v>
@@ -9330,7 +9330,7 @@
         <v>6.5</v>
       </c>
       <c r="X49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y49" t="n">
         <v>10</v>
@@ -9345,7 +9345,7 @@
         <v>41</v>
       </c>
       <c r="AC49" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD49" t="n">
         <v>6</v>
@@ -9360,25 +9360,25 @@
         <v>351</v>
       </c>
       <c r="AH49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI49" t="n">
         <v>13</v>
       </c>
       <c r="AJ49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM49" t="n">
         <v>41</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO49" t="n">
         <v>15</v>
@@ -9405,16 +9405,16 @@
         <v>67</v>
       </c>
       <c r="AW49" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA49" t="n">
         <v>101</v>
@@ -9457,13 +9457,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I50" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J50" t="n">
         <v>7</v>
@@ -9487,10 +9487,10 @@
         <v>2.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R50" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S50" t="n">
         <v>1.5</v>
@@ -9505,13 +9505,13 @@
         <v>1.53</v>
       </c>
       <c r="W50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X50" t="n">
         <v>29</v>
       </c>
       <c r="Y50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z50" t="n">
         <v>67</v>
@@ -9547,16 +9547,16 @@
         <v>9</v>
       </c>
       <c r="AK50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL50" t="n">
         <v>15</v>
       </c>
       <c r="AM50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO50" t="n">
         <v>41</v>
@@ -9584,13 +9584,13 @@
         <v>3.25</v>
       </c>
       <c r="AX50" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY50" t="n">
         <v>23</v>
       </c>
       <c r="AZ50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA50" t="n">
         <v>51</v>
@@ -9633,16 +9633,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H51" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I51" t="n">
         <v>6.5</v>
       </c>
       <c r="J51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K51" t="n">
         <v>2.2</v>
@@ -9651,10 +9651,10 @@
         <v>6.5</v>
       </c>
       <c r="M51" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
         <v>1.3</v>
@@ -9663,10 +9663,10 @@
         <v>3.4</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R51" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S51" t="n">
         <v>1.4</v>
@@ -9681,7 +9681,7 @@
         <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X51" t="n">
         <v>7</v>
@@ -10023,10 +10023,10 @@
         <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R53" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S53" t="n">
         <v>1.4</v>
@@ -10912,7 +10912,7 @@
         <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O58" t="n">
         <v>1.22</v>
@@ -11097,16 +11097,16 @@
         <v>19</v>
       </c>
       <c r="O59" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P59" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R59" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S59" t="n">
         <v>1.25</v>
@@ -11255,13 +11255,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J60" t="n">
         <v>3</v>
@@ -11270,7 +11270,7 @@
         <v>2.1</v>
       </c>
       <c r="L60" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
@@ -11285,10 +11285,10 @@
         <v>3.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R60" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S60" t="n">
         <v>1.44</v>
@@ -11339,7 +11339,7 @@
         <v>10</v>
       </c>
       <c r="AI60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ60" t="n">
         <v>12</v>
@@ -11445,16 +11445,16 @@
         <v>1.83</v>
       </c>
       <c r="K61" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L61" t="n">
         <v>8</v>
       </c>
       <c r="M61" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O61" t="n">
         <v>1.25</v>
@@ -11481,13 +11481,13 @@
         <v>1.62</v>
       </c>
       <c r="W61" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X61" t="n">
         <v>6</v>
       </c>
       <c r="Y61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z61" t="n">
         <v>8</v>
@@ -11496,7 +11496,7 @@
         <v>12</v>
       </c>
       <c r="AB61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC61" t="n">
         <v>11</v>
@@ -11514,13 +11514,13 @@
         <v>501</v>
       </c>
       <c r="AH61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI61" t="n">
         <v>41</v>
       </c>
       <c r="AJ61" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK61" t="n">
         <v>101</v>
@@ -11529,7 +11529,7 @@
         <v>67</v>
       </c>
       <c r="AM61" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN61" t="n">
         <v>3.2</v>
@@ -11538,7 +11538,7 @@
         <v>6.5</v>
       </c>
       <c r="AP61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ61" t="n">
         <v>19</v>
@@ -11615,22 +11615,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J62" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K62" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.08</v>
@@ -11666,16 +11666,16 @@
         <v>6</v>
       </c>
       <c r="X62" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y62" t="n">
         <v>9</v>
       </c>
       <c r="Z62" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB62" t="n">
         <v>34</v>
@@ -11696,19 +11696,19 @@
         <v>401</v>
       </c>
       <c r="AH62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK62" t="n">
         <v>41</v>
       </c>
       <c r="AL62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM62" t="n">
         <v>41</v>
@@ -11735,13 +11735,13 @@
         <v>2.5</v>
       </c>
       <c r="AU62" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV62" t="n">
         <v>67</v>
       </c>
       <c r="AW62" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX62" t="n">
         <v>23</v>
@@ -11797,28 +11797,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H63" t="n">
         <v>3.6</v>
       </c>
       <c r="I63" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J63" t="n">
         <v>2.4</v>
       </c>
       <c r="K63" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L63" t="n">
         <v>5</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O63" t="n">
         <v>1.33</v>
@@ -11827,25 +11827,25 @@
         <v>3.4</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
         <v>1.8</v>
       </c>
       <c r="S63" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U63" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V63" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W63" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X63" t="n">
         <v>8</v>
@@ -11854,7 +11854,7 @@
         <v>8.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA63" t="n">
         <v>15</v>
@@ -11863,7 +11863,7 @@
         <v>29</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD63" t="n">
         <v>7</v>
@@ -11875,7 +11875,7 @@
         <v>51</v>
       </c>
       <c r="AG63" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH63" t="n">
         <v>12</v>
@@ -11896,7 +11896,7 @@
         <v>41</v>
       </c>
       <c r="AN63" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO63" t="n">
         <v>9.5</v>
@@ -11914,7 +11914,7 @@
         <v>151</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU63" t="n">
         <v>8.5</v>
@@ -11923,7 +11923,7 @@
         <v>51</v>
       </c>
       <c r="AW63" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX63" t="n">
         <v>26</v>
@@ -11932,13 +11932,13 @@
         <v>34</v>
       </c>
       <c r="AZ63" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA63" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB63" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC63" t="n">
         <v>151</v>
@@ -12525,22 +12525,22 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H67" t="n">
         <v>3.1</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="J67" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K67" t="n">
         <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M67" t="n">
         <v>1.08</v>
@@ -12561,37 +12561,37 @@
         <v>1.62</v>
       </c>
       <c r="S67" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T67" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U67" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V67" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W67" t="n">
         <v>7</v>
       </c>
       <c r="X67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y67" t="n">
         <v>10</v>
       </c>
       <c r="Z67" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA67" t="n">
         <v>23</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>21</v>
       </c>
       <c r="AB67" t="n">
         <v>34</v>
       </c>
       <c r="AC67" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD67" t="n">
         <v>6</v>
@@ -12600,7 +12600,7 @@
         <v>17</v>
       </c>
       <c r="AF67" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG67" t="n">
         <v>401</v>
@@ -12609,22 +12609,22 @@
         <v>7.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ67" t="n">
         <v>11</v>
       </c>
       <c r="AK67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM67" t="n">
         <v>41</v>
       </c>
       <c r="AN67" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO67" t="n">
         <v>15</v>
@@ -12642,7 +12642,7 @@
         <v>251</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU67" t="n">
         <v>8.5</v>
@@ -12654,7 +12654,7 @@
         <v>4.75</v>
       </c>
       <c r="AX67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY67" t="n">
         <v>29</v>
@@ -12663,7 +12663,7 @@
         <v>51</v>
       </c>
       <c r="BA67" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB67" t="n">
         <v>251</v>
@@ -12919,10 +12919,10 @@
         <v>3.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R69" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S69" t="n">
         <v>1.4</v>
@@ -13089,10 +13089,10 @@
         <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O70" t="n">
         <v>1.29</v>
@@ -13101,10 +13101,10 @@
         <v>3.75</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R70" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S70" t="n">
         <v>1.4</v>
@@ -13274,7 +13274,7 @@
         <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -13283,10 +13283,10 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S71" t="n">
         <v>1.44</v>
@@ -13447,7 +13447,7 @@
         <v>3.1</v>
       </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L72" t="n">
         <v>4</v>
@@ -13471,10 +13471,10 @@
         <v>1.57</v>
       </c>
       <c r="S72" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T72" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U72" t="n">
         <v>2</v>
@@ -13501,13 +13501,13 @@
         <v>34</v>
       </c>
       <c r="AC72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD72" t="n">
         <v>6.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF72" t="n">
         <v>67</v>
@@ -13549,10 +13549,10 @@
         <v>81</v>
       </c>
       <c r="AS72" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU72" t="n">
         <v>8.5</v>
@@ -13567,7 +13567,7 @@
         <v>19</v>
       </c>
       <c r="AY72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ72" t="n">
         <v>67</v>
@@ -13576,7 +13576,7 @@
         <v>101</v>
       </c>
       <c r="BB72" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC72" t="n">
         <v>126</v>
@@ -13808,7 +13808,7 @@
         <v>3.4</v>
       </c>
       <c r="J74" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K74" t="n">
         <v>2.2</v>
@@ -13829,16 +13829,16 @@
         <v>3.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R74" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T74" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U74" t="n">
         <v>1.7</v>
@@ -13847,7 +13847,7 @@
         <v>2.05</v>
       </c>
       <c r="W74" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X74" t="n">
         <v>11</v>
@@ -13856,7 +13856,7 @@
         <v>9</v>
       </c>
       <c r="Z74" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA74" t="n">
         <v>17</v>
@@ -13916,7 +13916,7 @@
         <v>151</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU74" t="n">
         <v>7.5</v>
@@ -13925,7 +13925,7 @@
         <v>51</v>
       </c>
       <c r="AW74" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX74" t="n">
         <v>19</v>
@@ -13999,25 +13999,25 @@
         <v>2.25</v>
       </c>
       <c r="M75" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N75" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O75" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P75" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R75" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S75" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T75" t="n">
         <v>3.25</v>
@@ -14163,7 +14163,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
         <v>3.5</v>
@@ -14199,7 +14199,7 @@
         <v>1.85</v>
       </c>
       <c r="S76" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T76" t="n">
         <v>2.75</v>
@@ -14229,7 +14229,7 @@
         <v>41</v>
       </c>
       <c r="AC76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD76" t="n">
         <v>6.5</v>
@@ -14241,13 +14241,13 @@
         <v>51</v>
       </c>
       <c r="AG76" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH76" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI76" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ76" t="n">
         <v>8.5</v>
@@ -14265,13 +14265,13 @@
         <v>6</v>
       </c>
       <c r="AO76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP76" t="n">
         <v>29</v>
       </c>
       <c r="AQ76" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR76" t="n">
         <v>101</v>
@@ -14289,7 +14289,7 @@
         <v>51</v>
       </c>
       <c r="AW76" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX76" t="n">
         <v>10</v>
@@ -14369,22 +14369,22 @@
         <v>10</v>
       </c>
       <c r="O77" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P77" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q77" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R77" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S77" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T77" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U77" t="n">
         <v>1.95</v>
@@ -14533,16 +14533,16 @@
         <v>3.4</v>
       </c>
       <c r="I78" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J78" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K78" t="n">
         <v>2.05</v>
       </c>
       <c r="L78" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M78" t="n">
         <v>1.06</v>
@@ -14557,16 +14557,16 @@
         <v>3</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R78" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S78" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T78" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U78" t="n">
         <v>1.91</v>
@@ -14614,7 +14614,7 @@
         <v>11</v>
       </c>
       <c r="AJ78" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK78" t="n">
         <v>23</v>
@@ -14709,16 +14709,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H79" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I79" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J79" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
         <v>2.2</v>
@@ -14730,7 +14730,7 @@
         <v>1.04</v>
       </c>
       <c r="N79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O79" t="n">
         <v>1.25</v>
@@ -14745,10 +14745,10 @@
         <v>2</v>
       </c>
       <c r="S79" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T79" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U79" t="n">
         <v>1.7</v>
@@ -14757,16 +14757,16 @@
         <v>2.05</v>
       </c>
       <c r="W79" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA79" t="n">
         <v>26</v>
@@ -14775,10 +14775,10 @@
         <v>34</v>
       </c>
       <c r="AC79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE79" t="n">
         <v>13</v>
@@ -14790,28 +14790,28 @@
         <v>201</v>
       </c>
       <c r="AH79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ79" t="n">
         <v>9</v>
       </c>
       <c r="AK79" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN79" t="n">
         <v>5.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP79" t="n">
         <v>26</v>
@@ -14826,7 +14826,7 @@
         <v>151</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU79" t="n">
         <v>7.5</v>
@@ -14835,10 +14835,10 @@
         <v>51</v>
       </c>
       <c r="AW79" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY79" t="n">
         <v>21</v>
@@ -14850,7 +14850,7 @@
         <v>51</v>
       </c>
       <c r="BB79" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC79" t="n">
         <v>126</v>
@@ -14900,13 +14900,13 @@
         <v>5.5</v>
       </c>
       <c r="J80" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K80" t="n">
         <v>2.25</v>
       </c>
       <c r="L80" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
         <v>1.05</v>
@@ -14915,10 +14915,10 @@
         <v>11</v>
       </c>
       <c r="O80" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P80" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q80" t="n">
         <v>1.9</v>
@@ -14927,10 +14927,10 @@
         <v>1.95</v>
       </c>
       <c r="S80" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T80" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80" t="n">
         <v>1.95</v>
@@ -14942,13 +14942,13 @@
         <v>6.5</v>
       </c>
       <c r="X80" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y80" t="n">
         <v>8.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA80" t="n">
         <v>13</v>
@@ -14963,7 +14963,7 @@
         <v>7.5</v>
       </c>
       <c r="AE80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF80" t="n">
         <v>51</v>
@@ -14972,7 +14972,7 @@
         <v>351</v>
       </c>
       <c r="AH80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI80" t="n">
         <v>29</v>
@@ -14981,7 +14981,7 @@
         <v>17</v>
       </c>
       <c r="AK80" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL80" t="n">
         <v>41</v>
@@ -14996,7 +14996,7 @@
         <v>8</v>
       </c>
       <c r="AP80" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ80" t="n">
         <v>26</v>
@@ -15008,7 +15008,7 @@
         <v>151</v>
       </c>
       <c r="AT80" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU80" t="n">
         <v>8.5</v>
@@ -15032,7 +15032,7 @@
         <v>126</v>
       </c>
       <c r="BB80" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC80" t="n">
         <v>126</v>
@@ -15079,7 +15079,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J81" t="n">
         <v>2.2</v>
@@ -15109,10 +15109,10 @@
         <v>2.35</v>
       </c>
       <c r="S81" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U81" t="n">
         <v>1.62</v>
@@ -15121,7 +15121,7 @@
         <v>2.2</v>
       </c>
       <c r="W81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X81" t="n">
         <v>9</v>
@@ -15160,7 +15160,7 @@
         <v>29</v>
       </c>
       <c r="AJ81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK81" t="n">
         <v>51</v>
@@ -15175,7 +15175,7 @@
         <v>3.75</v>
       </c>
       <c r="AO81" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP81" t="n">
         <v>17</v>
@@ -15190,7 +15190,7 @@
         <v>101</v>
       </c>
       <c r="AT81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU81" t="n">
         <v>7.5</v>
@@ -15199,7 +15199,7 @@
         <v>41</v>
       </c>
       <c r="AW81" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX81" t="n">
         <v>23</v>
@@ -15437,28 +15437,28 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I83" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J83" t="n">
         <v>4.75</v>
       </c>
       <c r="K83" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M83" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O83" t="n">
         <v>1.4</v>
@@ -15497,13 +15497,13 @@
         <v>41</v>
       </c>
       <c r="AA83" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB83" t="n">
         <v>41</v>
       </c>
       <c r="AC83" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD83" t="n">
         <v>6.5</v>
@@ -15521,13 +15521,13 @@
         <v>6</v>
       </c>
       <c r="AI83" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ83" t="n">
         <v>9</v>
       </c>
       <c r="AK83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL83" t="n">
         <v>17</v>
@@ -15566,7 +15566,7 @@
         <v>3.75</v>
       </c>
       <c r="AX83" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY83" t="n">
         <v>23</v>
@@ -15619,16 +15619,16 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H84" t="n">
         <v>3.6</v>
       </c>
       <c r="I84" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K84" t="n">
         <v>2.4</v>
@@ -15637,10 +15637,10 @@
         <v>2.88</v>
       </c>
       <c r="M84" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O84" t="n">
         <v>1.14</v>
@@ -15655,7 +15655,7 @@
         <v>2.5</v>
       </c>
       <c r="S84" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T84" t="n">
         <v>3.75</v>
@@ -15670,7 +15670,7 @@
         <v>15</v>
       </c>
       <c r="X84" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y84" t="n">
         <v>11</v>
@@ -15682,7 +15682,7 @@
         <v>19</v>
       </c>
       <c r="AB84" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC84" t="n">
         <v>19</v>
@@ -15721,7 +15721,7 @@
         <v>5</v>
       </c>
       <c r="AO84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP84" t="n">
         <v>19</v>
@@ -15757,10 +15757,10 @@
         <v>41</v>
       </c>
       <c r="BA84" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB84" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC84" t="n">
         <v>301</v>
@@ -15831,13 +15831,13 @@
         <v>3.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R85" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S85" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T85" t="n">
         <v>3</v>
@@ -16019,7 +16019,7 @@
         <v>2.35</v>
       </c>
       <c r="S86" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T86" t="n">
         <v>3.4</v>
@@ -16195,10 +16195,10 @@
         <v>4</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R87" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S87" t="n">
         <v>1.36</v>
@@ -16729,13 +16729,13 @@
         <v>4</v>
       </c>
       <c r="M90" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N90" t="n">
         <v>17</v>
       </c>
       <c r="O90" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -16747,7 +16747,7 @@
         <v>2.35</v>
       </c>
       <c r="S90" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T90" t="n">
         <v>3.5</v>
@@ -16911,13 +16911,13 @@
         <v>2.88</v>
       </c>
       <c r="M91" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N91" t="n">
         <v>15</v>
       </c>
       <c r="O91" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -16929,7 +16929,7 @@
         <v>2.35</v>
       </c>
       <c r="S91" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T91" t="n">
         <v>3.4</v>
@@ -17093,13 +17093,13 @@
         <v>3.4</v>
       </c>
       <c r="M92" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N92" t="n">
         <v>15</v>
       </c>
       <c r="O92" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P92" t="n">
         <v>4.33</v>
@@ -17111,7 +17111,7 @@
         <v>2.15</v>
       </c>
       <c r="S92" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T92" t="n">
         <v>3.25</v>
@@ -17795,16 +17795,16 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H96" t="n">
         <v>3.5</v>
       </c>
       <c r="I96" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J96" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
@@ -17843,19 +17843,19 @@
         <v>2</v>
       </c>
       <c r="W96" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X96" t="n">
         <v>12</v>
       </c>
       <c r="Y96" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z96" t="n">
         <v>23</v>
       </c>
       <c r="AA96" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB96" t="n">
         <v>29</v>
@@ -18507,7 +18507,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H100" t="n">
         <v>3.5</v>
@@ -18543,10 +18543,10 @@
         <v>1.95</v>
       </c>
       <c r="S100" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T100" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U100" t="n">
         <v>1.73</v>
@@ -18576,10 +18576,10 @@
         <v>11</v>
       </c>
       <c r="AD100" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE100" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF100" t="n">
         <v>41</v>
@@ -18591,7 +18591,7 @@
         <v>11</v>
       </c>
       <c r="AI100" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ100" t="n">
         <v>12</v>
@@ -18624,7 +18624,7 @@
         <v>151</v>
       </c>
       <c r="AT100" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU100" t="n">
         <v>8</v>
@@ -18642,7 +18642,7 @@
         <v>26</v>
       </c>
       <c r="AZ100" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA100" t="n">
         <v>81</v>
@@ -18685,13 +18685,13 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>3.15</v>
       </c>
       <c r="I101" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
         <v>2.85</v>
@@ -18709,19 +18709,19 @@
         <v>9.800000000000001</v>
       </c>
       <c r="O101" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P101" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="R101" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S101" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T101" t="n">
         <v>2.55</v>
@@ -18733,16 +18733,16 @@
         <v>2.02</v>
       </c>
       <c r="W101" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X101" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y101" t="n">
         <v>8.75</v>
       </c>
       <c r="Z101" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA101" t="n">
         <v>17.5</v>
@@ -18751,7 +18751,7 @@
         <v>25</v>
       </c>
       <c r="AC101" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD101" t="n">
         <v>6.2</v>
@@ -18766,40 +18766,40 @@
         <v>400</v>
       </c>
       <c r="AH101" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AI101" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ101" t="n">
         <v>10.5</v>
       </c>
       <c r="AK101" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL101" t="n">
         <v>26</v>
       </c>
       <c r="AM101" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN101" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AO101" t="n">
         <v>11.75</v>
       </c>
       <c r="AP101" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AQ101" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR101" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS101" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT101" t="n">
         <v>2.5</v>
@@ -18808,22 +18808,22 @@
         <v>6.7</v>
       </c>
       <c r="AV101" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW101" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AX101" t="n">
         <v>17</v>
       </c>
       <c r="AY101" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ101" t="n">
         <v>80</v>
       </c>
       <c r="BA101" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB101" t="n">
         <v>300</v>
@@ -18863,19 +18863,19 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H102" t="n">
         <v>3.1</v>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J102" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K102" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L102" t="n">
         <v>4.4</v>
@@ -18884,13 +18884,13 @@
         <v>1.02</v>
       </c>
       <c r="N102" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O102" t="n">
         <v>1.37</v>
       </c>
       <c r="P102" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Q102" t="n">
         <v>2.07</v>
@@ -18920,25 +18920,25 @@
         <v>8.5</v>
       </c>
       <c r="Z102" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA102" t="n">
         <v>17</v>
       </c>
-      <c r="AA102" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AB102" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC102" t="n">
         <v>7.7</v>
       </c>
       <c r="AD102" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE102" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF102" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG102" t="n">
         <v>800</v>
@@ -18959,13 +18959,13 @@
         <v>45</v>
       </c>
       <c r="AM102" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN102" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AO102" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AP102" t="n">
         <v>18</v>
@@ -18983,7 +18983,7 @@
         <v>2.45</v>
       </c>
       <c r="AU102" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV102" t="n">
         <v>65</v>
@@ -19077,10 +19077,10 @@
         <v>1.65</v>
       </c>
       <c r="S103" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="T103" t="n">
-        <v>2.69</v>
+        <v>2.66</v>
       </c>
       <c r="U103" t="n">
         <v>1.75</v>
@@ -19225,7 +19225,7 @@
         <v>3.2</v>
       </c>
       <c r="I104" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J104" t="n">
         <v>3.1</v>
@@ -19243,16 +19243,16 @@
         <v>9.5</v>
       </c>
       <c r="O104" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P104" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q104" t="n">
         <v>2.05</v>
       </c>
       <c r="R104" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S104" t="n">
         <v>1.44</v>
@@ -19279,7 +19279,7 @@
         <v>23</v>
       </c>
       <c r="AA104" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB104" t="n">
         <v>29</v>
@@ -19318,7 +19318,7 @@
         <v>34</v>
       </c>
       <c r="AN104" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO104" t="n">
         <v>13</v>
@@ -19345,7 +19345,7 @@
         <v>51</v>
       </c>
       <c r="AW104" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX104" t="n">
         <v>17</v>
@@ -19400,25 +19400,25 @@
         <v>7</v>
       </c>
       <c r="H105" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I105" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J105" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K105" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L105" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M105" t="n">
         <v>1.03</v>
       </c>
       <c r="N105" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O105" t="n">
         <v>1.18</v>
@@ -19433,16 +19433,16 @@
         <v>2.3</v>
       </c>
       <c r="S105" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T105" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U105" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V105" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W105" t="n">
         <v>21</v>
@@ -19466,13 +19466,13 @@
         <v>15</v>
       </c>
       <c r="AD105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE105" t="n">
         <v>21</v>
       </c>
       <c r="AF105" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG105" t="n">
         <v>301</v>
@@ -19484,19 +19484,19 @@
         <v>7</v>
       </c>
       <c r="AJ105" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK105" t="n">
         <v>9</v>
-      </c>
-      <c r="AK105" t="n">
-        <v>8.5</v>
       </c>
       <c r="AL105" t="n">
         <v>11</v>
       </c>
       <c r="AM105" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN105" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO105" t="n">
         <v>41</v>
@@ -19511,10 +19511,10 @@
         <v>151</v>
       </c>
       <c r="AS105" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT105" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU105" t="n">
         <v>9</v>
@@ -19526,7 +19526,7 @@
         <v>3.4</v>
       </c>
       <c r="AX105" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY105" t="n">
         <v>17</v>
@@ -19578,10 +19578,10 @@
         <v>2.4</v>
       </c>
       <c r="H106" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J106" t="n">
         <v>3.1</v>
@@ -19593,10 +19593,10 @@
         <v>3.6</v>
       </c>
       <c r="M106" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O106" t="n">
         <v>1.33</v>
@@ -19775,22 +19775,22 @@
         <v>3</v>
       </c>
       <c r="M107" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N107" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O107" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P107" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q107" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R107" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S107" t="n">
         <v>1.5</v>
@@ -19957,10 +19957,10 @@
         <v>3</v>
       </c>
       <c r="M108" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O108" t="n">
         <v>1.36</v>
@@ -20506,7 +20506,7 @@
         <v>1.07</v>
       </c>
       <c r="N111" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O111" t="n">
         <v>1.33</v>
@@ -20693,10 +20693,10 @@
         <v>4.5</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R112" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S112" t="n">
         <v>1.3</v>
@@ -21023,22 +21023,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H114" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I114" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J114" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K114" t="n">
         <v>2.4</v>
       </c>
       <c r="L114" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M114" t="n">
         <v>1.03</v>
@@ -21053,10 +21053,10 @@
         <v>5</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R114" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S114" t="n">
         <v>1.29</v>
@@ -21086,13 +21086,13 @@
         <v>15</v>
       </c>
       <c r="AB114" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC114" t="n">
         <v>17</v>
       </c>
       <c r="AD114" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE114" t="n">
         <v>11</v>
@@ -21110,13 +21110,13 @@
         <v>21</v>
       </c>
       <c r="AJ114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK114" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL114" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM114" t="n">
         <v>26</v>
@@ -21125,7 +21125,7 @@
         <v>4.33</v>
       </c>
       <c r="AO114" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP114" t="n">
         <v>17</v>
@@ -21205,28 +21205,28 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>3.4</v>
       </c>
       <c r="I115" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J115" t="n">
         <v>3.4</v>
       </c>
       <c r="K115" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L115" t="n">
         <v>3.1</v>
       </c>
       <c r="M115" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O115" t="n">
         <v>1.29</v>
@@ -21235,10 +21235,10 @@
         <v>3.5</v>
       </c>
       <c r="Q115" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R115" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S115" t="n">
         <v>1.4</v>
@@ -21247,10 +21247,10 @@
         <v>2.75</v>
       </c>
       <c r="U115" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V115" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W115" t="n">
         <v>9.5</v>
@@ -21259,7 +21259,7 @@
         <v>15</v>
       </c>
       <c r="Y115" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z115" t="n">
         <v>29</v>
@@ -21271,7 +21271,7 @@
         <v>29</v>
       </c>
       <c r="AC115" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD115" t="n">
         <v>6.5</v>
@@ -21286,13 +21286,13 @@
         <v>201</v>
       </c>
       <c r="AH115" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI115" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK115" t="n">
         <v>23</v>
@@ -21769,10 +21769,10 @@
         <v>6</v>
       </c>
       <c r="M118" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N118" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O118" t="n">
         <v>1.29</v>
@@ -22479,7 +22479,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>5</v>
@@ -22491,7 +22491,7 @@
         <v>1.8</v>
       </c>
       <c r="K122" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L122" t="n">
         <v>8</v>
@@ -22503,16 +22503,16 @@
         <v>13</v>
       </c>
       <c r="O122" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P122" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R122" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S122" t="n">
         <v>1.3</v>
@@ -22533,7 +22533,7 @@
         <v>6.5</v>
       </c>
       <c r="Y122" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z122" t="n">
         <v>8.5</v>
@@ -22542,7 +22542,7 @@
         <v>11</v>
       </c>
       <c r="AB122" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC122" t="n">
         <v>13</v>
@@ -22560,22 +22560,22 @@
         <v>351</v>
       </c>
       <c r="AH122" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI122" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ122" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK122" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL122" t="n">
         <v>67</v>
       </c>
       <c r="AM122" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN122" t="n">
         <v>3.25</v>
@@ -22667,7 +22667,7 @@
         <v>3.3</v>
       </c>
       <c r="I123" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J123" t="n">
         <v>2.5</v>
@@ -22676,13 +22676,13 @@
         <v>2.05</v>
       </c>
       <c r="L123" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M123" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O123" t="n">
         <v>1.4</v>
@@ -22703,10 +22703,10 @@
         <v>2.5</v>
       </c>
       <c r="U123" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V123" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W123" t="n">
         <v>6</v>
@@ -22718,7 +22718,7 @@
         <v>9</v>
       </c>
       <c r="Z123" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA123" t="n">
         <v>17</v>
@@ -22733,7 +22733,7 @@
         <v>6.5</v>
       </c>
       <c r="AE123" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF123" t="n">
         <v>67</v>
@@ -22787,22 +22787,22 @@
         <v>67</v>
       </c>
       <c r="AW123" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY123" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ123" t="n">
         <v>101</v>
       </c>
       <c r="BA123" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB123" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC123" t="n">
         <v>126</v>
@@ -22843,19 +22843,19 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H124" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I124" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J124" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K124" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L124" t="n">
         <v>2.05</v>
@@ -22873,10 +22873,10 @@
         <v>3.5</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R124" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S124" t="n">
         <v>1.4</v>
@@ -22897,10 +22897,10 @@
         <v>34</v>
       </c>
       <c r="Y124" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z124" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA124" t="n">
         <v>51</v>
@@ -22909,10 +22909,10 @@
         <v>51</v>
       </c>
       <c r="AC124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD124" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE124" t="n">
         <v>21</v>
@@ -22924,7 +22924,7 @@
         <v>451</v>
       </c>
       <c r="AH124" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI124" t="n">
         <v>6.5</v>
@@ -23595,10 +23595,10 @@
         <v>9</v>
       </c>
       <c r="O128" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P128" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q128" t="n">
         <v>2.2</v>
@@ -24651,16 +24651,16 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H134" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I134" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J134" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K134" t="n">
         <v>2.1</v>
@@ -24669,34 +24669,34 @@
         <v>2.6</v>
       </c>
       <c r="M134" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N134" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O134" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P134" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q134" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R134" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S134" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T134" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U134" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V134" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W134" t="n">
         <v>11</v>
@@ -24711,16 +24711,16 @@
         <v>41</v>
       </c>
       <c r="AA134" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB134" t="n">
         <v>34</v>
       </c>
-      <c r="AB134" t="n">
-        <v>41</v>
-      </c>
       <c r="AC134" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD134" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE134" t="n">
         <v>15</v>
@@ -24729,13 +24729,13 @@
         <v>51</v>
       </c>
       <c r="AG134" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AH134" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI134" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ134" t="n">
         <v>9</v>
@@ -24747,7 +24747,7 @@
         <v>17</v>
       </c>
       <c r="AM134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN134" t="n">
         <v>5.5</v>
@@ -24762,16 +24762,16 @@
         <v>67</v>
       </c>
       <c r="AR134" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS134" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU134" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV134" t="n">
         <v>51</v>
@@ -24833,13 +24833,13 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H135" t="n">
         <v>4.2</v>
       </c>
       <c r="I135" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J135" t="n">
         <v>2.1</v>
@@ -24851,10 +24851,10 @@
         <v>6</v>
       </c>
       <c r="M135" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O135" t="n">
         <v>1.25</v>
@@ -24875,10 +24875,10 @@
         <v>3</v>
       </c>
       <c r="U135" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V135" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W135" t="n">
         <v>7</v>
@@ -24899,13 +24899,13 @@
         <v>26</v>
       </c>
       <c r="AC135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD135" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE135" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF135" t="n">
         <v>51</v>
@@ -24920,7 +24920,7 @@
         <v>29</v>
       </c>
       <c r="AJ135" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK135" t="n">
         <v>67</v>
@@ -24935,7 +24935,7 @@
         <v>3.5</v>
       </c>
       <c r="AO135" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP135" t="n">
         <v>19</v>
@@ -25024,10 +25024,10 @@
         <v>13</v>
       </c>
       <c r="J136" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K136" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="L136" t="n">
         <v>10</v>
@@ -25051,52 +25051,52 @@
         <v>3.4</v>
       </c>
       <c r="S136" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T136" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U136" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V136" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W136" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X136" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y136" t="n">
         <v>10</v>
       </c>
       <c r="Z136" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA136" t="n">
         <v>10</v>
       </c>
       <c r="AB136" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC136" t="n">
         <v>26</v>
-      </c>
-      <c r="AC136" t="n">
-        <v>23</v>
       </c>
       <c r="AD136" t="n">
         <v>15</v>
       </c>
       <c r="AE136" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF136" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG136" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH136" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI136" t="n">
         <v>67</v>
@@ -25114,7 +25114,7 @@
         <v>67</v>
       </c>
       <c r="AN136" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO136" t="n">
         <v>5</v>
@@ -25123,16 +25123,16 @@
         <v>15</v>
       </c>
       <c r="AQ136" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR136" t="n">
         <v>29</v>
       </c>
       <c r="AS136" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT136" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU136" t="n">
         <v>10</v>
@@ -25156,10 +25156,10 @@
         <v>201</v>
       </c>
       <c r="BB136" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC136" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD136" t="n">
         <v>151</v>
@@ -25200,10 +25200,10 @@
         <v>2.15</v>
       </c>
       <c r="H137" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I137" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J137" t="n">
         <v>2.88</v>
@@ -25212,7 +25212,7 @@
         <v>2.1</v>
       </c>
       <c r="L137" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M137" t="n">
         <v>1.06</v>
@@ -25227,10 +25227,10 @@
         <v>3.4</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R137" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S137" t="n">
         <v>1.4</v>
@@ -25245,16 +25245,16 @@
         <v>1.95</v>
       </c>
       <c r="W137" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y137" t="n">
         <v>9</v>
       </c>
       <c r="Z137" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA137" t="n">
         <v>17</v>
@@ -25278,25 +25278,25 @@
         <v>251</v>
       </c>
       <c r="AH137" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI137" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK137" t="n">
         <v>34</v>
       </c>
       <c r="AL137" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM137" t="n">
         <v>34</v>
       </c>
       <c r="AN137" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO137" t="n">
         <v>12</v>
@@ -25323,16 +25323,16 @@
         <v>51</v>
       </c>
       <c r="AW137" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX137" t="n">
         <v>19</v>
       </c>
       <c r="AY137" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ137" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA137" t="n">
         <v>81</v>
@@ -25379,16 +25379,16 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H138" t="n">
         <v>3.9</v>
       </c>
       <c r="I138" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J138" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K138" t="n">
         <v>2.3</v>
@@ -25427,10 +25427,10 @@
         <v>2.05</v>
       </c>
       <c r="W138" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X138" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y138" t="n">
         <v>8.5</v>
@@ -25463,7 +25463,7 @@
         <v>15</v>
       </c>
       <c r="AI138" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ138" t="n">
         <v>15</v>
@@ -25481,19 +25481,19 @@
         <v>3.75</v>
       </c>
       <c r="AO138" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP138" t="n">
         <v>17</v>
       </c>
       <c r="AQ138" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR138" t="n">
         <v>41</v>
       </c>
       <c r="AS138" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT138" t="n">
         <v>3.25</v>
@@ -25758,7 +25758,7 @@
         <v>2.1</v>
       </c>
       <c r="L140" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M140" t="n">
         <v>1.06</v>
@@ -25767,16 +25767,16 @@
         <v>8</v>
       </c>
       <c r="O140" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P140" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q140" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R140" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S140" t="n">
         <v>1.44</v>
@@ -25812,7 +25812,7 @@
         <v>9</v>
       </c>
       <c r="AD140" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE140" t="n">
         <v>17</v>
@@ -25821,7 +25821,7 @@
         <v>51</v>
       </c>
       <c r="AG140" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH140" t="n">
         <v>11</v>
@@ -25884,7 +25884,7 @@
         <v>101</v>
       </c>
       <c r="BB140" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC140" t="n">
         <v>81</v>
@@ -25949,16 +25949,16 @@
         <v>9</v>
       </c>
       <c r="O141" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P141" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R141" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S141" t="n">
         <v>1.36</v>
@@ -26221,7 +26221,7 @@
         <v>101</v>
       </c>
       <c r="AS142" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT142" t="n">
         <v>2.63</v>
@@ -26656,19 +26656,19 @@
         <v>1.05</v>
       </c>
       <c r="H145" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="I145" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J145" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="K145" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L145" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M145" t="n">
         <v>1.02</v>
@@ -26677,55 +26677,55 @@
         <v>23</v>
       </c>
       <c r="O145" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P145" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="R145" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="S145" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="T145" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="U145" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="V145" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W145" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="X145" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="Y145" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z145" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AA145" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB145" t="n">
         <v>60</v>
       </c>
       <c r="AC145" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD145" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AE145" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF145" t="n">
         <v>400</v>
@@ -26734,13 +26734,13 @@
         <v>101</v>
       </c>
       <c r="AH145" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AI145" t="n">
         <v>800</v>
       </c>
       <c r="AJ145" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AK145" t="n">
         <v>101</v>
@@ -26749,28 +26749,28 @@
         <v>101</v>
       </c>
       <c r="AM145" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AN145" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AO145" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AP145" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ145" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AR145" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AS145" t="n">
         <v>250</v>
       </c>
       <c r="AT145" t="n">
-        <v>4.2</v>
+        <v>4.55</v>
       </c>
       <c r="AU145" t="n">
         <v>14.5</v>
@@ -26779,10 +26779,10 @@
         <v>150</v>
       </c>
       <c r="AW145" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AX145" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AY145" t="n">
         <v>175</v>
@@ -27007,55 +27007,55 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H147" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I147" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J147" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="K147" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L147" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="M147" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N147" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O147" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P147" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R147" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="S147" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T147" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="U147" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V147" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="W147" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="X147" t="n">
         <v>9.25</v>
@@ -27064,40 +27064,40 @@
         <v>8.5</v>
       </c>
       <c r="Z147" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA147" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB147" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC147" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD147" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE147" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG147" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH147" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI147" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ147" t="n">
         <v>15</v>
       </c>
       <c r="AK147" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL147" t="n">
         <v>45</v>
@@ -27109,37 +27109,37 @@
         <v>3.7</v>
       </c>
       <c r="AO147" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP147" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ147" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AR147" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AS147" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT147" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="AU147" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV147" t="n">
         <v>60</v>
       </c>
       <c r="AW147" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AX147" t="n">
         <v>24</v>
       </c>
       <c r="AY147" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ147" t="n">
         <v>150</v>
@@ -27148,7 +27148,7 @@
         <v>150</v>
       </c>
       <c r="BB147" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC147" t="n">
         <v>51</v>
@@ -27192,109 +27192,109 @@
         <v>2.95</v>
       </c>
       <c r="H148" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I148" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J148" t="n">
         <v>3.5</v>
       </c>
       <c r="K148" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L148" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M148" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N148" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="O148" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P148" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="Q148" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R148" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="S148" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T148" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="U148" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V148" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="W148" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="X148" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y148" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Z148" t="n">
         <v>37</v>
       </c>
       <c r="AA148" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB148" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC148" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AD148" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE148" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF148" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG148" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH148" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="AI148" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ148" t="n">
         <v>10</v>
       </c>
       <c r="AK148" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL148" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM148" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AN148" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AO148" t="n">
         <v>16</v>
       </c>
       <c r="AP148" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ148" t="n">
         <v>75</v>
@@ -27306,22 +27306,22 @@
         <v>350</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="AU148" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV148" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW148" t="n">
         <v>4.15</v>
       </c>
       <c r="AX148" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AY148" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ148" t="n">
         <v>50</v>
@@ -27380,13 +27380,13 @@
         <v>2.62</v>
       </c>
       <c r="J149" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K149" t="n">
         <v>2.22</v>
       </c>
       <c r="L149" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="M149" t="n">
         <v>1.04</v>
@@ -27398,19 +27398,19 @@
         <v>1.2</v>
       </c>
       <c r="P149" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R149" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S149" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T149" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U149" t="n">
         <v>1.5</v>
@@ -27419,31 +27419,31 @@
         <v>2.42</v>
       </c>
       <c r="W149" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="X149" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y149" t="n">
         <v>10</v>
       </c>
       <c r="Z149" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA149" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AB149" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC149" t="n">
         <v>9.25</v>
       </c>
       <c r="AD149" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE149" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF149" t="n">
         <v>40</v>
@@ -27452,43 +27452,43 @@
         <v>250</v>
       </c>
       <c r="AH149" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI149" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AJ149" t="n">
         <v>10.25</v>
       </c>
       <c r="AK149" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL149" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM149" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN149" t="n">
         <v>4.7</v>
       </c>
       <c r="AO149" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP149" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ149" t="n">
         <v>50</v>
       </c>
       <c r="AR149" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS149" t="n">
         <v>175</v>
       </c>
       <c r="AT149" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU149" t="n">
         <v>6.3</v>
@@ -27500,19 +27500,19 @@
         <v>4.85</v>
       </c>
       <c r="AX149" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY149" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AZ149" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA149" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BB149" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="BC149" t="n">
         <v>500</v>
@@ -27939,13 +27939,13 @@
         <v>2.75</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R152" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S152" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T152" t="n">
         <v>2.5</v>
@@ -28273,13 +28273,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I154" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J154" t="n">
         <v>2.75</v>
@@ -28324,7 +28324,7 @@
         <v>7</v>
       </c>
       <c r="X154" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y154" t="n">
         <v>9</v>
@@ -28342,7 +28342,7 @@
         <v>8.5</v>
       </c>
       <c r="AD154" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE154" t="n">
         <v>15</v>
@@ -28458,13 +28458,13 @@
         <v>2.7</v>
       </c>
       <c r="H155" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="I155" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J155" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K155" t="n">
         <v>1.83</v>
@@ -28509,19 +28509,19 @@
         <v>11</v>
       </c>
       <c r="Y155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z155" t="n">
         <v>26</v>
       </c>
       <c r="AA155" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB155" t="n">
         <v>41</v>
       </c>
       <c r="AC155" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD155" t="n">
         <v>5.5</v>
@@ -28530,7 +28530,7 @@
         <v>19</v>
       </c>
       <c r="AF155" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG155" t="inlineStr"/>
       <c r="AH155" t="n">
@@ -28656,7 +28656,7 @@
         <v>1.04</v>
       </c>
       <c r="N156" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O156" t="n">
         <v>1.25</v>
@@ -28671,22 +28671,22 @@
         <v>2.03</v>
       </c>
       <c r="S156" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T156" t="n">
         <v>3</v>
       </c>
       <c r="U156" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V156" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W156" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X156" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y156" t="n">
         <v>8.5</v>
@@ -28701,13 +28701,13 @@
         <v>26</v>
       </c>
       <c r="AC156" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD156" t="n">
         <v>7.5</v>
       </c>
       <c r="AE156" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF156" t="n">
         <v>51</v>
@@ -28737,7 +28737,7 @@
         <v>3.6</v>
       </c>
       <c r="AO156" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP156" t="n">
         <v>19</v>
@@ -28764,7 +28764,7 @@
         <v>7</v>
       </c>
       <c r="AX156" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY156" t="n">
         <v>34</v>
@@ -28773,7 +28773,7 @@
         <v>101</v>
       </c>
       <c r="BA156" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB156" t="n">
         <v>251</v>
@@ -28853,7 +28853,7 @@
         <v>2</v>
       </c>
       <c r="S157" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T157" t="n">
         <v>3</v>
@@ -29035,7 +29035,7 @@
         <v>2.1</v>
       </c>
       <c r="S158" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T158" t="n">
         <v>3.25</v>
@@ -29184,19 +29184,19 @@
         <v>2.1</v>
       </c>
       <c r="H159" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I159" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J159" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="K159" t="n">
         <v>2.12</v>
       </c>
       <c r="L159" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="M159" t="n">
         <v>1.07</v>
@@ -29205,46 +29205,46 @@
         <v>6.9</v>
       </c>
       <c r="O159" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P159" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R159" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S159" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T159" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U159" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V159" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="W159" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X159" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y159" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z159" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AA159" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB159" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC159" t="n">
         <v>6.9</v>
@@ -29253,67 +29253,67 @@
         <v>6.3</v>
       </c>
       <c r="AE159" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF159" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG159" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH159" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI159" t="n">
         <v>17.5</v>
       </c>
       <c r="AJ159" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK159" t="n">
         <v>45</v>
       </c>
       <c r="AL159" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM159" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ159" t="n">
         <v>40</v>
       </c>
-      <c r="AN159" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO159" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AP159" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ159" t="n">
-        <v>37</v>
-      </c>
       <c r="AR159" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AS159" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="AU159" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV159" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW159" t="n">
         <v>5.3</v>
       </c>
       <c r="AX159" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY159" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ159" t="n">
         <v>90</v>
@@ -29571,10 +29571,10 @@
         <v>4.5</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R161" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S161" t="n">
         <v>1.3</v>
@@ -30087,13 +30087,13 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H164" t="n">
         <v>10</v>
       </c>
       <c r="I164" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J164" t="n">
         <v>23</v>
@@ -30108,13 +30108,13 @@
         <v>1.01</v>
       </c>
       <c r="N164" t="n">
-        <v>14.4</v>
+        <v>12.5</v>
       </c>
       <c r="O164" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P164" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="Q164" t="n">
         <v>1.44</v>
@@ -30129,16 +30129,16 @@
         <v>3.7</v>
       </c>
       <c r="U164" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="V164" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W164" t="n">
         <v>51</v>
       </c>
       <c r="X164" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="Y164" t="n">
         <v>81</v>
@@ -30148,7 +30148,7 @@
         <v>251</v>
       </c>
       <c r="AB164" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AC164" t="n">
         <v>15</v>
@@ -30628,7 +30628,7 @@
         <v>2.12</v>
       </c>
       <c r="J167" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="K167" t="n">
         <v>1.88</v>
@@ -30658,7 +30658,7 @@
         <v>1.53</v>
       </c>
       <c r="T167" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U167" t="n">
         <v>2.02</v>
@@ -30667,25 +30667,25 @@
         <v>1.62</v>
       </c>
       <c r="W167" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X167" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y167" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z167" t="n">
         <v>55</v>
       </c>
       <c r="AA167" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB167" t="n">
         <v>60</v>
       </c>
       <c r="AC167" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AD167" t="n">
         <v>5.8</v>
@@ -30698,7 +30698,7 @@
       </c>
       <c r="AG167" t="inlineStr"/>
       <c r="AH167" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AI167" t="n">
         <v>9</v>
@@ -30716,16 +30716,16 @@
         <v>40</v>
       </c>
       <c r="AN167" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO167" t="n">
         <v>22</v>
       </c>
       <c r="AP167" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ167" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR167" t="n">
         <v>200</v>
@@ -30734,7 +30734,7 @@
         <v>500</v>
       </c>
       <c r="AT167" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AU167" t="n">
         <v>7.8</v>
@@ -30746,7 +30746,7 @@
         <v>3.8</v>
       </c>
       <c r="AX167" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AY167" t="n">
         <v>24</v>
@@ -30755,7 +30755,7 @@
         <v>50</v>
       </c>
       <c r="BA167" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB167" t="n">
         <v>400</v>
@@ -30799,22 +30799,22 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H168" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I168" t="n">
         <v>1.5</v>
       </c>
       <c r="J168" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="K168" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L168" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="M168" t="n">
         <v>1.04</v>
@@ -30823,22 +30823,22 @@
         <v>9.35</v>
       </c>
       <c r="O168" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P168" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R168" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S168" t="n">
         <v>1.42</v>
       </c>
       <c r="T168" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U168" t="n">
         <v>2.1</v>
@@ -30847,7 +30847,7 @@
         <v>1.57</v>
       </c>
       <c r="W168" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X168" t="n">
         <v>37</v>
@@ -30859,13 +30859,13 @@
         <v>150</v>
       </c>
       <c r="AA168" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AB168" t="n">
         <v>90</v>
       </c>
       <c r="AC168" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD168" t="n">
         <v>7.5</v>
@@ -30874,7 +30874,7 @@
         <v>22</v>
       </c>
       <c r="AF168" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG168" t="inlineStr"/>
       <c r="AH168" t="n">
@@ -30893,10 +30893,10 @@
         <v>14</v>
       </c>
       <c r="AM168" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN168" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AO168" t="n">
         <v>40</v>
@@ -30914,10 +30914,10 @@
         <v>81</v>
       </c>
       <c r="AT168" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU168" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV168" t="n">
         <v>100</v>
@@ -30926,19 +30926,19 @@
         <v>3.15</v>
       </c>
       <c r="AX168" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AY168" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ168" t="n">
         <v>23</v>
       </c>
       <c r="BA168" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB168" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC168" t="n">
         <v>81</v>
@@ -30979,28 +30979,28 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="H169" t="n">
         <v>2.85</v>
       </c>
       <c r="I169" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J169" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="K169" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="L169" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M169" t="n">
         <v>1.09</v>
       </c>
       <c r="N169" t="n">
-        <v>7.5</v>
+        <v>7.55</v>
       </c>
       <c r="O169" t="n">
         <v>1.44</v>
@@ -31015,10 +31015,10 @@
         <v>1.5</v>
       </c>
       <c r="S169" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T169" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="U169" t="n">
         <v>1.91</v>
@@ -31027,25 +31027,25 @@
         <v>1.7</v>
       </c>
       <c r="W169" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="X169" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y169" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z169" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AA169" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB169" t="n">
         <v>37</v>
       </c>
       <c r="AC169" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD169" t="n">
         <v>5.6</v>
@@ -31060,34 +31060,34 @@
         <v>900</v>
       </c>
       <c r="AH169" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI169" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ169" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AK169" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL169" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM169" t="n">
         <v>45</v>
       </c>
       <c r="AN169" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="AO169" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP169" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ169" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR169" t="n">
         <v>100</v>
@@ -31096,25 +31096,25 @@
         <v>350</v>
       </c>
       <c r="AT169" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="AU169" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV169" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW169" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AX169" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY169" t="n">
         <v>27</v>
       </c>
       <c r="AZ169" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA169" t="n">
         <v>150</v>
@@ -32084,7 +32084,7 @@
         <v>1.2</v>
       </c>
       <c r="P175" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q175" t="n">
         <v>1.62</v>
@@ -32129,7 +32129,7 @@
         <v>7.8</v>
       </c>
       <c r="AE175" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF175" t="n">
         <v>50</v>
@@ -32162,7 +32162,7 @@
         <v>8.5</v>
       </c>
       <c r="AP175" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ175" t="n">
         <v>27</v>
@@ -32177,7 +32177,7 @@
         <v>3.15</v>
       </c>
       <c r="AU175" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV175" t="n">
         <v>55</v>
@@ -32238,7 +32238,7 @@
         <v>1.55</v>
       </c>
       <c r="H176" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I176" t="n">
         <v>5.5</v>
@@ -32268,13 +32268,13 @@
         <v>1.88</v>
       </c>
       <c r="R176" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S176" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T176" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U176" t="n">
         <v>1.93</v>
@@ -32283,10 +32283,10 @@
         <v>1.78</v>
       </c>
       <c r="W176" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X176" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y176" t="n">
         <v>8</v>
@@ -32298,7 +32298,7 @@
         <v>13</v>
       </c>
       <c r="AB176" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC176" t="n">
         <v>7.3</v>
@@ -32307,16 +32307,16 @@
         <v>7.3</v>
       </c>
       <c r="AE176" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF176" t="n">
         <v>90</v>
       </c>
       <c r="AG176" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH176" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI176" t="n">
         <v>35</v>
@@ -32328,10 +32328,10 @@
         <v>120</v>
       </c>
       <c r="AL176" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM176" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN176" t="n">
         <v>3.35</v>
@@ -32352,7 +32352,7 @@
         <v>250</v>
       </c>
       <c r="AT176" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU176" t="n">
         <v>8</v>
@@ -32364,19 +32364,19 @@
         <v>7.1</v>
       </c>
       <c r="AX176" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AY176" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ176" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA176" t="n">
         <v>250</v>
       </c>
       <c r="BB176" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC176" t="inlineStr"/>
       <c r="BD176" t="inlineStr"/>
